--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="208">
   <si>
     <t>First_Name</t>
   </si>
@@ -88,9 +88,6 @@
     <t>Level</t>
   </si>
   <si>
-    <t>Self Employed</t>
-  </si>
-  <si>
     <t>Others</t>
   </si>
   <si>
@@ -538,9 +535,6 @@
     <t>1400000</t>
   </si>
   <si>
-    <t>28/09/1999</t>
-  </si>
-  <si>
     <t>Payout_Type</t>
   </si>
   <si>
@@ -592,9 +586,6 @@
     <t>Percentage</t>
   </si>
   <si>
-    <t>8000000</t>
-  </si>
-  <si>
     <t>35 Years</t>
   </si>
   <si>
@@ -635,6 +626,24 @@
   </si>
   <si>
     <t>7840954417</t>
+  </si>
+  <si>
+    <t>Salaried</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Unemployed</t>
+  </si>
+  <si>
+    <t>5000000</t>
+  </si>
+  <si>
+    <t>45 Years</t>
+  </si>
+  <si>
+    <t>30 Years</t>
   </si>
 </sst>
 </file>
@@ -795,7 +804,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -905,9 +914,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -960,6 +966,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1234,7 +1246,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1242,10 +1254,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DG2"/>
+  <dimension ref="A1:DG13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="19.5" customHeight="1"/>
@@ -1416,703 +1428,2128 @@
         <v>12</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="S1" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T1" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="U1" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="U1" s="34" t="s">
+      <c r="V1" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="V1" s="34" t="s">
+      <c r="W1" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="X1" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y1" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA1" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="W1" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="X1" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y1" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z1" s="15" t="s">
+      <c r="AB1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AA1" s="14" t="s">
+      <c r="AD1" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF1" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="AB1" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC1" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD1" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AG1" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="AH1" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="AI1" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ1" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="AF1" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="AG1" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="AH1" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="AI1" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="AJ1" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK1" s="15" t="s">
-        <v>38</v>
-      </c>
       <c r="AL1" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM1" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN1" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO1" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP1" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR1" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS1" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU1" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="AV1" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AW1" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX1" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY1" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ1" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA1" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB1" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC1" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD1" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="BE1" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="BF1" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="BG1" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="BH1" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="BI1" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ1" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="BK1" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="AM1" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN1" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO1" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP1" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="AQ1" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="AR1" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS1" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="AT1" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU1" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="AV1" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="AW1" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="AX1" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="AY1" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ1" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA1" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="BB1" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="BC1" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="BD1" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="BE1" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="BF1" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="BG1" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="BH1" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="BI1" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="BJ1" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="BK1" s="24" t="s">
+      <c r="BL1" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="BL1" s="28" t="s">
+      <c r="BM1" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="BM1" s="28" t="s">
+      <c r="BN1" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="BN1" s="26" t="s">
-        <v>84</v>
-      </c>
       <c r="BO1" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BP1" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BQ1" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="BR1" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="BR1" s="30" t="s">
+      <c r="BS1" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="BS1" s="24" t="s">
+      <c r="BT1" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="BT1" s="14" t="s">
+      <c r="BU1" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="BU1" s="24" t="s">
-        <v>94</v>
-      </c>
       <c r="BV1" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BW1" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BX1" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BY1" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BZ1" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="CA1" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CB1" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CC1" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="CD1" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="CE1" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="CE1" s="17" t="s">
-        <v>111</v>
-      </c>
       <c r="CF1" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="CG1" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="CH1" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="CH1" s="24" t="s">
-        <v>117</v>
-      </c>
       <c r="CI1" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="CJ1" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="CK1" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="CJ1" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="CK1" s="17" t="s">
-        <v>121</v>
-      </c>
       <c r="CL1" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="CM1" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="CM1" s="24" t="s">
+      <c r="CN1" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="CN1" s="15" t="s">
-        <v>126</v>
-      </c>
       <c r="CO1" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="CP1" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="CQ1" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="CP1" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="CQ1" s="24" t="s">
+      <c r="CR1" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="CR1" s="24" t="s">
+      <c r="CS1" s="17" t="s">
         <v>131</v>
-      </c>
-      <c r="CS1" s="17" t="s">
-        <v>132</v>
       </c>
       <c r="CT1" s="15" t="s">
         <v>16</v>
       </c>
       <c r="CU1" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="CV1" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="CW1" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="CX1" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="CY1" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="CY1" s="24" t="s">
+      <c r="CZ1" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="CZ1" s="14" t="s">
-        <v>141</v>
-      </c>
       <c r="DA1" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="DB1" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="DC1" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="DC1" s="24" t="s">
+      <c r="DD1" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="DD1" s="14" t="s">
-        <v>147</v>
-      </c>
       <c r="DE1" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="DF1" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="DF1" s="14" t="s">
+      <c r="DG1" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="DG1" s="14" t="s">
-        <v>151</v>
-      </c>
     </row>
-    <row r="2" spans="1:111" s="44" customFormat="1" ht="19.5" customHeight="1">
+    <row r="2" spans="1:111" s="43" customFormat="1" ht="19.5" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="F2" s="52" t="s">
-        <v>204</v>
+        <v>154</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>201</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="37" t="s">
-        <v>172</v>
+        <v>203</v>
+      </c>
+      <c r="H2" s="55" t="s">
+        <v>168</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>22</v>
+        <v>202</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="46" t="s">
-        <v>185</v>
-      </c>
-      <c r="M2" s="38" t="s">
+      <c r="L2" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="M2" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="45" t="s">
-        <v>190</v>
+      <c r="N2" s="44" t="s">
+        <v>205</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="P2" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q2" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W2" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y2" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="Q2" s="39" t="s">
+      <c r="Z2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB2" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD2" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="AE2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH2" s="46">
+        <v>25</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK2" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN2" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS2" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="AT2" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AU2" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AV2" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="AW2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="BA2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="BC2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="BE2" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF2" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="BG2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BH2" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI2" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="BJ2" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="BK2" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="BL2" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM2" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="BN2" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO2" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="BP2" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="BQ2" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="BR2" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="BS2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT2" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="BU2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="BV2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="BW2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BX2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="BY2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="BZ2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="CA2" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="CB2" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="CC2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="CD2" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="CE2" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CF2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="S2" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="T2" s="41" t="s">
-        <v>184</v>
-      </c>
-      <c r="U2" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="W2" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y2" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB2" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="AC2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD2" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="AE2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH2" s="47">
-        <v>25</v>
-      </c>
-      <c r="AI2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AK2" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL2" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AM2" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="AN2" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AQ2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AR2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS2" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="AT2" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="AU2" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="AV2" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="AW2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AX2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AZ2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="BA2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="BB2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="BC2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="BD2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="BE2" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="BF2" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="BG2" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="BH2" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="BI2" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="BJ2" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="BK2" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="BL2" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="BM2" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="BN2" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="BO2" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="BP2" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="BQ2" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="BR2" s="42" t="s">
-        <v>165</v>
-      </c>
-      <c r="BS2" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="BT2" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="BU2" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="BV2" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="BW2" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="BX2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="BY2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="BZ2" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="CA2" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="CB2" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="CC2" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="CD2" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="CE2" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="CF2" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="CG2" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="CH2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="CI2" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="CJ2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="CK2" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="CL2" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="CM2" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="CN2" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CO2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="CP2" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="CQ2" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="CR2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="CS2" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="CT2" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="CU2" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="CV2" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="CW2" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="CX2" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="CY2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="CZ2" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="DA2" s="36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="DB2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="DC2" s="42">
+        <v>1</v>
+      </c>
+      <c r="DD2" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="DE2" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="DF2" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="DG2" s="19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:111" s="43" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q3" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="U3" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y3" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB3" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD3" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="AE3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH3" s="46">
+        <v>25</v>
+      </c>
+      <c r="AI3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK3" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL3" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN3" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS3" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="AT3" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AU3" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AV3" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="AW3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="DC2" s="43">
+      <c r="BA3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="BC3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="BE3" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF3" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="BG3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BH3" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI3" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="BJ3" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="BK3" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="BL3" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM3" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="BN3" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO3" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="BP3" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="BQ3" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="BR3" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="BS3" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT3" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="BU3" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="BV3" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="BW3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BX3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="BY3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="BZ3" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="CA3" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="CB3" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="CC3" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="CD3" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="CE3" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CF3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="CG3" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="CH3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="CI3" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="CJ3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="CK3" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="CL3" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="CM3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="CN3" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="CO3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="CP3" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="CQ3" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="CR3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="CS3" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="CT3" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="CU3" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="CV3" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="CW3" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="CX3" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="CY3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CZ3" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="DA3" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="DB3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="DC3" s="42">
         <v>1</v>
       </c>
-      <c r="DD2" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="DE2" s="19" t="s">
+      <c r="DD3" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="DE3" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="DF3" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="DG3" s="19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:111" s="43" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="H4" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="M4" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q4" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T4" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W4" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y4" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB4" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD4" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="AE4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH4" s="46">
+        <v>25</v>
+      </c>
+      <c r="AI4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK4" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL4" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN4" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS4" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="DF2" s="19" t="s">
+      <c r="AT4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AU4" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AV4" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="AW4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="BA4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="BC4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="BE4" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF4" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="BG4" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BH4" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI4" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="BJ4" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="BK4" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="BL4" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM4" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="BN4" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO4" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="BP4" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="BQ4" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="BR4" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="BS4" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT4" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="BU4" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="BV4" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="BW4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BX4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="BY4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="BZ4" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="CA4" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="CB4" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="CC4" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="CD4" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="CE4" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CF4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="CG4" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="CH4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="CI4" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="CJ4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="CK4" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="CL4" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="CM4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="CN4" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="CO4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="CP4" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="CQ4" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="CR4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="CS4" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="DG2" s="19" t="s">
+      <c r="CT4" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="CU4" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="CV4" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="CW4" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="CX4" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="CY4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CZ4" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="DA4" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="DB4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="DC4" s="42">
+        <v>1</v>
+      </c>
+      <c r="DD4" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="DE4" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="DF4" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="DG4" s="19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:111" s="43" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="M5" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q5" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T5" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="U5" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W5" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y5" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB5" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD5" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="AE5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH5" s="46">
+        <v>25</v>
+      </c>
+      <c r="AI5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK5" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL5" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN5" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS5" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="AT5" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AU5" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AV5" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="AW5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="BA5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="BC5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="BE5" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF5" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="BG5" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BH5" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI5" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="BJ5" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="BK5" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="BL5" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM5" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="BN5" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO5" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="BP5" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="BQ5" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="BR5" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="BS5" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT5" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="BU5" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="BV5" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="BW5" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BX5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="BY5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="BZ5" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="CA5" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="CB5" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="CC5" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="CD5" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="CE5" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CF5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="CG5" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="CH5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="CI5" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="CJ5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="CK5" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="CL5" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="CM5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="CN5" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="CO5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="CP5" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="CQ5" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="CR5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="CS5" s="4" t="s">
         <v>152</v>
       </c>
+      <c r="CT5" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="CU5" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="CV5" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="CW5" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="CX5" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="CY5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CZ5" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="DA5" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="DB5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="DC5" s="42">
+        <v>1</v>
+      </c>
+      <c r="DD5" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="DE5" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="DF5" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="DG5" s="19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:111" s="43" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="F6" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="H6" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="M6" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q6" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S6" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T6" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="U6" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W6" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y6" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB6" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD6" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="AE6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH6" s="46">
+        <v>25</v>
+      </c>
+      <c r="AI6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK6" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL6" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN6" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS6" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="AT6" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AU6" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AV6" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="AW6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="BA6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="BC6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="BE6" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF6" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="BG6" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BH6" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI6" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="BJ6" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="BK6" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="BL6" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM6" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="BN6" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO6" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="BP6" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="BQ6" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="BR6" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="BS6" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT6" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="BU6" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="BV6" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="BW6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BX6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="BY6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="BZ6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="CA6" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="CB6" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="CC6" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="CD6" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="CE6" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CF6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="CG6" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="CH6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="CI6" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="CJ6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="CK6" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="CL6" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="CM6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="CN6" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="CO6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="CP6" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="CQ6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="CR6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="CS6" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="CT6" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="CU6" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="CV6" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="CW6" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="CX6" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="CY6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CZ6" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="DA6" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="DB6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="DC6" s="42">
+        <v>1</v>
+      </c>
+      <c r="DD6" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="DE6" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="DF6" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="DG6" s="19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:111" customFormat="1" ht="15">
+      <c r="A9" s="56"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+    </row>
+    <row r="10" spans="1:111" customFormat="1" ht="15">
+      <c r="A10" s="56"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+    </row>
+    <row r="11" spans="1:111" customFormat="1" ht="15">
+      <c r="A11" s="56"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+    </row>
+    <row r="12" spans="1:111" customFormat="1" ht="15">
+      <c r="A12" s="56"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+    </row>
+    <row r="13" spans="1:111" customFormat="1" ht="15">
+      <c r="A13" s="56"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
     </row>
   </sheetData>
   <dataValidations count="31">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CR2 CO2 CJ2 CH2 CF2 M1:M2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CR2:CR6 CO2:CO6 CJ2:CJ6 CH2:CH6 CF2:CF6 M1:M6">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BY2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BY2:BY6">
       <formula1>"Cable and Pipe Laying Vessels,Factory Ships,Oil Rig Barges / Supply Vessels,Others"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AU1:AU2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AU1:AU6">
       <formula1>"Single,Married,Divorced,Widowed"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BS1:BS2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BS1:BS6">
       <formula1>"Canara HSBC Life Insurance,Canara Bank,HSBC Bank,OBC Bank,Others"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BU1:BU2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BU1:BU6">
       <formula1>"Outside India,Maharashtra,Himachal Pradesh,Jammu &amp; Kashmir,Jharkhand,Karnataka,Kerala,Madhya Pradesh,Manipur,Meghalaya,Mizoram,Nagaland,Odisha,Punjab,Rajasthan,Tamil Nadu,Uttar Pradesh,Delhi,Haryana,Gujarat,Telangana,Chandigarh,Bihar,"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BX1:BX2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BX1:BX6">
       <formula1>"Merchant Marine,Others"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CE2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CE2:CE6">
       <formula1>"Australia,Bermuda,Bulgaria,Bulgaria,Canada,Croatia,Cyprus,Denmark,Estonia,Finland,Germany,HongKong,Iceland,Ireland,Italy,NewZealand,Portugal,Romania,Singapore,Slovakia,UnitedKingdom,UnitedStates,VaticanCity"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CM2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CM2:CM6">
       <formula1>"e-KYC Aadhaar,Ration Card,Water Bill(Not older than 3 months)"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CS2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CS2:CS6">
       <formula1>"HDFC Standard Life Insurance Co. Ltd,Life Insurance Corporation of India"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="DB2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="DB2:DB6">
       <formula1>"Aunt,Brother in Law,Brother,Daughter,Father,Mother"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="DC2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="DC2:DC6">
       <formula1>"100%,90%,80%,70%,60%,50%,40%,30%,20%,10%"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CA1:CA2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CA1:CA6">
       <formula1>"Bargeman / Dredgerman / Dredgermaster / Leadsman / Lighterman / Survey sounder / Tugboatman,Seaman / Engine-room worker,Boatswain / Engineer / Quartermaster / Steerer,"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BE1:BE2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BE1:BE6">
       <formula1>"School certificate/College certificate,Valid Passport,PAN card,Muncipal Birth certificate,Virtual Identification (VID)/ Aadhaar card,e-KYC Aadhaar,Valid Driving license,ESI card,Domicile Certificate,Defence Health Card,"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CY2 G1:G2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CY2:CY6 G1:G6">
       <formula1>"Male,Female,Transgender"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AM1:AM2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AM1:AM6">
       <formula1>"Pay Later,Pay Now"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BK1:BK2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BK1:BK6">
       <formula1>"Valid Passport,Ration Card,Virtual Identification (VID)/ Aadhaar card,e-KYC Aadhaar,Job Card by NREGA,Valid Driving license,Voter ID"</formula1>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH1:BH2 BN1:BN2">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH1:BH6 BN1:BN6">
       <formula1>4</formula1>
       <formula2>4</formula2>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CC2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CC2:CC6">
       <formula1>"Ocean liners"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CQ2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CQ2:CQ6">
       <formula1>"CDSL,NSDL"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CU2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CU2:CU6">
       <formula1>"Active,Lapsed"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AL1:AL2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AL1:AL6">
       <formula1>"Transport owner"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I6">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J1:J2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J1:J6">
       <formula1>"Salaried,Self Employed,Housewife,Student,Retired,Others,Unemployed"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K1:K2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K1:K6">
       <formula1>"Post graduate &amp; above,Graduate,Std XII pass,Diploma,Std X pass,Below std X"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q6">
       <formula1>"Regular,five,ten,fifteen,Upto_sixty"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="S1:S2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="S1:S6">
       <formula1>"Level,Increasing"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="P1:P2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="P1:P6">
       <formula1>"3 Month,6 Month,Year,Month"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576">
@@ -2131,9 +3568,17 @@
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
     <hyperlink ref="DA2" r:id="rId2"/>
+    <hyperlink ref="E3" r:id="rId3"/>
+    <hyperlink ref="DA3" r:id="rId4"/>
+    <hyperlink ref="E4" r:id="rId5"/>
+    <hyperlink ref="DA4" r:id="rId6"/>
+    <hyperlink ref="E5" r:id="rId7"/>
+    <hyperlink ref="DA5" r:id="rId8"/>
+    <hyperlink ref="E6" r:id="rId9"/>
+    <hyperlink ref="DA6" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -2153,7 +3598,7 @@
     <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="54" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
@@ -2166,59 +3611,59 @@
     <col min="19" max="19" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="50" customFormat="1">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:9" s="49" customFormat="1">
+      <c r="A1" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="47" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>191</v>
+      </c>
+      <c r="E1" s="47" t="s">
         <v>192</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="F1" s="47" t="s">
         <v>193</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="G1" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="I1" s="47" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="53" customFormat="1">
+      <c r="A2" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="B2" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="G1" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="49" t="s">
+      <c r="D2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="50" t="s">
         <v>197</v>
       </c>
-      <c r="I1" s="48" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="54" customFormat="1">
-      <c r="A2" s="18" t="s">
+      <c r="F2" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="18" t="s">
+      <c r="H2" s="52" t="s">
         <v>199</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="51" t="s">
-        <v>200</v>
-      </c>
-      <c r="F2" s="52" t="s">
-        <v>203</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="H2" s="53" t="s">
-        <v>202</v>
       </c>
       <c r="I2" s="18">
         <v>431003</v>

--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -7,9 +7,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Cases" sheetId="6" r:id="rId1"/>
-    <sheet name="YTP" sheetId="1" r:id="rId2"/>
-    <sheet name="YTP (2)" sheetId="5" r:id="rId3"/>
+    <sheet name="YTP" sheetId="1" r:id="rId1"/>
+    <sheet name="YTP (2)" sheetId="5" r:id="rId2"/>
+    <sheet name="Test Cases" sheetId="6" r:id="rId3"/>
     <sheet name="GFP" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -1401,7 +1401,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1409,10 +1409,1251 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DH31"/>
+  <dimension ref="A1:DH3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="BU89" sqref="BU89"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AE2" sqref="AE2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="39.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="28.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="51" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="24.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="8.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="29" style="2" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="39.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="30" style="1" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="38.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="26" style="1" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="25.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="27.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="7.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="113" max="16384" width="3" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:112" s="16" customFormat="1">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="U1" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="V1" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="W1" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="X1" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y1" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA1" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD1" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF1" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="AG1" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="AH1" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="AI1" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ1" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="AK1" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN1" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO1" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP1" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ1" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS1" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="AT1" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="AV1" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="AW1" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AX1" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AY1" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="AZ1" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA1" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB1" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="BC1" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD1" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE1" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF1" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="BG1" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="BH1" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="BI1" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="BJ1" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="BK1" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL1" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM1" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="BN1" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="BO1" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="BP1" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="BQ1" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="BR1" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="BS1" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="BT1" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="BU1" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="BV1" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="BW1" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="BX1" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="BY1" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="BZ1" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="CA1" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="CB1" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="CC1" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="CD1" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="CE1" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="CF1" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="CG1" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="CH1" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="CI1" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="CJ1" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="CK1" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="CL1" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="CM1" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="CN1" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="CO1" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="CP1" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="CQ1" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="CR1" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="CS1" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="CT1" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="CU1" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="CV1" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="CW1" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="CX1" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="CY1" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="CZ1" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="DA1" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="DB1" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="DC1" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="DD1" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="DE1" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="DF1" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="DG1" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="DH1" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:112" s="43" customFormat="1" ht="15.75">
+      <c r="A2" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="H2" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="M2" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q2" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W2" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB2" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD2" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="AE2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG2" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI2" s="46">
+        <v>25</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL2" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO2" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT2" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="AU2" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AV2" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AW2" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AY2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="BB2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="BD2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="BE2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="BF2" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG2" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="BH2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BI2" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ2" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="BK2" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="BL2" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="BM2" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="BN2" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="BO2" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP2" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="BQ2" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="BR2" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="BS2" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="BT2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU2" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="BV2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="BW2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BY2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="BZ2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="CA2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="CB2" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="CC2" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="CD2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="CE2" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="CF2" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CG2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="CH2" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="CI2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="CJ2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="CK2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="CL2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="CM2" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="CN2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="CO2" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="CP2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="CQ2" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="CR2" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="CS2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="CT2" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="CU2" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="CV2" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="CW2" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="CX2" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="CY2" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="CZ2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DA2" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="DB2" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="DC2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="DD2" s="42">
+        <v>1</v>
+      </c>
+      <c r="DE2" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="DF2" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="DG2" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="DH2" s="19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:112" s="43" customFormat="1" ht="15.75">
+      <c r="A3" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q3" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="U3" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y3" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB3" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD3" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="AE3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG3" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="AH3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI3" s="46">
+        <v>25</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL3" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM3" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO3" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT3" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="AU3" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AV3" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AW3" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AY3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="BB3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="BD3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="BE3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="BF3" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG3" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="BH3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BI3" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ3" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="BK3" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="BL3" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="BM3" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="BN3" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="BO3" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP3" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="BQ3" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="BR3" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="BS3" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="BT3" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU3" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="BV3" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="BW3" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BY3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="BZ3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="CA3" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="CB3" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="CC3" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="CD3" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="CE3" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="CF3" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CG3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="CH3" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="CI3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="CJ3" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="CK3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="CL3" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="CM3" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="CN3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="CO3" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="CP3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="CQ3" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="CR3" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="CS3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="CT3" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="CU3" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="CV3" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="CW3" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="CX3" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="CY3" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="CZ3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DA3" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="DB3" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="DC3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="DD3" s="42">
+        <v>1</v>
+      </c>
+      <c r="DE3" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="DF3" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="DG3" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="DH3" s="19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="31">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M1:M3 CS2:CS3 CP2:CP3 CK2:CK3 CI2:CI3 CG2:CG3">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AV1:AV3">
+      <formula1>"Single,Married,Divorced,Widowed"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BT1:BT3">
+      <formula1>"Canara HSBC Life Insurance,Canara Bank,HSBC Bank,OBC Bank,Others"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BV1:BV3">
+      <formula1>"Outside India,Maharashtra,Himachal Pradesh,Jammu &amp; Kashmir,Jharkhand,Karnataka,Kerala,Madhya Pradesh,Manipur,Meghalaya,Mizoram,Nagaland,Odisha,Punjab,Rajasthan,Tamil Nadu,Uttar Pradesh,Delhi,Haryana,Gujarat,Telangana,Chandigarh,Bihar,"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BY1:BY3">
+      <formula1>"Merchant Marine,Others"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CB1:CB3">
+      <formula1>"Bargeman / Dredgerman / Dredgermaster / Leadsman / Lighterman / Survey sounder / Tugboatman,Seaman / Engine-room worker,Boatswain / Engineer / Quartermaster / Steerer,"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BF1:BF3">
+      <formula1>"School certificate/College certificate,Valid Passport,PAN card,Muncipal Birth certificate,Virtual Identification (VID)/ Aadhaar card,e-KYC Aadhaar,Valid Driving license,ESI card,Domicile Certificate,Defence Health Card,"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G1:G3 CZ2:CZ3">
+      <formula1>"Male,Female,Transgender"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AN1:AN3">
+      <formula1>"Pay Later,Pay Now"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BL1:BL3">
+      <formula1>"Valid Passport,Ration Card,Virtual Identification (VID)/ Aadhaar card,e-KYC Aadhaar,Job Card by NREGA,Valid Driving license,Voter ID"</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BI1:BI3 BO1:BO3">
+      <formula1>4</formula1>
+      <formula2>4</formula2>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AM1:AM3">
+      <formula1>"Transport owner"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I3">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J1:J3">
+      <formula1>"Salaried,Self Employed,Housewife,Student,Retired,Others,Unemployed"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K1:K3">
+      <formula1>"Post graduate &amp; above,Graduate,Std XII pass,Diploma,Std X pass,Below std X"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q3">
+      <formula1>"Regular,five,ten,fifteen,Upto_sixty"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="S1:S3">
+      <formula1>"Level,Increasing"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="P1:P3">
+      <formula1>"3 Month,6 Month,Year,Month"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576">
+      <formula1>"Lumpsum,Monthly Income, Part Lumpsum &amp; Part Monthly Income"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="U2:U1048576 W2:W1048576">
+      <formula1>"Level,Increasing @ 5% per annum,Increasing @ 10% per annum"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576">
+      <formula1>"Lumpsum: 50% |  Monthly Income: 50%,Lumpsum: 25% |  Monthly Income: 75%,Lumpsum: 75% |  Monthly Income: 25%"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AI2:AI1048576">
+      <formula1>"25,50,75,100"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BZ2:BZ3">
+      <formula1>"Cable and Pipe Laying Vessels,Factory Ships,Oil Rig Barges / Supply Vessels,Others"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CF2:CF3">
+      <formula1>"Australia,Bermuda,Bulgaria,Bulgaria,Canada,Croatia,Cyprus,Denmark,Estonia,Finland,Germany,HongKong,Iceland,Ireland,Italy,NewZealand,Portugal,Romania,Singapore,Slovakia,UnitedKingdom,UnitedStates,VaticanCity"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CN2:CN3">
+      <formula1>"e-KYC Aadhaar,Ration Card,Water Bill(Not older than 3 months)"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CT2:CT3">
+      <formula1>"HDFC Standard Life Insurance Co. Ltd,Life Insurance Corporation of India"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="DC2:DC3">
+      <formula1>"Aunt,Brother in Law,Brother,Daughter,Father,Mother"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="DD2:DD3">
+      <formula1>"100%,90%,80%,70%,60%,50%,40%,30%,20%,10%"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CD2:CD3">
+      <formula1>"Ocean liners"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CR2:CR3">
+      <formula1>"CDSL,NSDL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CV2:CV3">
+      <formula1>"Active,Lapsed"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="DB2" r:id="rId1"/>
+    <hyperlink ref="DB3" r:id="rId2"/>
+    <hyperlink ref="E2" r:id="rId3"/>
+    <hyperlink ref="E3" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:DH34"/>
+  <sheetViews>
+    <sheetView topLeftCell="T1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="15"/>
@@ -1942,25 +3183,21 @@
       <c r="Y2" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="Z2" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="Z2" s="4"/>
       <c r="AA2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AB2" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="AC2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD2" s="19"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="19" t="s">
+        <v>170</v>
+      </c>
       <c r="AE2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AF2" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="AF2" s="4"/>
       <c r="AG2" s="12"/>
       <c r="AH2" s="4" t="s">
         <v>32</v>
@@ -2274,25 +3511,21 @@
       <c r="Y3" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="Z3" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="Z3" s="4"/>
       <c r="AA3" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AB3" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="AC3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD3" s="19"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="19" t="s">
+        <v>170</v>
+      </c>
       <c r="AE3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AF3" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="AF3" s="4"/>
       <c r="AG3" s="12"/>
       <c r="AH3" s="4" t="s">
         <v>32</v>
@@ -2600,25 +3833,21 @@
       <c r="W4" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="X4" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="X4" s="4"/>
       <c r="Y4" s="12" t="s">
         <v>186</v>
       </c>
       <c r="Z4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AA4" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="AA4" s="4"/>
       <c r="AB4" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="AC4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD4" s="19"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="19" t="s">
+        <v>170</v>
+      </c>
       <c r="AE4" s="12" t="s">
         <v>32</v>
       </c>
@@ -2934,25 +4163,21 @@
       <c r="W5" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="X5" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="X5" s="4"/>
       <c r="Y5" s="12" t="s">
         <v>186</v>
       </c>
       <c r="Z5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AA5" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="AA5" s="4"/>
       <c r="AB5" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="AC5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD5" s="19"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="19" t="s">
+        <v>170</v>
+      </c>
       <c r="AE5" s="12" t="s">
         <v>32</v>
       </c>
@@ -3274,25 +4499,21 @@
       <c r="Y6" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="Z6" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="Z6" s="4"/>
       <c r="AA6" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AB6" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="AC6" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD6" s="19"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="19" t="s">
+        <v>170</v>
+      </c>
       <c r="AE6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AF6" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="AF6" s="4"/>
       <c r="AG6" s="12"/>
       <c r="AH6" s="4" t="s">
         <v>32</v>
@@ -3606,25 +4827,21 @@
       <c r="Y7" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="Z7" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="Z7" s="4"/>
       <c r="AA7" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AB7" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="AC7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD7" s="19"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="19" t="s">
+        <v>170</v>
+      </c>
       <c r="AE7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AF7" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="AF7" s="4"/>
       <c r="AG7" s="12"/>
       <c r="AH7" s="4" t="s">
         <v>32</v>
@@ -3932,25 +5149,21 @@
       <c r="W8" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="X8" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="X8" s="4"/>
       <c r="Y8" s="12" t="s">
         <v>255</v>
       </c>
       <c r="Z8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AA8" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="AA8" s="4"/>
       <c r="AB8" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="AC8" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD8" s="19"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="19" t="s">
+        <v>170</v>
+      </c>
       <c r="AE8" s="12" t="s">
         <v>32</v>
       </c>
@@ -4266,25 +5479,21 @@
       <c r="W9" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="X9" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="X9" s="4"/>
       <c r="Y9" s="12" t="s">
         <v>186</v>
       </c>
       <c r="Z9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AA9" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="AA9" s="4"/>
       <c r="AB9" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="AC9" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD9" s="19"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="19" t="s">
+        <v>170</v>
+      </c>
       <c r="AE9" s="12" t="s">
         <v>32</v>
       </c>
@@ -4606,25 +5815,21 @@
       <c r="Y10" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="Z10" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="Z10" s="4"/>
       <c r="AA10" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AB10" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="AC10" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD10" s="19"/>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="19" t="s">
+        <v>170</v>
+      </c>
       <c r="AE10" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AF10" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="AF10" s="4"/>
       <c r="AG10" s="12"/>
       <c r="AH10" s="4" t="s">
         <v>32</v>
@@ -4938,25 +6143,21 @@
       <c r="Y11" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="Z11" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="Z11" s="4"/>
       <c r="AA11" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AB11" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="AC11" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD11" s="19"/>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="19" t="s">
+        <v>170</v>
+      </c>
       <c r="AE11" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AF11" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="AF11" s="4"/>
       <c r="AG11" s="12"/>
       <c r="AH11" s="4" t="s">
         <v>32</v>
@@ -5264,25 +6465,21 @@
       <c r="W12" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="X12" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="X12" s="4"/>
       <c r="Y12" s="12" t="s">
         <v>255</v>
       </c>
       <c r="Z12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AA12" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="AA12" s="4"/>
       <c r="AB12" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="AC12" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD12" s="19"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="19" t="s">
+        <v>170</v>
+      </c>
       <c r="AE12" s="12" t="s">
         <v>32</v>
       </c>
@@ -5598,25 +6795,21 @@
       <c r="W13" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="X13" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="X13" s="4"/>
       <c r="Y13" s="12" t="s">
         <v>255</v>
       </c>
       <c r="Z13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AA13" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="AA13" s="4"/>
       <c r="AB13" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="AC13" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD13" s="19"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="19" t="s">
+        <v>170</v>
+      </c>
       <c r="AE13" s="12" t="s">
         <v>32</v>
       </c>
@@ -5938,25 +7131,21 @@
       <c r="Y14" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="Z14" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="Z14" s="4"/>
       <c r="AA14" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AB14" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="AC14" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD14" s="19"/>
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="19" t="s">
+        <v>170</v>
+      </c>
       <c r="AE14" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AF14" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="AF14" s="4"/>
       <c r="AG14" s="12"/>
       <c r="AH14" s="4" t="s">
         <v>32</v>
@@ -6270,25 +7459,21 @@
       <c r="Y15" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="Z15" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="Z15" s="4"/>
       <c r="AA15" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AB15" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="AC15" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD15" s="19"/>
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="19" t="s">
+        <v>170</v>
+      </c>
       <c r="AE15" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AF15" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="AF15" s="4"/>
       <c r="AG15" s="12"/>
       <c r="AH15" s="4" t="s">
         <v>32</v>
@@ -6596,25 +7781,21 @@
       <c r="W16" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="X16" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="X16" s="4"/>
       <c r="Y16" s="12" t="s">
         <v>186</v>
       </c>
       <c r="Z16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AA16" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="AA16" s="4"/>
       <c r="AB16" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="AC16" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD16" s="19"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="19" t="s">
+        <v>170</v>
+      </c>
       <c r="AE16" s="12" t="s">
         <v>32</v>
       </c>
@@ -6930,25 +8111,21 @@
       <c r="W17" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="X17" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="X17" s="4"/>
       <c r="Y17" s="12" t="s">
         <v>255</v>
       </c>
       <c r="Z17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AA17" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="AA17" s="4"/>
       <c r="AB17" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="AC17" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD17" s="19"/>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="19" t="s">
+        <v>170</v>
+      </c>
       <c r="AE17" s="12" t="s">
         <v>32</v>
       </c>
@@ -7270,9 +8447,7 @@
       <c r="Y18" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="Z18" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="Z18" s="4"/>
       <c r="AA18" s="4" t="s">
         <v>31</v>
       </c>
@@ -7606,9 +8781,7 @@
       <c r="Y19" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="Z19" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="Z19" s="4"/>
       <c r="AA19" s="4" t="s">
         <v>31</v>
       </c>
@@ -7936,33 +9109,25 @@
       <c r="W20" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="X20" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="X20" s="4"/>
       <c r="Y20" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="Z20" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="Z20" s="4"/>
       <c r="AA20" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AB20" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="AC20" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="AC20" s="12"/>
       <c r="AD20" s="19" t="s">
         <v>170</v>
       </c>
       <c r="AE20" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AF20" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="AF20" s="4"/>
       <c r="AG20" s="12"/>
       <c r="AH20" s="4" t="s">
         <v>32</v>
@@ -8270,24 +9435,16 @@
       <c r="W21" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="X21" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="X21" s="4"/>
       <c r="Y21" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="Z21" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA21" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
       <c r="AB21" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="AC21" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="AC21" s="12"/>
       <c r="AD21" s="19" t="s">
         <v>170</v>
       </c>
@@ -8606,33 +9763,23 @@
       <c r="W22" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="X22" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="X22" s="4"/>
       <c r="Y22" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="Z22" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA22" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
       <c r="AB22" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="AC22" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="AC22" s="12"/>
       <c r="AD22" s="19" t="s">
         <v>170</v>
       </c>
       <c r="AE22" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AF22" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="AF22" s="4"/>
       <c r="AG22" s="12"/>
       <c r="AH22" s="4" t="s">
         <v>32</v>
@@ -8940,33 +10087,25 @@
       <c r="W23" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="X23" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="X23" s="4"/>
       <c r="Y23" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="Z23" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="Z23" s="4"/>
       <c r="AA23" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AB23" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="AC23" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="AC23" s="12"/>
       <c r="AD23" s="19" t="s">
         <v>170</v>
       </c>
       <c r="AE23" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AF23" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="AF23" s="4"/>
       <c r="AG23" s="12"/>
       <c r="AH23" s="4" t="s">
         <v>32</v>
@@ -9280,9 +10419,7 @@
       <c r="Y24" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="Z24" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="Z24" s="4"/>
       <c r="AA24" s="4" t="s">
         <v>31</v>
       </c>
@@ -9299,7 +10436,7 @@
         <v>32</v>
       </c>
       <c r="AF24" s="4" t="s">
-        <v>259</v>
+        <v>31</v>
       </c>
       <c r="AG24" s="19" t="s">
         <v>257</v>
@@ -9616,9 +10753,7 @@
       <c r="Y25" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="Z25" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="Z25" s="4"/>
       <c r="AA25" s="4" t="s">
         <v>31</v>
       </c>
@@ -9952,27 +11087,21 @@
       <c r="Y26" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="Z26" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="Z26" s="4"/>
       <c r="AA26" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AB26" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="AC26" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="AC26" s="12"/>
       <c r="AD26" s="19" t="s">
         <v>170</v>
       </c>
       <c r="AE26" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AF26" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="AF26" s="4"/>
       <c r="AG26" s="12"/>
       <c r="AH26" s="4" t="s">
         <v>32</v>
@@ -10280,24 +11409,18 @@
       <c r="W27" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="X27" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="X27" s="4"/>
       <c r="Y27" s="12" t="s">
         <v>255</v>
       </c>
       <c r="Z27" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AA27" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="AA27" s="4"/>
       <c r="AB27" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="AC27" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="AC27" s="12"/>
       <c r="AD27" s="19" t="s">
         <v>170</v>
       </c>
@@ -10616,24 +11739,18 @@
       <c r="W28" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="X28" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="X28" s="4"/>
       <c r="Y28" s="12" t="s">
         <v>255</v>
       </c>
       <c r="Z28" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AA28" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="AA28" s="4"/>
       <c r="AB28" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="AC28" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="AC28" s="12"/>
       <c r="AD28" s="19" t="s">
         <v>170</v>
       </c>
@@ -10958,27 +12075,21 @@
       <c r="Y29" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="Z29" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="Z29" s="4"/>
       <c r="AA29" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AB29" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="AC29" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="AC29" s="12"/>
       <c r="AD29" s="19" t="s">
         <v>170</v>
       </c>
       <c r="AE29" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AF29" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="AF29" s="4"/>
       <c r="AG29" s="12"/>
       <c r="AH29" s="4" t="s">
         <v>32</v>
@@ -11292,27 +12403,21 @@
       <c r="Y30" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="Z30" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="Z30" s="4"/>
       <c r="AA30" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AB30" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="AC30" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="AC30" s="12"/>
       <c r="AD30" s="19" t="s">
         <v>170</v>
       </c>
       <c r="AE30" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AF30" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="AF30" s="4"/>
       <c r="AG30" s="12"/>
       <c r="AH30" s="4" t="s">
         <v>32</v>
@@ -11626,27 +12731,21 @@
       <c r="Y31" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="Z31" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="Z31" s="4"/>
       <c r="AA31" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AB31" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="AC31" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="AC31" s="12"/>
       <c r="AD31" s="19" t="s">
         <v>170</v>
       </c>
       <c r="AE31" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AF31" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="AF31" s="4"/>
       <c r="AG31" s="12"/>
       <c r="AH31" s="4" t="s">
         <v>32</v>
@@ -11885,6 +12984,15 @@
       <c r="DH31" s="19" t="s">
         <v>151</v>
       </c>
+    </row>
+    <row r="32" spans="1:112">
+      <c r="H32" s="55"/>
+    </row>
+    <row r="33" spans="8:8">
+      <c r="H33" s="55"/>
+    </row>
+    <row r="34" spans="8:8">
+      <c r="H34" s="55"/>
     </row>
   </sheetData>
   <dataValidations count="31">
@@ -12050,1253 +13158,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DH3"/>
-  <sheetViews>
-    <sheetView topLeftCell="W1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AE2" sqref="AE2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15" style="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="28.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="39.42578125" style="35" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="28.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="51" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="8.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="29" style="2" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="19.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="39.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="38.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="25.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="27.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="7.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="18.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="113" max="16384" width="3" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:112" s="16" customFormat="1">
-      <c r="A1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="S1" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="T1" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="U1" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="V1" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="W1" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="X1" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y1" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z1" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA1" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="AB1" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD1" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF1" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="AG1" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="AH1" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="AI1" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="AJ1" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="AK1" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL1" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN1" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO1" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="AP1" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="AQ1" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="AR1" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="AS1" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="AT1" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="AU1" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="AV1" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="AW1" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AX1" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="AY1" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="AZ1" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="BA1" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB1" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="BC1" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="BD1" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="BE1" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF1" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="BG1" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="BH1" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="BI1" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="BJ1" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="BK1" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="BL1" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="BM1" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="BN1" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="BO1" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="BP1" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="BQ1" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="BR1" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="BS1" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="BT1" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="BU1" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="BV1" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="BW1" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="BX1" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="BY1" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="BZ1" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="CA1" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="CB1" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="CC1" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="CD1" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="CE1" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="CF1" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="CG1" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="CH1" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="CI1" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="CJ1" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="CK1" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="CL1" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="CM1" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="CN1" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="CO1" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="CP1" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="CQ1" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="CR1" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="CS1" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="CT1" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="CU1" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="CV1" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="CW1" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="CX1" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="CY1" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="CZ1" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="DA1" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="DB1" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="DC1" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="DD1" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="DE1" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="DF1" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="DG1" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="DH1" s="14" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:112" s="43" customFormat="1" ht="15.75">
-      <c r="A2" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="F2" s="51" t="s">
-        <v>201</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="55" t="s">
-        <v>168</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="45" t="s">
-        <v>242</v>
-      </c>
-      <c r="M2" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="44" t="s">
-        <v>204</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q2" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="S2" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="T2" s="40" t="s">
-        <v>182</v>
-      </c>
-      <c r="U2" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="W2" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y2" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB2" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="AC2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD2" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="AE2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG2" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="AH2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI2" s="46">
-        <v>25</v>
-      </c>
-      <c r="AJ2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AK2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL2" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="AM2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AN2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AO2" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="AP2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AQ2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AR2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AS2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AT2" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="AU2" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="AV2" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="AW2" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="AX2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AY2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="BA2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="BB2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="BD2" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="BE2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="BF2" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="BG2" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="BH2" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="BI2" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="BJ2" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="BK2" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="BL2" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="BM2" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="BN2" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="BO2" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="BP2" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="BQ2" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="BR2" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="BS2" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="BT2" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="BU2" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="BV2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="BW2" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="BX2" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="BY2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="BZ2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="CA2" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="CB2" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="CC2" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="CD2" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="CE2" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="CF2" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="CG2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="CH2" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="CI2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="CJ2" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="CK2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="CL2" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="CM2" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="CN2" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="CO2" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="CP2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="CQ2" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="CR2" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="CS2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="CT2" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="CU2" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="CV2" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="CW2" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="CX2" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="CY2" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="CZ2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="DA2" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="DB2" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="DC2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="DD2" s="42">
-        <v>1</v>
-      </c>
-      <c r="DE2" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="DF2" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="DG2" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="DH2" s="19" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:112" s="43" customFormat="1" ht="15.75">
-      <c r="A3" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="F3" s="51" t="s">
-        <v>201</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="55" t="s">
-        <v>168</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="45" t="s">
-        <v>243</v>
-      </c>
-      <c r="M3" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" s="44" t="s">
-        <v>204</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q3" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="S3" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3" s="40" t="s">
-        <v>182</v>
-      </c>
-      <c r="U3" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="W3" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y3" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="Z3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB3" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="AC3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD3" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="AE3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG3" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="AH3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI3" s="46">
-        <v>25</v>
-      </c>
-      <c r="AJ3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AK3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL3" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="AM3" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AN3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AO3" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="AP3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AQ3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AR3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AS3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AT3" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="AU3" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="AV3" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="AW3" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="AX3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AY3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="BA3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="BB3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC3" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="BD3" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="BE3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="BF3" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="BG3" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="BH3" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="BI3" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="BJ3" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="BK3" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="BL3" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="BM3" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="BN3" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="BO3" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="BP3" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="BQ3" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="BR3" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="BS3" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="BT3" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="BU3" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="BV3" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="BW3" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="BX3" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="BY3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="BZ3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="CA3" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="CB3" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="CC3" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="CD3" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="CE3" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="CF3" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="CG3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="CH3" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="CI3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="CJ3" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="CK3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="CL3" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="CM3" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="CN3" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="CO3" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="CP3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="CQ3" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="CR3" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="CS3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="CT3" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="CU3" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="CV3" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="CW3" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="CX3" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="CY3" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="CZ3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="DA3" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="DB3" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="DC3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="DD3" s="42">
-        <v>1</v>
-      </c>
-      <c r="DE3" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="DF3" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="DG3" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="DH3" s="19" t="s">
-        <v>151</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="31">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M1:M3 CS2:CS3 CP2:CP3 CK2:CK3 CI2:CI3 CG2:CG3">
-      <formula1>"Yes,No"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AV1:AV3">
-      <formula1>"Single,Married,Divorced,Widowed"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BT1:BT3">
-      <formula1>"Canara HSBC Life Insurance,Canara Bank,HSBC Bank,OBC Bank,Others"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BV1:BV3">
-      <formula1>"Outside India,Maharashtra,Himachal Pradesh,Jammu &amp; Kashmir,Jharkhand,Karnataka,Kerala,Madhya Pradesh,Manipur,Meghalaya,Mizoram,Nagaland,Odisha,Punjab,Rajasthan,Tamil Nadu,Uttar Pradesh,Delhi,Haryana,Gujarat,Telangana,Chandigarh,Bihar,"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BY1:BY3">
-      <formula1>"Merchant Marine,Others"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CB1:CB3">
-      <formula1>"Bargeman / Dredgerman / Dredgermaster / Leadsman / Lighterman / Survey sounder / Tugboatman,Seaman / Engine-room worker,Boatswain / Engineer / Quartermaster / Steerer,"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BF1:BF3">
-      <formula1>"School certificate/College certificate,Valid Passport,PAN card,Muncipal Birth certificate,Virtual Identification (VID)/ Aadhaar card,e-KYC Aadhaar,Valid Driving license,ESI card,Domicile Certificate,Defence Health Card,"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G1:G3 CZ2:CZ3">
-      <formula1>"Male,Female,Transgender"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AN1:AN3">
-      <formula1>"Pay Later,Pay Now"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BL1:BL3">
-      <formula1>"Valid Passport,Ration Card,Virtual Identification (VID)/ Aadhaar card,e-KYC Aadhaar,Job Card by NREGA,Valid Driving license,Voter ID"</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BI1:BI3 BO1:BO3">
-      <formula1>4</formula1>
-      <formula2>4</formula2>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AM1:AM3">
-      <formula1>"Transport owner"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I3">
-      <formula1>"Yes,No"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J1:J3">
-      <formula1>"Salaried,Self Employed,Housewife,Student,Retired,Others,Unemployed"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K1:K3">
-      <formula1>"Post graduate &amp; above,Graduate,Std XII pass,Diploma,Std X pass,Below std X"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q3">
-      <formula1>"Regular,five,ten,fifteen,Upto_sixty"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="S1:S3">
-      <formula1>"Level,Increasing"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="P1:P3">
-      <formula1>"3 Month,6 Month,Year,Month"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576">
-      <formula1>"Lumpsum,Monthly Income, Part Lumpsum &amp; Part Monthly Income"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="U2:U1048576 W2:W1048576">
-      <formula1>"Level,Increasing @ 5% per annum,Increasing @ 10% per annum"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576">
-      <formula1>"Lumpsum: 50% |  Monthly Income: 50%,Lumpsum: 25% |  Monthly Income: 75%,Lumpsum: 75% |  Monthly Income: 25%"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AI2:AI1048576">
-      <formula1>"25,50,75,100"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BZ2:BZ3">
-      <formula1>"Cable and Pipe Laying Vessels,Factory Ships,Oil Rig Barges / Supply Vessels,Others"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CF2:CF3">
-      <formula1>"Australia,Bermuda,Bulgaria,Bulgaria,Canada,Croatia,Cyprus,Denmark,Estonia,Finland,Germany,HongKong,Iceland,Ireland,Italy,NewZealand,Portugal,Romania,Singapore,Slovakia,UnitedKingdom,UnitedStates,VaticanCity"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CN2:CN3">
-      <formula1>"e-KYC Aadhaar,Ration Card,Water Bill(Not older than 3 months)"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CT2:CT3">
-      <formula1>"HDFC Standard Life Insurance Co. Ltd,Life Insurance Corporation of India"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="DC2:DC3">
-      <formula1>"Aunt,Brother in Law,Brother,Daughter,Father,Mother"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="DD2:DD3">
-      <formula1>"100%,90%,80%,70%,60%,50%,40%,30%,20%,10%"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CD2:CD3">
-      <formula1>"Ocean liners"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CR2:CR3">
-      <formula1>"CDSL,NSDL"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CV2:CV3">
-      <formula1>"Active,Lapsed"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="DB2" r:id="rId1"/>
-    <hyperlink ref="DB3" r:id="rId2"/>
-    <hyperlink ref="E2" r:id="rId3"/>
-    <hyperlink ref="E3" r:id="rId4"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DH34"/>
+  <dimension ref="A1:DH31"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="BU89" sqref="BU89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="15"/>
@@ -13826,21 +13693,25 @@
       <c r="Y2" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="Z2" s="4"/>
+      <c r="Z2" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="AA2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AB2" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="19" t="s">
-        <v>170</v>
-      </c>
+      <c r="AC2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD2" s="19"/>
       <c r="AE2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AF2" s="4"/>
+      <c r="AF2" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="AG2" s="12"/>
       <c r="AH2" s="4" t="s">
         <v>32</v>
@@ -14154,21 +14025,25 @@
       <c r="Y3" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="Z3" s="4"/>
+      <c r="Z3" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="AA3" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AB3" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="AC3" s="12"/>
-      <c r="AD3" s="19" t="s">
-        <v>170</v>
-      </c>
+      <c r="AC3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD3" s="19"/>
       <c r="AE3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AF3" s="4"/>
+      <c r="AF3" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="AG3" s="12"/>
       <c r="AH3" s="4" t="s">
         <v>32</v>
@@ -14476,21 +14351,25 @@
       <c r="W4" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="X4" s="4"/>
+      <c r="X4" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="Y4" s="12" t="s">
         <v>186</v>
       </c>
       <c r="Z4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AA4" s="4"/>
+      <c r="AA4" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="AB4" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="19" t="s">
-        <v>170</v>
-      </c>
+      <c r="AC4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD4" s="19"/>
       <c r="AE4" s="12" t="s">
         <v>32</v>
       </c>
@@ -14806,21 +14685,25 @@
       <c r="W5" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="X5" s="4"/>
+      <c r="X5" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="Y5" s="12" t="s">
         <v>186</v>
       </c>
       <c r="Z5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AA5" s="4"/>
+      <c r="AA5" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="AB5" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="19" t="s">
-        <v>170</v>
-      </c>
+      <c r="AC5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD5" s="19"/>
       <c r="AE5" s="12" t="s">
         <v>32</v>
       </c>
@@ -15142,21 +15025,25 @@
       <c r="Y6" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="Z6" s="4"/>
+      <c r="Z6" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="AA6" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AB6" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="19" t="s">
-        <v>170</v>
-      </c>
+      <c r="AC6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD6" s="19"/>
       <c r="AE6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AF6" s="4"/>
+      <c r="AF6" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="AG6" s="12"/>
       <c r="AH6" s="4" t="s">
         <v>32</v>
@@ -15470,21 +15357,25 @@
       <c r="Y7" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="Z7" s="4"/>
+      <c r="Z7" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="AA7" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AB7" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="AC7" s="12"/>
-      <c r="AD7" s="19" t="s">
-        <v>170</v>
-      </c>
+      <c r="AC7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD7" s="19"/>
       <c r="AE7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AF7" s="4"/>
+      <c r="AF7" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="AG7" s="12"/>
       <c r="AH7" s="4" t="s">
         <v>32</v>
@@ -15792,21 +15683,25 @@
       <c r="W8" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="X8" s="4"/>
+      <c r="X8" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="Y8" s="12" t="s">
         <v>255</v>
       </c>
       <c r="Z8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AA8" s="4"/>
+      <c r="AA8" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="AB8" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="19" t="s">
-        <v>170</v>
-      </c>
+      <c r="AC8" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD8" s="19"/>
       <c r="AE8" s="12" t="s">
         <v>32</v>
       </c>
@@ -16122,21 +16017,25 @@
       <c r="W9" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="X9" s="4"/>
+      <c r="X9" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="Y9" s="12" t="s">
         <v>186</v>
       </c>
       <c r="Z9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AA9" s="4"/>
+      <c r="AA9" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="AB9" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="AC9" s="12"/>
-      <c r="AD9" s="19" t="s">
-        <v>170</v>
-      </c>
+      <c r="AC9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD9" s="19"/>
       <c r="AE9" s="12" t="s">
         <v>32</v>
       </c>
@@ -16458,21 +16357,25 @@
       <c r="Y10" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="Z10" s="4"/>
+      <c r="Z10" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="AA10" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AB10" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="AC10" s="12"/>
-      <c r="AD10" s="19" t="s">
-        <v>170</v>
-      </c>
+      <c r="AC10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD10" s="19"/>
       <c r="AE10" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AF10" s="4"/>
+      <c r="AF10" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="AG10" s="12"/>
       <c r="AH10" s="4" t="s">
         <v>32</v>
@@ -16786,21 +16689,25 @@
       <c r="Y11" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="Z11" s="4"/>
+      <c r="Z11" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="AA11" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AB11" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="AC11" s="12"/>
-      <c r="AD11" s="19" t="s">
-        <v>170</v>
-      </c>
+      <c r="AC11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD11" s="19"/>
       <c r="AE11" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AF11" s="4"/>
+      <c r="AF11" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="AG11" s="12"/>
       <c r="AH11" s="4" t="s">
         <v>32</v>
@@ -17108,21 +17015,25 @@
       <c r="W12" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="X12" s="4"/>
+      <c r="X12" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="Y12" s="12" t="s">
         <v>255</v>
       </c>
       <c r="Z12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AA12" s="4"/>
+      <c r="AA12" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="AB12" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="AC12" s="12"/>
-      <c r="AD12" s="19" t="s">
-        <v>170</v>
-      </c>
+      <c r="AC12" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD12" s="19"/>
       <c r="AE12" s="12" t="s">
         <v>32</v>
       </c>
@@ -17438,21 +17349,25 @@
       <c r="W13" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="X13" s="4"/>
+      <c r="X13" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="Y13" s="12" t="s">
         <v>255</v>
       </c>
       <c r="Z13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AA13" s="4"/>
+      <c r="AA13" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="AB13" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="AC13" s="12"/>
-      <c r="AD13" s="19" t="s">
-        <v>170</v>
-      </c>
+      <c r="AC13" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD13" s="19"/>
       <c r="AE13" s="12" t="s">
         <v>32</v>
       </c>
@@ -17774,21 +17689,25 @@
       <c r="Y14" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="Z14" s="4"/>
+      <c r="Z14" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="AA14" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AB14" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="AC14" s="12"/>
-      <c r="AD14" s="19" t="s">
-        <v>170</v>
-      </c>
+      <c r="AC14" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD14" s="19"/>
       <c r="AE14" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AF14" s="4"/>
+      <c r="AF14" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="AG14" s="12"/>
       <c r="AH14" s="4" t="s">
         <v>32</v>
@@ -18102,21 +18021,25 @@
       <c r="Y15" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="Z15" s="4"/>
+      <c r="Z15" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="AA15" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AB15" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="AC15" s="12"/>
-      <c r="AD15" s="19" t="s">
-        <v>170</v>
-      </c>
+      <c r="AC15" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD15" s="19"/>
       <c r="AE15" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AF15" s="4"/>
+      <c r="AF15" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="AG15" s="12"/>
       <c r="AH15" s="4" t="s">
         <v>32</v>
@@ -18424,21 +18347,25 @@
       <c r="W16" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="X16" s="4"/>
+      <c r="X16" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="Y16" s="12" t="s">
         <v>186</v>
       </c>
       <c r="Z16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AA16" s="4"/>
+      <c r="AA16" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="AB16" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="AC16" s="12"/>
-      <c r="AD16" s="19" t="s">
-        <v>170</v>
-      </c>
+      <c r="AC16" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD16" s="19"/>
       <c r="AE16" s="12" t="s">
         <v>32</v>
       </c>
@@ -18754,21 +18681,25 @@
       <c r="W17" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="X17" s="4"/>
+      <c r="X17" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="Y17" s="12" t="s">
         <v>255</v>
       </c>
       <c r="Z17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AA17" s="4"/>
+      <c r="AA17" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="AB17" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="AC17" s="12"/>
-      <c r="AD17" s="19" t="s">
-        <v>170</v>
-      </c>
+      <c r="AC17" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD17" s="19"/>
       <c r="AE17" s="12" t="s">
         <v>32</v>
       </c>
@@ -19090,7 +19021,9 @@
       <c r="Y18" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="Z18" s="4"/>
+      <c r="Z18" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="AA18" s="4" t="s">
         <v>31</v>
       </c>
@@ -19424,7 +19357,9 @@
       <c r="Y19" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="Z19" s="4"/>
+      <c r="Z19" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="AA19" s="4" t="s">
         <v>31</v>
       </c>
@@ -19752,25 +19687,33 @@
       <c r="W20" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="X20" s="4"/>
+      <c r="X20" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="Y20" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="Z20" s="4"/>
+      <c r="Z20" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="AA20" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AB20" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="AC20" s="12"/>
+      <c r="AC20" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="AD20" s="19" t="s">
         <v>170</v>
       </c>
       <c r="AE20" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AF20" s="4"/>
+      <c r="AF20" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="AG20" s="12"/>
       <c r="AH20" s="4" t="s">
         <v>32</v>
@@ -20078,16 +20021,24 @@
       <c r="W21" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="X21" s="4"/>
+      <c r="X21" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="Y21" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
+      <c r="Z21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA21" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="AB21" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="AC21" s="12"/>
+      <c r="AC21" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="AD21" s="19" t="s">
         <v>170</v>
       </c>
@@ -20406,23 +20357,33 @@
       <c r="W22" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="X22" s="4"/>
+      <c r="X22" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="Y22" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
+      <c r="Z22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA22" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="AB22" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="AC22" s="12"/>
+      <c r="AC22" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="AD22" s="19" t="s">
         <v>170</v>
       </c>
       <c r="AE22" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AF22" s="4"/>
+      <c r="AF22" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="AG22" s="12"/>
       <c r="AH22" s="4" t="s">
         <v>32</v>
@@ -20730,25 +20691,33 @@
       <c r="W23" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="X23" s="4"/>
+      <c r="X23" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="Y23" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="Z23" s="4"/>
+      <c r="Z23" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="AA23" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AB23" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="AC23" s="12"/>
+      <c r="AC23" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="AD23" s="19" t="s">
         <v>170</v>
       </c>
       <c r="AE23" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AF23" s="4"/>
+      <c r="AF23" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="AG23" s="12"/>
       <c r="AH23" s="4" t="s">
         <v>32</v>
@@ -21062,7 +21031,9 @@
       <c r="Y24" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="Z24" s="4"/>
+      <c r="Z24" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="AA24" s="4" t="s">
         <v>31</v>
       </c>
@@ -21079,7 +21050,7 @@
         <v>32</v>
       </c>
       <c r="AF24" s="4" t="s">
-        <v>31</v>
+        <v>259</v>
       </c>
       <c r="AG24" s="19" t="s">
         <v>257</v>
@@ -21396,7 +21367,9 @@
       <c r="Y25" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="Z25" s="4"/>
+      <c r="Z25" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="AA25" s="4" t="s">
         <v>31</v>
       </c>
@@ -21730,21 +21703,27 @@
       <c r="Y26" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="Z26" s="4"/>
+      <c r="Z26" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="AA26" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AB26" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="AC26" s="12"/>
+      <c r="AC26" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="AD26" s="19" t="s">
         <v>170</v>
       </c>
       <c r="AE26" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AF26" s="4"/>
+      <c r="AF26" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="AG26" s="12"/>
       <c r="AH26" s="4" t="s">
         <v>32</v>
@@ -22052,18 +22031,24 @@
       <c r="W27" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="X27" s="4"/>
+      <c r="X27" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="Y27" s="12" t="s">
         <v>255</v>
       </c>
       <c r="Z27" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AA27" s="4"/>
+      <c r="AA27" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="AB27" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="AC27" s="12"/>
+      <c r="AC27" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="AD27" s="19" t="s">
         <v>170</v>
       </c>
@@ -22382,18 +22367,24 @@
       <c r="W28" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="X28" s="4"/>
+      <c r="X28" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="Y28" s="12" t="s">
         <v>255</v>
       </c>
       <c r="Z28" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AA28" s="4"/>
+      <c r="AA28" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="AB28" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="AC28" s="12"/>
+      <c r="AC28" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="AD28" s="19" t="s">
         <v>170</v>
       </c>
@@ -22718,21 +22709,27 @@
       <c r="Y29" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="Z29" s="4"/>
+      <c r="Z29" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="AA29" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AB29" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="AC29" s="12"/>
+      <c r="AC29" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="AD29" s="19" t="s">
         <v>170</v>
       </c>
       <c r="AE29" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AF29" s="4"/>
+      <c r="AF29" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="AG29" s="12"/>
       <c r="AH29" s="4" t="s">
         <v>32</v>
@@ -23046,21 +23043,27 @@
       <c r="Y30" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="Z30" s="4"/>
+      <c r="Z30" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="AA30" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AB30" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="AC30" s="12"/>
+      <c r="AC30" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="AD30" s="19" t="s">
         <v>170</v>
       </c>
       <c r="AE30" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AF30" s="4"/>
+      <c r="AF30" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="AG30" s="12"/>
       <c r="AH30" s="4" t="s">
         <v>32</v>
@@ -23374,21 +23377,27 @@
       <c r="Y31" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="Z31" s="4"/>
+      <c r="Z31" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="AA31" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AB31" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="AC31" s="12"/>
+      <c r="AC31" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="AD31" s="19" t="s">
         <v>170</v>
       </c>
       <c r="AE31" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AF31" s="4"/>
+      <c r="AF31" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="AG31" s="12"/>
       <c r="AH31" s="4" t="s">
         <v>32</v>
@@ -23627,15 +23636,6 @@
       <c r="DH31" s="19" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="32" spans="1:112">
-      <c r="H32" s="55"/>
-    </row>
-    <row r="33" spans="8:8">
-      <c r="H33" s="55"/>
-    </row>
-    <row r="34" spans="8:8">
-      <c r="H34" s="55"/>
     </row>
   </sheetData>
   <dataValidations count="31">

--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="YTP" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6951" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6951" uniqueCount="264">
   <si>
     <t>First_Name</t>
   </si>
@@ -814,9 +814,6 @@
   </si>
   <si>
     <t>2900000</t>
-  </si>
-  <si>
-    <t>Married</t>
   </si>
 </sst>
 </file>
@@ -1416,7 +1413,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1426,8 +1423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DI2"/>
   <sheetViews>
-    <sheetView topLeftCell="AE1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AK1" sqref="AK1:AK1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AM1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AW2" sqref="AW2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="15"/>
@@ -1956,7 +1953,7 @@
         <v>174</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Y2" s="12" t="s">
         <v>186</v>
@@ -1965,13 +1962,13 @@
         <v>32</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB2" s="19" t="s">
         <v>261</v>
       </c>
       <c r="AC2" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AD2" s="19" t="s">
         <v>170</v>
@@ -1980,7 +1977,7 @@
         <v>32</v>
       </c>
       <c r="AF2" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AG2" s="19" t="s">
         <v>256</v>
@@ -1992,7 +1989,7 @@
         <v>25</v>
       </c>
       <c r="AJ2" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AK2" s="19" t="s">
         <v>263</v>
@@ -2031,7 +2028,7 @@
         <v>157</v>
       </c>
       <c r="AW2" s="4" t="s">
-        <v>264</v>
+        <v>181</v>
       </c>
       <c r="AX2" s="27" t="s">
         <v>54</v>
@@ -2336,7 +2333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DH31"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="S1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -12979,8 +12976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DI31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AC11" sqref="AC11"/>
+    <sheetView topLeftCell="CI1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="CS7" sqref="CS7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="15"/>
@@ -23672,8 +23669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.140625" defaultRowHeight="15"/>

--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6951" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6949" uniqueCount="266">
   <si>
     <t>First_Name</t>
   </si>
@@ -814,6 +814,12 @@
   </si>
   <si>
     <t>2900000</t>
+  </si>
+  <si>
+    <t>ganesh.digambarmahure@canarahsbclife.in</t>
+  </si>
+  <si>
+    <t>OBC Bank</t>
   </si>
 </sst>
 </file>
@@ -974,7 +980,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1137,6 +1143,9 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1413,7 +1422,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1421,10 +1430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DI2"/>
+  <dimension ref="A1:DH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AW2" sqref="AW2"/>
+    <sheetView tabSelected="1" topLeftCell="BI1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="BM1" sqref="BM1:BS1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="15"/>
@@ -1434,13 +1443,13 @@
     <col min="3" max="3" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -1453,97 +1462,96 @@
     <col min="23" max="23" width="28.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.140625" style="2" customWidth="1"/>
-    <col min="38" max="38" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="52" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="8.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="29" style="2" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="19.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="39.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="38.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="25.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="27.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="7.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="18.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="114" max="16384" width="3" style="1"/>
+    <col min="33" max="33" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.140625" style="2" customWidth="1"/>
+    <col min="39" max="39" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="51" width="26" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="24.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="8.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="29.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="39.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="30" style="1" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="38.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="26" style="1" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="25.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="27.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="7.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="113" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:113" s="16" customFormat="1">
+    <row r="1" spans="1:112" s="16" customFormat="1">
       <c r="A1" s="11" t="s">
         <v>18</v>
       </c>
@@ -1641,250 +1649,247 @@
         <v>179</v>
       </c>
       <c r="AG1" s="15" t="s">
-        <v>258</v>
+        <v>180</v>
       </c>
       <c r="AH1" s="15" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="AI1" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="AJ1" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="AK1" s="14" t="s">
+      <c r="AJ1" s="14" t="s">
         <v>262</v>
       </c>
+      <c r="AK1" s="15" t="s">
+        <v>38</v>
+      </c>
       <c r="AL1" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM1" s="15" t="s">
         <v>37</v>
       </c>
+      <c r="AM1" s="24" t="s">
+        <v>79</v>
+      </c>
       <c r="AN1" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="AO1" s="24" t="s">
         <v>41</v>
       </c>
+      <c r="AO1" s="15" t="s">
+        <v>42</v>
+      </c>
       <c r="AP1" s="15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AQ1" s="15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AR1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS1" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="AT1" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="AS1" s="15" t="s">
+      <c r="AU1" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AT1" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU1" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV1" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="AW1" s="24" t="s">
+      <c r="AV1" s="24" t="s">
         <v>52</v>
       </c>
+      <c r="AW1" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="AX1" s="15" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="AY1" s="15" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="AZ1" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BA1" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BB1" s="15" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="BC1" s="15" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="BD1" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BE1" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="BF1" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="BG1" s="22" t="s">
+      <c r="BF1" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="BH1" s="20" t="s">
+      <c r="BG1" s="20" t="s">
         <v>69</v>
       </c>
+      <c r="BH1" s="21" t="s">
+        <v>70</v>
+      </c>
       <c r="BI1" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="BJ1" s="21" t="s">
         <v>71</v>
       </c>
+      <c r="BJ1" s="26" t="s">
+        <v>76</v>
+      </c>
       <c r="BK1" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="BL1" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="BM1" s="24" t="s">
+      <c r="BL1" s="24" t="s">
         <v>80</v>
       </c>
+      <c r="BM1" s="28" t="s">
+        <v>81</v>
+      </c>
       <c r="BN1" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="BO1" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="BP1" s="26" t="s">
+      <c r="BO1" s="26" t="s">
         <v>83</v>
       </c>
+      <c r="BP1" s="28" t="s">
+        <v>85</v>
+      </c>
       <c r="BQ1" s="28" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="BR1" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="BS1" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="BT1" s="30" t="s">
+      <c r="BS1" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="BU1" s="24" t="s">
+      <c r="BT1" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="BV1" s="14" t="s">
+      <c r="BU1" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="BW1" s="24" t="s">
+      <c r="BV1" s="24" t="s">
         <v>93</v>
       </c>
+      <c r="BW1" s="15" t="s">
+        <v>95</v>
+      </c>
       <c r="BX1" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="BY1" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="BZ1" s="24" t="s">
+      <c r="BY1" s="24" t="s">
         <v>99</v>
       </c>
+      <c r="BZ1" s="17" t="s">
+        <v>113</v>
+      </c>
       <c r="CA1" s="17" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="CB1" s="17" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="CC1" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="CD1" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="CE1" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="CF1" s="31" t="s">
+      <c r="CE1" s="31" t="s">
         <v>109</v>
       </c>
+      <c r="CF1" s="17" t="s">
+        <v>110</v>
+      </c>
       <c r="CG1" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="CH1" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="CI1" s="32" t="s">
+      <c r="CH1" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="CJ1" s="24" t="s">
+      <c r="CI1" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="CK1" s="17" t="s">
+      <c r="CJ1" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="CL1" s="24" t="s">
+      <c r="CK1" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="CM1" s="17" t="s">
+      <c r="CL1" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="CN1" s="15" t="s">
+      <c r="CM1" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="CO1" s="24" t="s">
+      <c r="CN1" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="CP1" s="15" t="s">
+      <c r="CO1" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="CQ1" s="24" t="s">
+      <c r="CP1" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="CR1" s="31" t="s">
+      <c r="CQ1" s="31" t="s">
         <v>127</v>
       </c>
+      <c r="CR1" s="24" t="s">
+        <v>129</v>
+      </c>
       <c r="CS1" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="CT1" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="CU1" s="17" t="s">
+      <c r="CT1" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="CV1" s="15" t="s">
+      <c r="CU1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="CW1" s="24" t="s">
+      <c r="CV1" s="24" t="s">
         <v>132</v>
       </c>
+      <c r="CW1" s="15" t="s">
+        <v>134</v>
+      </c>
       <c r="CX1" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="CY1" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="CZ1" s="14" t="s">
+      <c r="CY1" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="DA1" s="24" t="s">
+      <c r="CZ1" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="DB1" s="14" t="s">
+      <c r="DA1" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="DC1" s="15" t="s">
+      <c r="DB1" s="15" t="s">
         <v>142</v>
       </c>
+      <c r="DC1" s="24" t="s">
+        <v>144</v>
+      </c>
       <c r="DD1" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="DE1" s="24" t="s">
         <v>145</v>
       </c>
+      <c r="DE1" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="DF1" s="14" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="DG1" s="14" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="DH1" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="DI1" s="14" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:113" s="43" customFormat="1" ht="15.75">
+    <row r="2" spans="1:112" s="43" customFormat="1" ht="17.25">
       <c r="A2" s="4" t="s">
         <v>208</v>
       </c>
@@ -1895,8 +1900,8 @@
       <c r="D2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="36" t="s">
-        <v>154</v>
+      <c r="E2" s="56" t="s">
+        <v>264</v>
       </c>
       <c r="F2" s="51" t="s">
         <v>201</v>
@@ -1953,7 +1958,7 @@
         <v>174</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y2" s="12" t="s">
         <v>186</v>
@@ -1979,288 +1984,315 @@
       <c r="AF2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AG2" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="AH2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI2" s="46">
+      <c r="AG2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH2" s="46">
         <v>25</v>
       </c>
-      <c r="AJ2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AK2" s="19" t="s">
+      <c r="AI2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ2" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="AL2" s="4" t="s">
+      <c r="AK2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AM2" s="27" t="s">
+      <c r="AL2" s="27" t="s">
         <v>40</v>
       </c>
+      <c r="AM2" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="AN2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AO2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="AP2" s="27" t="s">
+      <c r="AO2" s="27" t="s">
         <v>43</v>
       </c>
+      <c r="AP2" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="AQ2" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AR2" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AS2" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AT2" s="4" t="s">
-        <v>51</v>
+        <v>156</v>
       </c>
       <c r="AU2" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AV2" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="AW2" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="AX2" s="27" t="s">
+      <c r="AW2" s="27" t="s">
         <v>54</v>
       </c>
+      <c r="AX2" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="AY2" s="4" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="AZ2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="BB2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="BA2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="BB2" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="BC2" s="4" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="BD2" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="BE2" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="BF2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="BG2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="BF2" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="BH2" s="19" t="s">
+      <c r="BG2" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="BI2" s="4" t="s">
+      <c r="BH2" s="4" t="s">
         <v>159</v>
       </c>
+      <c r="BI2" s="27" t="s">
+        <v>72</v>
+      </c>
       <c r="BJ2" s="27" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="BK2" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="BL2" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="BM2" s="4" t="s">
+      <c r="BL2" s="4" t="s">
         <v>121</v>
       </c>
+      <c r="BM2" s="19" t="s">
+        <v>161</v>
+      </c>
       <c r="BN2" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="BO2" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="BP2" s="27" t="s">
+      <c r="BO2" s="27" t="s">
         <v>84</v>
       </c>
+      <c r="BP2" s="19" t="s">
+        <v>86</v>
+      </c>
       <c r="BQ2" s="19" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="BR2" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="BS2" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="BT2" s="41" t="s">
+      <c r="BS2" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="BU2" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="BV2" s="19" t="s">
+      <c r="BT2" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="BU2" s="19" t="s">
         <v>40</v>
       </c>
+      <c r="BV2" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="BW2" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="BX2" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="BY2" s="4" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="BZ2" s="4" t="s">
         <v>22</v>
       </c>
       <c r="CA2" s="4" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="CB2" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="CC2" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="CD2" s="27" t="s">
+      <c r="CC2" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="CE2" s="4" t="s">
+      <c r="CD2" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="CF2" s="19" t="s">
+      <c r="CE2" s="19" t="s">
         <v>166</v>
       </c>
+      <c r="CF2" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="CG2" s="4" t="s">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="CH2" s="4" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="CI2" s="4" t="s">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="CJ2" s="4" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="CK2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="CL2" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="CL2" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="CM2" s="4" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="CN2" s="4" t="s">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="CO2" s="4" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="CP2" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="CQ2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="CR2" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="CQ2" s="19" t="s">
         <v>167</v>
       </c>
+      <c r="CR2" s="4" t="s">
+        <v>153</v>
+      </c>
       <c r="CS2" s="4" t="s">
-        <v>153</v>
+        <v>14</v>
       </c>
       <c r="CT2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="CU2" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="CV2" s="27" t="s">
+      <c r="CU2" s="27" t="s">
         <v>169</v>
       </c>
+      <c r="CV2" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="CW2" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="CX2" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="CY2" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="CZ2" s="19" t="s">
+      <c r="CY2" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="DA2" s="4" t="s">
+      <c r="CZ2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="DB2" s="19" t="s">
+      <c r="DA2" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="DC2" s="36" t="s">
+      <c r="DB2" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="DD2" s="4" t="s">
+      <c r="DC2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="DE2" s="42">
+      <c r="DD2" s="42">
         <v>1</v>
       </c>
+      <c r="DE2" s="19" t="s">
+        <v>147</v>
+      </c>
       <c r="DF2" s="19" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="DG2" s="19" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="DH2" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="DI2" s="19" t="s">
         <v>151</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="31">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M1:M2 CH2 CJ2 CL2 CQ2 CT2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CS2 CP2 CK2 CI2 CG2 M1:M2">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AW1:AW2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AV1:AV2">
       <formula1>"Single,Married,Divorced,Widowed"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BU1:BU2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BT1:BT2">
       <formula1>"Canara HSBC Life Insurance,Canara Bank,HSBC Bank,OBC Bank,Others"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BW1:BW2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BV1:BV2">
       <formula1>"Outside India,Maharashtra,Himachal Pradesh,Jammu &amp; Kashmir,Jharkhand,Karnataka,Kerala,Madhya Pradesh,Manipur,Meghalaya,Mizoram,Nagaland,Odisha,Punjab,Rajasthan,Tamil Nadu,Uttar Pradesh,Delhi,Haryana,Gujarat,Telangana,Chandigarh,Bihar,"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BZ1:BZ2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BY1:BY2">
       <formula1>"Merchant Marine,Others"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CC1:CC2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CB1:CB2">
       <formula1>"Bargeman / Dredgerman / Dredgermaster / Leadsman / Lighterman / Survey sounder / Tugboatman,Seaman / Engine-room worker,Boatswain / Engineer / Quartermaster / Steerer,"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BG1:BG2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BF1:BF2">
       <formula1>"School certificate/College certificate,Valid Passport,PAN card,Muncipal Birth certificate,Virtual Identification (VID)/ Aadhaar card,e-KYC Aadhaar,Valid Driving license,ESI card,Domicile Certificate,Defence Health Card,"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G1:G2 DA2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CZ2 G1:G2">
       <formula1>"Male,Female,Transgender"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AO1:AO2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AN1:AN2">
       <formula1>"Pay Later,Pay Now"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BM1:BM2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BL1:BL2">
       <formula1>"Valid Passport,Ration Card,Virtual Identification (VID)/ Aadhaar card,e-KYC Aadhaar,Job Card by NREGA,Valid Driving license,Voter ID"</formula1>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ1:BJ2 BP1:BP2">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BI1:BI2 BO1:BO2">
       <formula1>4</formula1>
       <formula2>4</formula2>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AN1:AN2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AM1:AM2">
       <formula1>"Transport owner"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AH2:AH1048576">
+      <formula1>"25,50,75,100"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BZ2">
+      <formula1>"Cable and Pipe Laying Vessels,Factory Ships,Oil Rig Barges / Supply Vessels,Others"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CF2">
+      <formula1>"Australia,Bermuda,Bulgaria,Bulgaria,Canada,Croatia,Cyprus,Denmark,Estonia,Finland,Germany,HongKong,Iceland,Ireland,Italy,NewZealand,Portugal,Romania,Singapore,Slovakia,UnitedKingdom,UnitedStates,VaticanCity"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CN2">
+      <formula1>"e-KYC Aadhaar,Ration Card,Water Bill(Not older than 3 months)"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CT2">
+      <formula1>"HDFC Standard Life Insurance Co. Ltd,Life Insurance Corporation of India"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="DC2">
+      <formula1>"Aunt,Brother in Law,Brother,Daughter,Father,Mother"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="DD2">
+      <formula1>"100%,90%,80%,70%,60%,50%,40%,30%,20%,10%"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CD2">
+      <formula1>"Ocean liners"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CR2">
+      <formula1>"CDSL,NSDL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CV2">
+      <formula1>"Active,Lapsed"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I2">
       <formula1>"Yes,No"</formula1>
@@ -2289,39 +2321,9 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576">
       <formula1>"Lumpsum: 50% |  Monthly Income: 50%,Lumpsum: 25% |  Monthly Income: 75%,Lumpsum: 75% |  Monthly Income: 25%"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AI2:AI1048576">
-      <formula1>"25,50,75,100"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CA2">
-      <formula1>"Cable and Pipe Laying Vessels,Factory Ships,Oil Rig Barges / Supply Vessels,Others"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CG2">
-      <formula1>"Australia,Bermuda,Bulgaria,Bulgaria,Canada,Croatia,Cyprus,Denmark,Estonia,Finland,Germany,HongKong,Iceland,Ireland,Italy,NewZealand,Portugal,Romania,Singapore,Slovakia,UnitedKingdom,UnitedStates,VaticanCity"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CO2">
-      <formula1>"e-KYC Aadhaar,Ration Card,Water Bill(Not older than 3 months)"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CU2">
-      <formula1>"HDFC Standard Life Insurance Co. Ltd,Life Insurance Corporation of India"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="DD2">
-      <formula1>"Aunt,Brother in Law,Brother,Daughter,Father,Mother"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="DE2">
-      <formula1>"100%,90%,80%,70%,60%,50%,40%,30%,20%,10%"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CE2">
-      <formula1>"Ocean liners"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CS2">
-      <formula1>"CDSL,NSDL"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CW2">
-      <formula1>"Active,Lapsed"</formula1>
-    </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="DC2" r:id="rId1"/>
+    <hyperlink ref="DB2" r:id="rId1"/>
     <hyperlink ref="E2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12976,7 +12978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DI31"/>
   <sheetViews>
-    <sheetView topLeftCell="CI1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="CS7" sqref="CS7"/>
     </sheetView>
   </sheetViews>
@@ -23669,7 +23671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>

--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="YTP" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6949" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6955" uniqueCount="269">
   <si>
     <t>First_Name</t>
   </si>
@@ -618,9 +618,6 @@
     <t>ganesh.12@gmail.com</t>
   </si>
   <si>
-    <t>female</t>
-  </si>
-  <si>
     <t>20/06/1996</t>
   </si>
   <si>
@@ -820,6 +817,18 @@
   </si>
   <si>
     <t>OBC Bank</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Occupation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annual Income </t>
+  </si>
+  <si>
+    <t>Employee</t>
   </si>
 </sst>
 </file>
@@ -980,7 +989,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1147,6 +1156,19 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1432,8 +1454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BI1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="BM1" sqref="BM1:BS1048576"/>
+    <sheetView topLeftCell="BI1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="BL12" sqref="BL12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="15"/>
@@ -1658,7 +1680,7 @@
         <v>185</v>
       </c>
       <c r="AJ1" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AK1" s="15" t="s">
         <v>38</v>
@@ -1891,7 +1913,7 @@
     </row>
     <row r="2" spans="1:112" s="43" customFormat="1" ht="17.25">
       <c r="A2" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>24</v>
@@ -1901,13 +1923,13 @@
         <v>30</v>
       </c>
       <c r="E2" s="56" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H2" s="55" t="s">
         <v>168</v>
@@ -1916,22 +1938,22 @@
         <v>14</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L2" s="45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M2" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N2" s="44" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>184</v>
@@ -1970,7 +1992,7 @@
         <v>31</v>
       </c>
       <c r="AB2" s="19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AC2" s="12" t="s">
         <v>32</v>
@@ -1994,7 +2016,7 @@
         <v>32</v>
       </c>
       <c r="AJ2" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AK2" s="4" t="s">
         <v>39</v>
@@ -2102,7 +2124,7 @@
         <v>164</v>
       </c>
       <c r="BT2" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BU2" s="19" t="s">
         <v>40</v>
@@ -2552,7 +2574,7 @@
         <v>179</v>
       </c>
       <c r="AG1" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AH1" s="15" t="s">
         <v>180</v>
@@ -2807,10 +2829,10 @@
         <v>154</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H2" s="55" t="s">
         <v>168</v>
@@ -2819,22 +2841,22 @@
         <v>26</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L2" s="45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M2" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N2" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="O2" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>184</v>
@@ -2864,7 +2886,7 @@
         <v>31</v>
       </c>
       <c r="Y2" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z2" s="4" t="s">
         <v>32</v>
@@ -2873,7 +2895,7 @@
         <v>31</v>
       </c>
       <c r="AB2" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC2" s="12" t="s">
         <v>32</v>
@@ -3126,7 +3148,7 @@
     </row>
     <row r="3" spans="1:112" s="43" customFormat="1" ht="15.75">
       <c r="A3" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>24</v>
@@ -3139,7 +3161,7 @@
         <v>154</v>
       </c>
       <c r="F3" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>7</v>
@@ -3151,22 +3173,22 @@
         <v>26</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L3" s="45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M3" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N3" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="O3" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>184</v>
@@ -3196,7 +3218,7 @@
         <v>31</v>
       </c>
       <c r="Y3" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z3" s="4" t="s">
         <v>32</v>
@@ -3205,7 +3227,7 @@
         <v>31</v>
       </c>
       <c r="AB3" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC3" s="12" t="s">
         <v>32</v>
@@ -3458,7 +3480,7 @@
     </row>
     <row r="4" spans="1:112" s="43" customFormat="1" ht="15.75">
       <c r="A4" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>24</v>
@@ -3471,10 +3493,10 @@
         <v>154</v>
       </c>
       <c r="F4" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H4" s="55" t="s">
         <v>168</v>
@@ -3483,19 +3505,19 @@
         <v>14</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L4" s="45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M4" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N4" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O4" s="12" t="s">
         <v>188</v>
@@ -3550,7 +3572,7 @@
         <v>31</v>
       </c>
       <c r="AG4" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AH4" s="4" t="s">
         <v>32</v>
@@ -3792,7 +3814,7 @@
     </row>
     <row r="5" spans="1:112" s="43" customFormat="1" ht="15.75">
       <c r="A5" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>24</v>
@@ -3805,7 +3827,7 @@
         <v>154</v>
       </c>
       <c r="F5" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>7</v>
@@ -3817,22 +3839,22 @@
         <v>14</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L5" s="45" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M5" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N5" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>184</v>
@@ -3884,7 +3906,7 @@
         <v>31</v>
       </c>
       <c r="AG5" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AH5" s="4" t="s">
         <v>32</v>
@@ -4126,7 +4148,7 @@
     </row>
     <row r="6" spans="1:112" s="43" customFormat="1" ht="15.75">
       <c r="A6" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>24</v>
@@ -4139,10 +4161,10 @@
         <v>154</v>
       </c>
       <c r="F6" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H6" s="55" t="s">
         <v>168</v>
@@ -4151,7 +4173,7 @@
         <v>26</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>8</v>
@@ -4163,10 +4185,10 @@
         <v>14</v>
       </c>
       <c r="N6" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="O6" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="O6" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>184</v>
@@ -4196,7 +4218,7 @@
         <v>31</v>
       </c>
       <c r="Y6" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z6" s="4" t="s">
         <v>32</v>
@@ -4205,7 +4227,7 @@
         <v>31</v>
       </c>
       <c r="AB6" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC6" s="12" t="s">
         <v>32</v>
@@ -4458,7 +4480,7 @@
     </row>
     <row r="7" spans="1:112" ht="15.75">
       <c r="A7" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>24</v>
@@ -4471,7 +4493,7 @@
         <v>154</v>
       </c>
       <c r="F7" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>7</v>
@@ -4483,22 +4505,22 @@
         <v>26</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L7" s="45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M7" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N7" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="O7" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="O7" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>184</v>
@@ -4528,7 +4550,7 @@
         <v>31</v>
       </c>
       <c r="Y7" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z7" s="4" t="s">
         <v>32</v>
@@ -4537,7 +4559,7 @@
         <v>31</v>
       </c>
       <c r="AB7" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC7" s="12" t="s">
         <v>32</v>
@@ -4790,7 +4812,7 @@
     </row>
     <row r="8" spans="1:112" ht="15.75">
       <c r="A8" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>24</v>
@@ -4803,10 +4825,10 @@
         <v>154</v>
       </c>
       <c r="F8" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H8" s="55" t="s">
         <v>168</v>
@@ -4815,19 +4837,19 @@
         <v>14</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L8" s="45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M8" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N8" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O8" s="12" t="s">
         <v>188</v>
@@ -4860,7 +4882,7 @@
         <v>32</v>
       </c>
       <c r="Y8" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z8" s="4" t="s">
         <v>31</v>
@@ -4869,7 +4891,7 @@
         <v>32</v>
       </c>
       <c r="AB8" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC8" s="12" t="s">
         <v>32</v>
@@ -4882,7 +4904,7 @@
         <v>31</v>
       </c>
       <c r="AG8" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AH8" s="4" t="s">
         <v>32</v>
@@ -5124,7 +5146,7 @@
     </row>
     <row r="9" spans="1:112" customFormat="1" ht="15.75">
       <c r="A9" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>24</v>
@@ -5137,7 +5159,7 @@
         <v>154</v>
       </c>
       <c r="F9" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>7</v>
@@ -5149,22 +5171,22 @@
         <v>14</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L9" s="45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M9" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N9" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>184</v>
@@ -5216,7 +5238,7 @@
         <v>31</v>
       </c>
       <c r="AG9" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AH9" s="4" t="s">
         <v>32</v>
@@ -5458,7 +5480,7 @@
     </row>
     <row r="10" spans="1:112" customFormat="1" ht="15.75">
       <c r="A10" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>24</v>
@@ -5471,10 +5493,10 @@
         <v>154</v>
       </c>
       <c r="F10" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H10" s="55" t="s">
         <v>168</v>
@@ -5483,22 +5505,22 @@
         <v>26</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L10" s="45" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M10" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N10" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="O10" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="O10" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>184</v>
@@ -5528,7 +5550,7 @@
         <v>31</v>
       </c>
       <c r="Y10" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z10" s="4" t="s">
         <v>32</v>
@@ -5537,7 +5559,7 @@
         <v>31</v>
       </c>
       <c r="AB10" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC10" s="12" t="s">
         <v>32</v>
@@ -5790,7 +5812,7 @@
     </row>
     <row r="11" spans="1:112" customFormat="1" ht="15.75">
       <c r="A11" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>24</v>
@@ -5803,7 +5825,7 @@
         <v>154</v>
       </c>
       <c r="F11" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>7</v>
@@ -5815,7 +5837,7 @@
         <v>26</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>8</v>
@@ -5827,10 +5849,10 @@
         <v>26</v>
       </c>
       <c r="N11" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="O11" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="O11" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>184</v>
@@ -5860,7 +5882,7 @@
         <v>31</v>
       </c>
       <c r="Y11" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z11" s="4" t="s">
         <v>32</v>
@@ -5869,7 +5891,7 @@
         <v>31</v>
       </c>
       <c r="AB11" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC11" s="12" t="s">
         <v>32</v>
@@ -6122,7 +6144,7 @@
     </row>
     <row r="12" spans="1:112" customFormat="1" ht="15.75">
       <c r="A12" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>24</v>
@@ -6135,10 +6157,10 @@
         <v>154</v>
       </c>
       <c r="F12" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H12" s="55" t="s">
         <v>168</v>
@@ -6147,19 +6169,19 @@
         <v>14</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L12" s="45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M12" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N12" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O12" s="12" t="s">
         <v>188</v>
@@ -6192,7 +6214,7 @@
         <v>32</v>
       </c>
       <c r="Y12" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z12" s="4" t="s">
         <v>31</v>
@@ -6201,7 +6223,7 @@
         <v>32</v>
       </c>
       <c r="AB12" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC12" s="12" t="s">
         <v>32</v>
@@ -6214,7 +6236,7 @@
         <v>31</v>
       </c>
       <c r="AG12" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AH12" s="4" t="s">
         <v>32</v>
@@ -6456,7 +6478,7 @@
     </row>
     <row r="13" spans="1:112" customFormat="1" ht="15.75">
       <c r="A13" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>24</v>
@@ -6469,7 +6491,7 @@
         <v>154</v>
       </c>
       <c r="F13" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>7</v>
@@ -6481,22 +6503,22 @@
         <v>14</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L13" s="45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M13" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N13" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>184</v>
@@ -6526,7 +6548,7 @@
         <v>32</v>
       </c>
       <c r="Y13" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z13" s="4" t="s">
         <v>31</v>
@@ -6535,7 +6557,7 @@
         <v>32</v>
       </c>
       <c r="AB13" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC13" s="12" t="s">
         <v>32</v>
@@ -6548,7 +6570,7 @@
         <v>31</v>
       </c>
       <c r="AG13" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AH13" s="4" t="s">
         <v>32</v>
@@ -6790,7 +6812,7 @@
     </row>
     <row r="14" spans="1:112" ht="15.75">
       <c r="A14" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>24</v>
@@ -6803,10 +6825,10 @@
         <v>154</v>
       </c>
       <c r="F14" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H14" s="55" t="s">
         <v>168</v>
@@ -6815,22 +6837,22 @@
         <v>26</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L14" s="45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M14" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N14" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="O14" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="O14" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>184</v>
@@ -6860,7 +6882,7 @@
         <v>31</v>
       </c>
       <c r="Y14" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z14" s="4" t="s">
         <v>32</v>
@@ -6869,7 +6891,7 @@
         <v>31</v>
       </c>
       <c r="AB14" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC14" s="12" t="s">
         <v>32</v>
@@ -7122,7 +7144,7 @@
     </row>
     <row r="15" spans="1:112" ht="15.75">
       <c r="A15" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>24</v>
@@ -7135,7 +7157,7 @@
         <v>154</v>
       </c>
       <c r="F15" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>7</v>
@@ -7147,22 +7169,22 @@
         <v>26</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L15" s="45" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M15" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N15" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="O15" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="O15" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>184</v>
@@ -7192,7 +7214,7 @@
         <v>31</v>
       </c>
       <c r="Y15" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z15" s="4" t="s">
         <v>32</v>
@@ -7201,7 +7223,7 @@
         <v>31</v>
       </c>
       <c r="AB15" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC15" s="12" t="s">
         <v>32</v>
@@ -7454,7 +7476,7 @@
     </row>
     <row r="16" spans="1:112" ht="15.75">
       <c r="A16" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>24</v>
@@ -7467,10 +7489,10 @@
         <v>154</v>
       </c>
       <c r="F16" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H16" s="55" t="s">
         <v>168</v>
@@ -7479,7 +7501,7 @@
         <v>14</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>8</v>
@@ -7491,7 +7513,7 @@
         <v>26</v>
       </c>
       <c r="N16" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O16" s="12" t="s">
         <v>188</v>
@@ -7546,7 +7568,7 @@
         <v>31</v>
       </c>
       <c r="AG16" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AH16" s="4" t="s">
         <v>32</v>
@@ -7788,7 +7810,7 @@
     </row>
     <row r="17" spans="1:112" ht="15.75">
       <c r="A17" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>24</v>
@@ -7801,7 +7823,7 @@
         <v>154</v>
       </c>
       <c r="F17" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>7</v>
@@ -7813,22 +7835,22 @@
         <v>14</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L17" s="45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M17" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N17" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O17" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>184</v>
@@ -7858,7 +7880,7 @@
         <v>32</v>
       </c>
       <c r="Y17" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z17" s="4" t="s">
         <v>31</v>
@@ -7867,7 +7889,7 @@
         <v>32</v>
       </c>
       <c r="AB17" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC17" s="12" t="s">
         <v>32</v>
@@ -7880,7 +7902,7 @@
         <v>31</v>
       </c>
       <c r="AG17" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AH17" s="4" t="s">
         <v>32</v>
@@ -8122,7 +8144,7 @@
     </row>
     <row r="18" spans="1:112" ht="15.75">
       <c r="A18" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>24</v>
@@ -8135,40 +8157,40 @@
         <v>154</v>
       </c>
       <c r="F18" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>7</v>
       </c>
       <c r="H18" s="55" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L18" s="45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M18" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N18" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O18" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>184</v>
       </c>
       <c r="Q18" s="38" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R18" s="8" t="s">
         <v>31</v>
@@ -8192,7 +8214,7 @@
         <v>31</v>
       </c>
       <c r="Y18" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z18" s="4" t="s">
         <v>32</v>
@@ -8201,13 +8223,13 @@
         <v>31</v>
       </c>
       <c r="AB18" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AC18" s="12" t="s">
         <v>31</v>
       </c>
       <c r="AD18" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AE18" s="12" t="s">
         <v>32</v>
@@ -8216,7 +8238,7 @@
         <v>31</v>
       </c>
       <c r="AG18" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AH18" s="4" t="s">
         <v>32</v>
@@ -8458,7 +8480,7 @@
     </row>
     <row r="19" spans="1:112" ht="15.75">
       <c r="A19" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>24</v>
@@ -8471,40 +8493,40 @@
         <v>154</v>
       </c>
       <c r="F19" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H19" s="55" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L19" s="45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M19" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N19" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O19" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P19" s="4" t="s">
         <v>184</v>
       </c>
       <c r="Q19" s="38" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="R19" s="8" t="s">
         <v>32</v>
@@ -8528,7 +8550,7 @@
         <v>31</v>
       </c>
       <c r="Y19" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z19" s="4" t="s">
         <v>32</v>
@@ -8537,13 +8559,13 @@
         <v>31</v>
       </c>
       <c r="AB19" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AC19" s="12" t="s">
         <v>31</v>
       </c>
       <c r="AD19" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AE19" s="12" t="s">
         <v>32</v>
@@ -8552,7 +8574,7 @@
         <v>31</v>
       </c>
       <c r="AG19" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AH19" s="4" t="s">
         <v>32</v>
@@ -8794,7 +8816,7 @@
     </row>
     <row r="20" spans="1:112" ht="15.75">
       <c r="A20" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>24</v>
@@ -8807,34 +8829,34 @@
         <v>154</v>
       </c>
       <c r="F20" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>7</v>
       </c>
       <c r="H20" s="55" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L20" s="45" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M20" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N20" s="44" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>184</v>
@@ -8873,7 +8895,7 @@
         <v>31</v>
       </c>
       <c r="AB20" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AC20" s="12" t="s">
         <v>32</v>
@@ -9128,7 +9150,7 @@
     </row>
     <row r="21" spans="1:112" ht="15.75">
       <c r="A21" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>24</v>
@@ -9141,19 +9163,19 @@
         <v>154</v>
       </c>
       <c r="F21" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H21" s="55" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>8</v>
@@ -9165,10 +9187,10 @@
         <v>14</v>
       </c>
       <c r="N21" s="44" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O21" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>184</v>
@@ -9222,7 +9244,7 @@
         <v>31</v>
       </c>
       <c r="AG21" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AH21" s="4" t="s">
         <v>32</v>
@@ -9464,7 +9486,7 @@
     </row>
     <row r="22" spans="1:112" ht="15.75">
       <c r="A22" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>24</v>
@@ -9477,34 +9499,34 @@
         <v>154</v>
       </c>
       <c r="F22" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>7</v>
       </c>
       <c r="H22" s="55" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L22" s="45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M22" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N22" s="44" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O22" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P22" s="4" t="s">
         <v>184</v>
@@ -9534,16 +9556,16 @@
         <v>32</v>
       </c>
       <c r="Y22" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB22" s="19" t="s">
         <v>255</v>
-      </c>
-      <c r="Z22" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA22" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB22" s="19" t="s">
-        <v>256</v>
       </c>
       <c r="AC22" s="12" t="s">
         <v>32</v>
@@ -9798,7 +9820,7 @@
     </row>
     <row r="23" spans="1:112" ht="15.75">
       <c r="A23" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>24</v>
@@ -9811,31 +9833,31 @@
         <v>154</v>
       </c>
       <c r="F23" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="H23" s="55" t="s">
+        <v>238</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="H23" s="55" t="s">
-        <v>239</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>202</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L23" s="45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M23" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N23" s="44" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O23" s="12" t="s">
         <v>188</v>
@@ -9868,7 +9890,7 @@
         <v>32</v>
       </c>
       <c r="Y23" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z23" s="4" t="s">
         <v>32</v>
@@ -9877,7 +9899,7 @@
         <v>31</v>
       </c>
       <c r="AB23" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AC23" s="12" t="s">
         <v>32</v>
@@ -10132,7 +10154,7 @@
     </row>
     <row r="24" spans="1:112" ht="15.75">
       <c r="A24" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>24</v>
@@ -10145,34 +10167,34 @@
         <v>154</v>
       </c>
       <c r="F24" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G24" s="12" t="s">
         <v>7</v>
       </c>
       <c r="H24" s="55" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L24" s="45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M24" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N24" s="44" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O24" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P24" s="4" t="s">
         <v>184</v>
@@ -10202,7 +10224,7 @@
         <v>31</v>
       </c>
       <c r="Y24" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z24" s="4" t="s">
         <v>32</v>
@@ -10211,22 +10233,22 @@
         <v>31</v>
       </c>
       <c r="AB24" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AC24" s="12" t="s">
         <v>31</v>
       </c>
       <c r="AD24" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AE24" s="12" t="s">
         <v>32</v>
       </c>
       <c r="AF24" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AG24" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AH24" s="4" t="s">
         <v>32</v>
@@ -10468,7 +10490,7 @@
     </row>
     <row r="25" spans="1:112" ht="15.75">
       <c r="A25" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>24</v>
@@ -10481,40 +10503,40 @@
         <v>154</v>
       </c>
       <c r="F25" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H25" s="55" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L25" s="45" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M25" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N25" s="44" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O25" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P25" s="4" t="s">
         <v>184</v>
       </c>
       <c r="Q25" s="38" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="R25" s="8" t="s">
         <v>32</v>
@@ -10538,7 +10560,7 @@
         <v>31</v>
       </c>
       <c r="Y25" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z25" s="4" t="s">
         <v>32</v>
@@ -10547,13 +10569,13 @@
         <v>31</v>
       </c>
       <c r="AB25" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AC25" s="12" t="s">
         <v>31</v>
       </c>
       <c r="AD25" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AE25" s="12" t="s">
         <v>32</v>
@@ -10562,7 +10584,7 @@
         <v>31</v>
       </c>
       <c r="AG25" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AH25" s="4" t="s">
         <v>32</v>
@@ -10804,7 +10826,7 @@
     </row>
     <row r="26" spans="1:112" ht="15.75">
       <c r="A26" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>24</v>
@@ -10817,7 +10839,7 @@
         <v>154</v>
       </c>
       <c r="F26" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>7</v>
@@ -10829,7 +10851,7 @@
         <v>26</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>8</v>
@@ -10841,16 +10863,16 @@
         <v>14</v>
       </c>
       <c r="N26" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="O26" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="O26" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="P26" s="4" t="s">
         <v>184</v>
       </c>
       <c r="Q26" s="38" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R26" s="8" t="s">
         <v>32</v>
@@ -10874,7 +10896,7 @@
         <v>31</v>
       </c>
       <c r="Y26" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z26" s="4" t="s">
         <v>32</v>
@@ -10883,7 +10905,7 @@
         <v>31</v>
       </c>
       <c r="AB26" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC26" s="12" t="s">
         <v>32</v>
@@ -11138,7 +11160,7 @@
     </row>
     <row r="27" spans="1:112" ht="15.75">
       <c r="A27" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>24</v>
@@ -11151,10 +11173,10 @@
         <v>154</v>
       </c>
       <c r="F27" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H27" s="55" t="s">
         <v>168</v>
@@ -11163,19 +11185,19 @@
         <v>14</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L27" s="45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M27" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N27" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O27" s="12" t="s">
         <v>188</v>
@@ -11184,7 +11206,7 @@
         <v>184</v>
       </c>
       <c r="Q27" s="38" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R27" s="8" t="s">
         <v>32</v>
@@ -11208,7 +11230,7 @@
         <v>32</v>
       </c>
       <c r="Y27" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z27" s="4" t="s">
         <v>31</v>
@@ -11217,7 +11239,7 @@
         <v>32</v>
       </c>
       <c r="AB27" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC27" s="12" t="s">
         <v>32</v>
@@ -11232,7 +11254,7 @@
         <v>31</v>
       </c>
       <c r="AG27" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AH27" s="4" t="s">
         <v>32</v>
@@ -11474,7 +11496,7 @@
     </row>
     <row r="28" spans="1:112" ht="15.75">
       <c r="A28" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>24</v>
@@ -11487,7 +11509,7 @@
         <v>154</v>
       </c>
       <c r="F28" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>7</v>
@@ -11499,28 +11521,28 @@
         <v>14</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K28" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L28" s="45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M28" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N28" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O28" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P28" s="4" t="s">
         <v>184</v>
       </c>
       <c r="Q28" s="38" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="R28" s="8" t="s">
         <v>32</v>
@@ -11544,7 +11566,7 @@
         <v>32</v>
       </c>
       <c r="Y28" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z28" s="4" t="s">
         <v>31</v>
@@ -11553,7 +11575,7 @@
         <v>32</v>
       </c>
       <c r="AB28" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC28" s="12" t="s">
         <v>32</v>
@@ -11568,7 +11590,7 @@
         <v>31</v>
       </c>
       <c r="AG28" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AH28" s="4" t="s">
         <v>32</v>
@@ -11810,7 +11832,7 @@
     </row>
     <row r="29" spans="1:112" ht="15.75">
       <c r="A29" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>24</v>
@@ -11823,10 +11845,10 @@
         <v>154</v>
       </c>
       <c r="F29" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H29" s="55" t="s">
         <v>168</v>
@@ -11835,28 +11857,28 @@
         <v>26</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L29" s="45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M29" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N29" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="O29" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="O29" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="P29" s="4" t="s">
         <v>184</v>
       </c>
       <c r="Q29" s="38" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="R29" s="8" t="s">
         <v>31</v>
@@ -11880,7 +11902,7 @@
         <v>31</v>
       </c>
       <c r="Y29" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z29" s="4" t="s">
         <v>32</v>
@@ -11889,7 +11911,7 @@
         <v>31</v>
       </c>
       <c r="AB29" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC29" s="12" t="s">
         <v>32</v>
@@ -12144,7 +12166,7 @@
     </row>
     <row r="30" spans="1:112" ht="15.75">
       <c r="A30" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>24</v>
@@ -12157,7 +12179,7 @@
         <v>154</v>
       </c>
       <c r="F30" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G30" s="12" t="s">
         <v>7</v>
@@ -12169,28 +12191,28 @@
         <v>26</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L30" s="45" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M30" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N30" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="O30" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="O30" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="P30" s="4" t="s">
         <v>184</v>
       </c>
       <c r="Q30" s="38" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="R30" s="8" t="s">
         <v>31</v>
@@ -12214,7 +12236,7 @@
         <v>31</v>
       </c>
       <c r="Y30" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z30" s="4" t="s">
         <v>32</v>
@@ -12223,7 +12245,7 @@
         <v>31</v>
       </c>
       <c r="AB30" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC30" s="12" t="s">
         <v>32</v>
@@ -12478,7 +12500,7 @@
     </row>
     <row r="31" spans="1:112" ht="15.75">
       <c r="A31" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>24</v>
@@ -12491,10 +12513,10 @@
         <v>154</v>
       </c>
       <c r="F31" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H31" s="55" t="s">
         <v>168</v>
@@ -12503,7 +12525,7 @@
         <v>26</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K31" s="4" t="s">
         <v>8</v>
@@ -12515,10 +12537,10 @@
         <v>26</v>
       </c>
       <c r="N31" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="O31" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="O31" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="P31" s="4" t="s">
         <v>184</v>
@@ -12548,7 +12570,7 @@
         <v>31</v>
       </c>
       <c r="Y31" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z31" s="4" t="s">
         <v>32</v>
@@ -12557,7 +12579,7 @@
         <v>31</v>
       </c>
       <c r="AB31" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC31" s="12" t="s">
         <v>32</v>
@@ -13196,7 +13218,7 @@
         <v>179</v>
       </c>
       <c r="AG1" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AH1" s="15" t="s">
         <v>180</v>
@@ -13208,7 +13230,7 @@
         <v>185</v>
       </c>
       <c r="AK1" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AL1" s="15" t="s">
         <v>38</v>
@@ -13454,10 +13476,10 @@
         <v>154</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H2" s="55" t="s">
         <v>168</v>
@@ -13466,22 +13488,22 @@
         <v>26</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L2" s="45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M2" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N2" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="O2" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>184</v>
@@ -13511,7 +13533,7 @@
         <v>31</v>
       </c>
       <c r="Y2" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z2" s="4" t="s">
         <v>32</v>
@@ -13520,7 +13542,7 @@
         <v>31</v>
       </c>
       <c r="AB2" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC2" s="12" t="s">
         <v>32</v>
@@ -13543,7 +13565,7 @@
         <v>32</v>
       </c>
       <c r="AK2" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL2" s="4" t="s">
         <v>39</v>
@@ -13776,7 +13798,7 @@
     </row>
     <row r="3" spans="1:113" s="43" customFormat="1" ht="15.75">
       <c r="A3" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>24</v>
@@ -13789,7 +13811,7 @@
         <v>154</v>
       </c>
       <c r="F3" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>7</v>
@@ -13801,22 +13823,22 @@
         <v>26</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L3" s="45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M3" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N3" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="O3" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>184</v>
@@ -13846,7 +13868,7 @@
         <v>31</v>
       </c>
       <c r="Y3" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z3" s="4" t="s">
         <v>32</v>
@@ -13855,7 +13877,7 @@
         <v>31</v>
       </c>
       <c r="AB3" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC3" s="12" t="s">
         <v>32</v>
@@ -13878,7 +13900,7 @@
         <v>32</v>
       </c>
       <c r="AK3" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL3" s="4" t="s">
         <v>39</v>
@@ -14111,7 +14133,7 @@
     </row>
     <row r="4" spans="1:113" s="43" customFormat="1" ht="15.75">
       <c r="A4" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>24</v>
@@ -14124,10 +14146,10 @@
         <v>154</v>
       </c>
       <c r="F4" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H4" s="55" t="s">
         <v>168</v>
@@ -14136,19 +14158,19 @@
         <v>14</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L4" s="45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M4" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N4" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O4" s="12" t="s">
         <v>188</v>
@@ -14201,7 +14223,7 @@
         <v>31</v>
       </c>
       <c r="AG4" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AH4" s="4" t="s">
         <v>32</v>
@@ -14213,7 +14235,7 @@
         <v>32</v>
       </c>
       <c r="AK4" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL4" s="4" t="s">
         <v>39</v>
@@ -14446,7 +14468,7 @@
     </row>
     <row r="5" spans="1:113" s="43" customFormat="1" ht="15.75">
       <c r="A5" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>24</v>
@@ -14459,7 +14481,7 @@
         <v>154</v>
       </c>
       <c r="F5" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>7</v>
@@ -14471,22 +14493,22 @@
         <v>14</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L5" s="45" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M5" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N5" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>184</v>
@@ -14536,7 +14558,7 @@
         <v>31</v>
       </c>
       <c r="AG5" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AH5" s="4" t="s">
         <v>32</v>
@@ -14548,7 +14570,7 @@
         <v>32</v>
       </c>
       <c r="AK5" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL5" s="4" t="s">
         <v>39</v>
@@ -14781,7 +14803,7 @@
     </row>
     <row r="6" spans="1:113" s="43" customFormat="1" ht="15.75">
       <c r="A6" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>24</v>
@@ -14794,10 +14816,10 @@
         <v>154</v>
       </c>
       <c r="F6" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H6" s="55" t="s">
         <v>168</v>
@@ -14806,7 +14828,7 @@
         <v>26</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>8</v>
@@ -14818,10 +14840,10 @@
         <v>14</v>
       </c>
       <c r="N6" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="O6" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="O6" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>184</v>
@@ -14851,7 +14873,7 @@
         <v>31</v>
       </c>
       <c r="Y6" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z6" s="4" t="s">
         <v>32</v>
@@ -14860,7 +14882,7 @@
         <v>31</v>
       </c>
       <c r="AB6" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC6" s="12" t="s">
         <v>32</v>
@@ -14883,7 +14905,7 @@
         <v>32</v>
       </c>
       <c r="AK6" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL6" s="4" t="s">
         <v>39</v>
@@ -15116,7 +15138,7 @@
     </row>
     <row r="7" spans="1:113" ht="15.75">
       <c r="A7" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>24</v>
@@ -15129,7 +15151,7 @@
         <v>154</v>
       </c>
       <c r="F7" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>7</v>
@@ -15141,22 +15163,22 @@
         <v>26</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L7" s="45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M7" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N7" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="O7" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="O7" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>184</v>
@@ -15186,7 +15208,7 @@
         <v>31</v>
       </c>
       <c r="Y7" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z7" s="4" t="s">
         <v>32</v>
@@ -15195,7 +15217,7 @@
         <v>31</v>
       </c>
       <c r="AB7" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC7" s="12" t="s">
         <v>32</v>
@@ -15218,7 +15240,7 @@
         <v>32</v>
       </c>
       <c r="AK7" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL7" s="4" t="s">
         <v>39</v>
@@ -15451,7 +15473,7 @@
     </row>
     <row r="8" spans="1:113" ht="15.75">
       <c r="A8" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>24</v>
@@ -15464,10 +15486,10 @@
         <v>154</v>
       </c>
       <c r="F8" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H8" s="55" t="s">
         <v>168</v>
@@ -15476,19 +15498,19 @@
         <v>14</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L8" s="45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M8" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N8" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O8" s="12" t="s">
         <v>188</v>
@@ -15521,7 +15543,7 @@
         <v>32</v>
       </c>
       <c r="Y8" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z8" s="4" t="s">
         <v>31</v>
@@ -15541,7 +15563,7 @@
         <v>31</v>
       </c>
       <c r="AG8" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AH8" s="4" t="s">
         <v>32</v>
@@ -15553,7 +15575,7 @@
         <v>32</v>
       </c>
       <c r="AK8" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL8" s="4" t="s">
         <v>39</v>
@@ -15786,7 +15808,7 @@
     </row>
     <row r="9" spans="1:113" customFormat="1" ht="15.75">
       <c r="A9" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>24</v>
@@ -15799,7 +15821,7 @@
         <v>154</v>
       </c>
       <c r="F9" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>7</v>
@@ -15811,22 +15833,22 @@
         <v>14</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L9" s="45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M9" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N9" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>184</v>
@@ -15876,7 +15898,7 @@
         <v>31</v>
       </c>
       <c r="AG9" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AH9" s="4" t="s">
         <v>32</v>
@@ -15888,7 +15910,7 @@
         <v>32</v>
       </c>
       <c r="AK9" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL9" s="4" t="s">
         <v>39</v>
@@ -16121,7 +16143,7 @@
     </row>
     <row r="10" spans="1:113" customFormat="1" ht="15.75">
       <c r="A10" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>24</v>
@@ -16134,10 +16156,10 @@
         <v>154</v>
       </c>
       <c r="F10" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H10" s="55" t="s">
         <v>168</v>
@@ -16146,22 +16168,22 @@
         <v>26</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L10" s="45" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M10" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N10" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="O10" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="O10" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>184</v>
@@ -16191,7 +16213,7 @@
         <v>31</v>
       </c>
       <c r="Y10" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z10" s="4" t="s">
         <v>32</v>
@@ -16200,7 +16222,7 @@
         <v>31</v>
       </c>
       <c r="AB10" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC10" s="12" t="s">
         <v>32</v>
@@ -16223,7 +16245,7 @@
         <v>32</v>
       </c>
       <c r="AK10" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL10" s="4" t="s">
         <v>39</v>
@@ -16456,7 +16478,7 @@
     </row>
     <row r="11" spans="1:113" customFormat="1" ht="15.75">
       <c r="A11" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>24</v>
@@ -16469,7 +16491,7 @@
         <v>154</v>
       </c>
       <c r="F11" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>7</v>
@@ -16481,7 +16503,7 @@
         <v>26</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>8</v>
@@ -16493,10 +16515,10 @@
         <v>26</v>
       </c>
       <c r="N11" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="O11" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="O11" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>184</v>
@@ -16526,7 +16548,7 @@
         <v>31</v>
       </c>
       <c r="Y11" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z11" s="4" t="s">
         <v>32</v>
@@ -16535,7 +16557,7 @@
         <v>31</v>
       </c>
       <c r="AB11" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC11" s="12" t="s">
         <v>32</v>
@@ -16558,7 +16580,7 @@
         <v>32</v>
       </c>
       <c r="AK11" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL11" s="4" t="s">
         <v>39</v>
@@ -16791,7 +16813,7 @@
     </row>
     <row r="12" spans="1:113" customFormat="1" ht="15.75">
       <c r="A12" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>24</v>
@@ -16804,10 +16826,10 @@
         <v>154</v>
       </c>
       <c r="F12" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H12" s="55" t="s">
         <v>168</v>
@@ -16816,19 +16838,19 @@
         <v>14</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L12" s="45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M12" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N12" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O12" s="12" t="s">
         <v>188</v>
@@ -16861,7 +16883,7 @@
         <v>32</v>
       </c>
       <c r="Y12" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z12" s="4" t="s">
         <v>31</v>
@@ -16881,7 +16903,7 @@
         <v>31</v>
       </c>
       <c r="AG12" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AH12" s="4" t="s">
         <v>32</v>
@@ -16893,7 +16915,7 @@
         <v>32</v>
       </c>
       <c r="AK12" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL12" s="4" t="s">
         <v>39</v>
@@ -17126,7 +17148,7 @@
     </row>
     <row r="13" spans="1:113" customFormat="1" ht="15.75">
       <c r="A13" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>24</v>
@@ -17139,7 +17161,7 @@
         <v>154</v>
       </c>
       <c r="F13" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>7</v>
@@ -17151,22 +17173,22 @@
         <v>14</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L13" s="45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M13" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N13" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>184</v>
@@ -17196,7 +17218,7 @@
         <v>32</v>
       </c>
       <c r="Y13" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z13" s="4" t="s">
         <v>31</v>
@@ -17216,7 +17238,7 @@
         <v>31</v>
       </c>
       <c r="AG13" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AH13" s="4" t="s">
         <v>32</v>
@@ -17228,7 +17250,7 @@
         <v>32</v>
       </c>
       <c r="AK13" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL13" s="4" t="s">
         <v>39</v>
@@ -17461,7 +17483,7 @@
     </row>
     <row r="14" spans="1:113" ht="15.75">
       <c r="A14" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>24</v>
@@ -17474,10 +17496,10 @@
         <v>154</v>
       </c>
       <c r="F14" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H14" s="55" t="s">
         <v>168</v>
@@ -17486,22 +17508,22 @@
         <v>26</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L14" s="45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M14" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N14" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="O14" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="O14" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>184</v>
@@ -17531,7 +17553,7 @@
         <v>31</v>
       </c>
       <c r="Y14" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z14" s="4" t="s">
         <v>32</v>
@@ -17540,7 +17562,7 @@
         <v>31</v>
       </c>
       <c r="AB14" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC14" s="12" t="s">
         <v>32</v>
@@ -17563,7 +17585,7 @@
         <v>32</v>
       </c>
       <c r="AK14" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL14" s="4" t="s">
         <v>39</v>
@@ -17796,7 +17818,7 @@
     </row>
     <row r="15" spans="1:113" ht="15.75">
       <c r="A15" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>24</v>
@@ -17809,7 +17831,7 @@
         <v>154</v>
       </c>
       <c r="F15" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>7</v>
@@ -17821,22 +17843,22 @@
         <v>26</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L15" s="45" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M15" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N15" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="O15" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="O15" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>184</v>
@@ -17866,7 +17888,7 @@
         <v>31</v>
       </c>
       <c r="Y15" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z15" s="4" t="s">
         <v>32</v>
@@ -17875,7 +17897,7 @@
         <v>31</v>
       </c>
       <c r="AB15" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC15" s="12" t="s">
         <v>32</v>
@@ -17898,7 +17920,7 @@
         <v>32</v>
       </c>
       <c r="AK15" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL15" s="4" t="s">
         <v>39</v>
@@ -18131,7 +18153,7 @@
     </row>
     <row r="16" spans="1:113" ht="15.75">
       <c r="A16" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>24</v>
@@ -18144,10 +18166,10 @@
         <v>154</v>
       </c>
       <c r="F16" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H16" s="55" t="s">
         <v>168</v>
@@ -18156,7 +18178,7 @@
         <v>14</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>8</v>
@@ -18168,7 +18190,7 @@
         <v>26</v>
       </c>
       <c r="N16" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O16" s="12" t="s">
         <v>188</v>
@@ -18221,7 +18243,7 @@
         <v>31</v>
       </c>
       <c r="AG16" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AH16" s="4" t="s">
         <v>32</v>
@@ -18233,7 +18255,7 @@
         <v>32</v>
       </c>
       <c r="AK16" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL16" s="4" t="s">
         <v>39</v>
@@ -18466,7 +18488,7 @@
     </row>
     <row r="17" spans="1:113" ht="15.75">
       <c r="A17" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>24</v>
@@ -18479,7 +18501,7 @@
         <v>154</v>
       </c>
       <c r="F17" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>7</v>
@@ -18491,22 +18513,22 @@
         <v>14</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L17" s="45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M17" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N17" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O17" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>184</v>
@@ -18536,7 +18558,7 @@
         <v>32</v>
       </c>
       <c r="Y17" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z17" s="4" t="s">
         <v>31</v>
@@ -18556,7 +18578,7 @@
         <v>31</v>
       </c>
       <c r="AG17" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AH17" s="4" t="s">
         <v>32</v>
@@ -18568,7 +18590,7 @@
         <v>32</v>
       </c>
       <c r="AK17" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL17" s="4" t="s">
         <v>39</v>
@@ -18801,7 +18823,7 @@
     </row>
     <row r="18" spans="1:113" ht="15.75">
       <c r="A18" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>24</v>
@@ -18814,40 +18836,40 @@
         <v>154</v>
       </c>
       <c r="F18" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>7</v>
       </c>
       <c r="H18" s="55" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L18" s="45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M18" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N18" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O18" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>184</v>
       </c>
       <c r="Q18" s="38" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R18" s="8" t="s">
         <v>31</v>
@@ -18871,7 +18893,7 @@
         <v>31</v>
       </c>
       <c r="Y18" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z18" s="4" t="s">
         <v>32</v>
@@ -18880,13 +18902,13 @@
         <v>31</v>
       </c>
       <c r="AB18" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AC18" s="12" t="s">
         <v>31</v>
       </c>
       <c r="AD18" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AE18" s="12" t="s">
         <v>32</v>
@@ -18895,7 +18917,7 @@
         <v>31</v>
       </c>
       <c r="AG18" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AH18" s="4" t="s">
         <v>32</v>
@@ -18907,7 +18929,7 @@
         <v>32</v>
       </c>
       <c r="AK18" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL18" s="4" t="s">
         <v>39</v>
@@ -19140,7 +19162,7 @@
     </row>
     <row r="19" spans="1:113" ht="15.75">
       <c r="A19" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>24</v>
@@ -19153,40 +19175,40 @@
         <v>154</v>
       </c>
       <c r="F19" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H19" s="55" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L19" s="45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M19" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N19" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O19" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P19" s="4" t="s">
         <v>184</v>
       </c>
       <c r="Q19" s="38" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="R19" s="8" t="s">
         <v>32</v>
@@ -19210,7 +19232,7 @@
         <v>31</v>
       </c>
       <c r="Y19" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z19" s="4" t="s">
         <v>32</v>
@@ -19219,13 +19241,13 @@
         <v>31</v>
       </c>
       <c r="AB19" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AC19" s="12" t="s">
         <v>31</v>
       </c>
       <c r="AD19" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AE19" s="12" t="s">
         <v>32</v>
@@ -19234,7 +19256,7 @@
         <v>31</v>
       </c>
       <c r="AG19" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AH19" s="4" t="s">
         <v>32</v>
@@ -19246,7 +19268,7 @@
         <v>32</v>
       </c>
       <c r="AK19" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL19" s="4" t="s">
         <v>39</v>
@@ -19479,7 +19501,7 @@
     </row>
     <row r="20" spans="1:113" ht="15.75">
       <c r="A20" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>24</v>
@@ -19492,34 +19514,34 @@
         <v>154</v>
       </c>
       <c r="F20" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>7</v>
       </c>
       <c r="H20" s="55" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L20" s="45" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M20" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N20" s="44" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>184</v>
@@ -19558,7 +19580,7 @@
         <v>31</v>
       </c>
       <c r="AB20" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AC20" s="12" t="s">
         <v>32</v>
@@ -19581,7 +19603,7 @@
         <v>32</v>
       </c>
       <c r="AK20" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL20" s="4" t="s">
         <v>39</v>
@@ -19814,7 +19836,7 @@
     </row>
     <row r="21" spans="1:113" ht="15.75">
       <c r="A21" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>24</v>
@@ -19827,19 +19849,19 @@
         <v>154</v>
       </c>
       <c r="F21" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H21" s="55" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>8</v>
@@ -19851,10 +19873,10 @@
         <v>14</v>
       </c>
       <c r="N21" s="44" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O21" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>184</v>
@@ -19904,7 +19926,7 @@
         <v>31</v>
       </c>
       <c r="AG21" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AH21" s="4" t="s">
         <v>32</v>
@@ -19916,7 +19938,7 @@
         <v>32</v>
       </c>
       <c r="AK21" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL21" s="4" t="s">
         <v>39</v>
@@ -20149,7 +20171,7 @@
     </row>
     <row r="22" spans="1:113" ht="15.75">
       <c r="A22" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>24</v>
@@ -20162,34 +20184,34 @@
         <v>154</v>
       </c>
       <c r="F22" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>7</v>
       </c>
       <c r="H22" s="55" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L22" s="45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M22" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N22" s="44" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O22" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P22" s="4" t="s">
         <v>184</v>
@@ -20219,7 +20241,7 @@
         <v>32</v>
       </c>
       <c r="Y22" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z22" s="4" t="s">
         <v>32</v>
@@ -20249,7 +20271,7 @@
         <v>32</v>
       </c>
       <c r="AK22" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL22" s="4" t="s">
         <v>39</v>
@@ -20482,7 +20504,7 @@
     </row>
     <row r="23" spans="1:113" ht="15.75">
       <c r="A23" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>24</v>
@@ -20495,31 +20517,31 @@
         <v>154</v>
       </c>
       <c r="F23" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="H23" s="55" t="s">
+        <v>238</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="H23" s="55" t="s">
-        <v>239</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>202</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L23" s="45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M23" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N23" s="44" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O23" s="12" t="s">
         <v>188</v>
@@ -20552,7 +20574,7 @@
         <v>32</v>
       </c>
       <c r="Y23" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z23" s="4" t="s">
         <v>32</v>
@@ -20561,7 +20583,7 @@
         <v>31</v>
       </c>
       <c r="AB23" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AC23" s="12" t="s">
         <v>32</v>
@@ -20584,7 +20606,7 @@
         <v>32</v>
       </c>
       <c r="AK23" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL23" s="4" t="s">
         <v>39</v>
@@ -20817,7 +20839,7 @@
     </row>
     <row r="24" spans="1:113" ht="15.75">
       <c r="A24" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>24</v>
@@ -20830,34 +20852,34 @@
         <v>154</v>
       </c>
       <c r="F24" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G24" s="12" t="s">
         <v>7</v>
       </c>
       <c r="H24" s="55" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L24" s="45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M24" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N24" s="44" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O24" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P24" s="4" t="s">
         <v>184</v>
@@ -20887,7 +20909,7 @@
         <v>31</v>
       </c>
       <c r="Y24" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z24" s="4" t="s">
         <v>32</v>
@@ -20896,22 +20918,22 @@
         <v>31</v>
       </c>
       <c r="AB24" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AC24" s="12" t="s">
         <v>31</v>
       </c>
       <c r="AD24" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AE24" s="12" t="s">
         <v>32</v>
       </c>
       <c r="AF24" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AG24" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AH24" s="4" t="s">
         <v>32</v>
@@ -20923,7 +20945,7 @@
         <v>32</v>
       </c>
       <c r="AK24" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL24" s="4" t="s">
         <v>39</v>
@@ -21156,7 +21178,7 @@
     </row>
     <row r="25" spans="1:113" ht="15.75">
       <c r="A25" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>24</v>
@@ -21169,40 +21191,40 @@
         <v>154</v>
       </c>
       <c r="F25" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H25" s="55" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L25" s="45" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M25" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N25" s="44" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O25" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P25" s="4" t="s">
         <v>184</v>
       </c>
       <c r="Q25" s="38" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="R25" s="8" t="s">
         <v>32</v>
@@ -21226,7 +21248,7 @@
         <v>31</v>
       </c>
       <c r="Y25" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z25" s="4" t="s">
         <v>32</v>
@@ -21235,13 +21257,13 @@
         <v>31</v>
       </c>
       <c r="AB25" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AC25" s="12" t="s">
         <v>31</v>
       </c>
       <c r="AD25" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AE25" s="12" t="s">
         <v>32</v>
@@ -21250,7 +21272,7 @@
         <v>31</v>
       </c>
       <c r="AG25" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AH25" s="4" t="s">
         <v>32</v>
@@ -21262,7 +21284,7 @@
         <v>32</v>
       </c>
       <c r="AK25" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL25" s="4" t="s">
         <v>39</v>
@@ -21495,7 +21517,7 @@
     </row>
     <row r="26" spans="1:113" ht="15.75">
       <c r="A26" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>24</v>
@@ -21508,7 +21530,7 @@
         <v>154</v>
       </c>
       <c r="F26" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>7</v>
@@ -21520,7 +21542,7 @@
         <v>26</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>8</v>
@@ -21532,16 +21554,16 @@
         <v>14</v>
       </c>
       <c r="N26" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="O26" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="O26" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="P26" s="4" t="s">
         <v>184</v>
       </c>
       <c r="Q26" s="38" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R26" s="8" t="s">
         <v>32</v>
@@ -21565,7 +21587,7 @@
         <v>31</v>
       </c>
       <c r="Y26" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z26" s="4" t="s">
         <v>32</v>
@@ -21574,7 +21596,7 @@
         <v>31</v>
       </c>
       <c r="AB26" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC26" s="12" t="s">
         <v>32</v>
@@ -21597,7 +21619,7 @@
         <v>32</v>
       </c>
       <c r="AK26" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL26" s="4" t="s">
         <v>39</v>
@@ -21830,7 +21852,7 @@
     </row>
     <row r="27" spans="1:113" ht="15.75">
       <c r="A27" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>24</v>
@@ -21843,10 +21865,10 @@
         <v>154</v>
       </c>
       <c r="F27" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H27" s="55" t="s">
         <v>168</v>
@@ -21855,19 +21877,19 @@
         <v>14</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L27" s="45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M27" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N27" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O27" s="12" t="s">
         <v>188</v>
@@ -21876,7 +21898,7 @@
         <v>184</v>
       </c>
       <c r="Q27" s="38" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R27" s="8" t="s">
         <v>32</v>
@@ -21900,7 +21922,7 @@
         <v>32</v>
       </c>
       <c r="Y27" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z27" s="4" t="s">
         <v>31</v>
@@ -21920,7 +21942,7 @@
         <v>31</v>
       </c>
       <c r="AG27" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AH27" s="4" t="s">
         <v>32</v>
@@ -21932,7 +21954,7 @@
         <v>32</v>
       </c>
       <c r="AK27" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL27" s="4" t="s">
         <v>39</v>
@@ -22165,7 +22187,7 @@
     </row>
     <row r="28" spans="1:113" ht="15.75">
       <c r="A28" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>24</v>
@@ -22178,7 +22200,7 @@
         <v>154</v>
       </c>
       <c r="F28" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>7</v>
@@ -22190,28 +22212,28 @@
         <v>14</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K28" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L28" s="45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M28" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N28" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O28" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P28" s="4" t="s">
         <v>184</v>
       </c>
       <c r="Q28" s="38" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="R28" s="8" t="s">
         <v>32</v>
@@ -22235,7 +22257,7 @@
         <v>32</v>
       </c>
       <c r="Y28" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z28" s="4" t="s">
         <v>31</v>
@@ -22255,7 +22277,7 @@
         <v>31</v>
       </c>
       <c r="AG28" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AH28" s="4" t="s">
         <v>32</v>
@@ -22267,7 +22289,7 @@
         <v>32</v>
       </c>
       <c r="AK28" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL28" s="4" t="s">
         <v>39</v>
@@ -22500,7 +22522,7 @@
     </row>
     <row r="29" spans="1:113" ht="15.75">
       <c r="A29" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>24</v>
@@ -22513,10 +22535,10 @@
         <v>154</v>
       </c>
       <c r="F29" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H29" s="55" t="s">
         <v>168</v>
@@ -22525,28 +22547,28 @@
         <v>26</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L29" s="45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M29" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N29" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="O29" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="O29" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="P29" s="4" t="s">
         <v>184</v>
       </c>
       <c r="Q29" s="38" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="R29" s="8" t="s">
         <v>31</v>
@@ -22570,7 +22592,7 @@
         <v>31</v>
       </c>
       <c r="Y29" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z29" s="4" t="s">
         <v>32</v>
@@ -22579,7 +22601,7 @@
         <v>31</v>
       </c>
       <c r="AB29" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC29" s="12" t="s">
         <v>32</v>
@@ -22602,7 +22624,7 @@
         <v>32</v>
       </c>
       <c r="AK29" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL29" s="4" t="s">
         <v>39</v>
@@ -22835,7 +22857,7 @@
     </row>
     <row r="30" spans="1:113" ht="15.75">
       <c r="A30" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>24</v>
@@ -22848,7 +22870,7 @@
         <v>154</v>
       </c>
       <c r="F30" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G30" s="12" t="s">
         <v>7</v>
@@ -22860,28 +22882,28 @@
         <v>26</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L30" s="45" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M30" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N30" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="O30" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="O30" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="P30" s="4" t="s">
         <v>184</v>
       </c>
       <c r="Q30" s="38" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="R30" s="8" t="s">
         <v>31</v>
@@ -22905,7 +22927,7 @@
         <v>31</v>
       </c>
       <c r="Y30" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z30" s="4" t="s">
         <v>32</v>
@@ -22914,7 +22936,7 @@
         <v>31</v>
       </c>
       <c r="AB30" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC30" s="12" t="s">
         <v>32</v>
@@ -22937,7 +22959,7 @@
         <v>32</v>
       </c>
       <c r="AK30" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL30" s="4" t="s">
         <v>39</v>
@@ -23170,7 +23192,7 @@
     </row>
     <row r="31" spans="1:113" ht="15.75">
       <c r="A31" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>24</v>
@@ -23183,10 +23205,10 @@
         <v>154</v>
       </c>
       <c r="F31" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H31" s="55" t="s">
         <v>168</v>
@@ -23195,7 +23217,7 @@
         <v>26</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K31" s="4" t="s">
         <v>8</v>
@@ -23207,10 +23229,10 @@
         <v>26</v>
       </c>
       <c r="N31" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="O31" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="O31" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="P31" s="4" t="s">
         <v>184</v>
@@ -23240,7 +23262,7 @@
         <v>31</v>
       </c>
       <c r="Y31" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z31" s="4" t="s">
         <v>32</v>
@@ -23249,7 +23271,7 @@
         <v>31</v>
       </c>
       <c r="AB31" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC31" s="12" t="s">
         <v>32</v>
@@ -23272,7 +23294,7 @@
         <v>32</v>
       </c>
       <c r="AK31" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL31" s="4" t="s">
         <v>39</v>
@@ -23669,10 +23691,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="A2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.140625" defaultRowHeight="15"/>
@@ -23684,19 +23706,18 @@
     <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" style="54" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="53" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="53" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="49" customFormat="1">
+    <row r="1" spans="1:12" s="49" customFormat="1">
       <c r="A1" s="47" t="s">
         <v>18</v>
       </c>
@@ -23715,17 +23736,26 @@
       <c r="F1" s="47" t="s">
         <v>193</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="57" t="s">
         <v>15</v>
       </c>
       <c r="H1" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="I1" s="47" t="s">
-        <v>37</v>
+      <c r="I1" s="57" t="s">
+        <v>265</v>
+      </c>
+      <c r="J1" s="57" t="s">
+        <v>266</v>
+      </c>
+      <c r="K1" s="60" t="s">
+        <v>267</v>
+      </c>
+      <c r="L1" s="61" t="s">
+        <v>268</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="53" customFormat="1">
+    <row r="2" spans="1:12">
       <c r="A2" s="18" t="s">
         <v>195</v>
       </c>
@@ -23742,19 +23772,42 @@
         <v>197</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="52" t="s">
         <v>198</v>
       </c>
-      <c r="H2" s="52" t="s">
-        <v>199</v>
-      </c>
-      <c r="I2" s="18">
-        <v>431003</v>
+      <c r="I2" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="58" t="s">
+        <v>250</v>
+      </c>
+      <c r="K2" s="59">
+        <v>560000</v>
+      </c>
+      <c r="L2" s="53" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="4">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
+      <formula1>"Female,Male"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576">
+      <formula1>"Diploma,Graduate,Post graduate &amp; above"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576">
+      <formula1>"Salaried,Self Employed"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
   </hyperlinks>

--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ganesh_Mahure\git\C_HSBC\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="YTP" sheetId="1" r:id="rId1"/>
@@ -13,8 +18,8 @@
     <sheet name="GFP" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6951" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6961" uniqueCount="274">
   <si>
     <t>First_Name</t>
   </si>
@@ -618,9 +623,6 @@
     <t>ganesh.12@gmail.com</t>
   </si>
   <si>
-    <t>female</t>
-  </si>
-  <si>
     <t>20/06/1996</t>
   </si>
   <si>
@@ -816,14 +818,44 @@
     <t>2900000</t>
   </si>
   <si>
-    <t>Married</t>
+    <t>ganesh.digambarmahure@canarahsbclife.in</t>
+  </si>
+  <si>
+    <t>OBC Bank</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Occupation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annual Income </t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invest_For </t>
+  </si>
+  <si>
+    <t>Spouse</t>
+  </si>
+  <si>
+    <t>Invest_For_Gender</t>
+  </si>
+  <si>
+    <t>Gender_DOB</t>
+  </si>
+  <si>
+    <t>28/09/1999</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -977,7 +1009,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1141,6 +1173,26 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1416,34 +1468,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DI2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:DH2"/>
   <sheetViews>
-    <sheetView topLeftCell="AE1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AK1" sqref="AK1:AK1048576"/>
+    <sheetView topLeftCell="BI1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="BL12" sqref="BL12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -1456,97 +1508,96 @@
     <col min="23" max="23" width="28.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.140625" style="2" customWidth="1"/>
-    <col min="38" max="38" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="52" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="8.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="29" style="2" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="19.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="39.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="38.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="25.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="27.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="7.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="18.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="114" max="16384" width="3" style="1"/>
+    <col min="33" max="33" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.140625" style="2" customWidth="1"/>
+    <col min="39" max="39" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="51" width="26" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="24.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="8.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="29.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="39.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="30" style="1" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="38.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="26" style="1" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="25.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="27.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="7.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="113" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:113" s="16" customFormat="1">
+    <row r="1" spans="1:112" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>18</v>
       </c>
@@ -1644,252 +1695,249 @@
         <v>179</v>
       </c>
       <c r="AG1" s="15" t="s">
-        <v>258</v>
+        <v>180</v>
       </c>
       <c r="AH1" s="15" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="AI1" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="AJ1" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="AK1" s="14" t="s">
-        <v>262</v>
+      <c r="AJ1" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="AK1" s="15" t="s">
+        <v>38</v>
       </c>
       <c r="AL1" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM1" s="15" t="s">
         <v>37</v>
       </c>
+      <c r="AM1" s="24" t="s">
+        <v>79</v>
+      </c>
       <c r="AN1" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="AO1" s="24" t="s">
         <v>41</v>
       </c>
+      <c r="AO1" s="15" t="s">
+        <v>42</v>
+      </c>
       <c r="AP1" s="15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AQ1" s="15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AR1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS1" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="AT1" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="AS1" s="15" t="s">
+      <c r="AU1" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AT1" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU1" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV1" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="AW1" s="24" t="s">
+      <c r="AV1" s="24" t="s">
         <v>52</v>
       </c>
+      <c r="AW1" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="AX1" s="15" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="AY1" s="15" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="AZ1" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BA1" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BB1" s="15" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="BC1" s="15" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="BD1" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BE1" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="BF1" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="BG1" s="22" t="s">
+      <c r="BF1" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="BH1" s="20" t="s">
+      <c r="BG1" s="20" t="s">
         <v>69</v>
       </c>
+      <c r="BH1" s="21" t="s">
+        <v>70</v>
+      </c>
       <c r="BI1" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="BJ1" s="21" t="s">
         <v>71</v>
       </c>
+      <c r="BJ1" s="26" t="s">
+        <v>76</v>
+      </c>
       <c r="BK1" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="BL1" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="BM1" s="24" t="s">
+      <c r="BL1" s="24" t="s">
         <v>80</v>
       </c>
+      <c r="BM1" s="28" t="s">
+        <v>81</v>
+      </c>
       <c r="BN1" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="BO1" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="BP1" s="26" t="s">
+      <c r="BO1" s="26" t="s">
         <v>83</v>
       </c>
+      <c r="BP1" s="28" t="s">
+        <v>85</v>
+      </c>
       <c r="BQ1" s="28" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="BR1" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="BS1" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="BT1" s="30" t="s">
+      <c r="BS1" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="BU1" s="24" t="s">
+      <c r="BT1" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="BV1" s="14" t="s">
+      <c r="BU1" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="BW1" s="24" t="s">
+      <c r="BV1" s="24" t="s">
         <v>93</v>
       </c>
+      <c r="BW1" s="15" t="s">
+        <v>95</v>
+      </c>
       <c r="BX1" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="BY1" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="BZ1" s="24" t="s">
+      <c r="BY1" s="24" t="s">
         <v>99</v>
       </c>
+      <c r="BZ1" s="17" t="s">
+        <v>113</v>
+      </c>
       <c r="CA1" s="17" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="CB1" s="17" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="CC1" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="CD1" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="CE1" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="CF1" s="31" t="s">
+      <c r="CE1" s="31" t="s">
         <v>109</v>
       </c>
+      <c r="CF1" s="17" t="s">
+        <v>110</v>
+      </c>
       <c r="CG1" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="CH1" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="CI1" s="32" t="s">
+      <c r="CH1" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="CJ1" s="24" t="s">
+      <c r="CI1" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="CK1" s="17" t="s">
+      <c r="CJ1" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="CL1" s="24" t="s">
+      <c r="CK1" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="CM1" s="17" t="s">
+      <c r="CL1" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="CN1" s="15" t="s">
+      <c r="CM1" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="CO1" s="24" t="s">
+      <c r="CN1" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="CP1" s="15" t="s">
+      <c r="CO1" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="CQ1" s="24" t="s">
+      <c r="CP1" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="CR1" s="31" t="s">
+      <c r="CQ1" s="31" t="s">
         <v>127</v>
       </c>
+      <c r="CR1" s="24" t="s">
+        <v>129</v>
+      </c>
       <c r="CS1" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="CT1" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="CU1" s="17" t="s">
+      <c r="CT1" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="CV1" s="15" t="s">
+      <c r="CU1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="CW1" s="24" t="s">
+      <c r="CV1" s="24" t="s">
         <v>132</v>
       </c>
+      <c r="CW1" s="15" t="s">
+        <v>134</v>
+      </c>
       <c r="CX1" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="CY1" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="CZ1" s="14" t="s">
+      <c r="CY1" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="DA1" s="24" t="s">
+      <c r="CZ1" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="DB1" s="14" t="s">
+      <c r="DA1" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="DC1" s="15" t="s">
+      <c r="DB1" s="15" t="s">
         <v>142</v>
       </c>
+      <c r="DC1" s="24" t="s">
+        <v>144</v>
+      </c>
       <c r="DD1" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="DE1" s="24" t="s">
         <v>145</v>
       </c>
+      <c r="DE1" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="DF1" s="14" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="DG1" s="14" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="DH1" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="DI1" s="14" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:113" s="43" customFormat="1" ht="15.75">
+    <row r="2" spans="1:112" s="43" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>24</v>
@@ -1898,14 +1946,14 @@
       <c r="D2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="36" t="s">
-        <v>154</v>
+      <c r="E2" s="56" t="s">
+        <v>263</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H2" s="55" t="s">
         <v>168</v>
@@ -1914,22 +1962,22 @@
         <v>14</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L2" s="45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M2" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N2" s="44" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>184</v>
@@ -1965,13 +2013,13 @@
         <v>32</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB2" s="19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AC2" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AD2" s="19" t="s">
         <v>170</v>
@@ -1980,290 +2028,317 @@
         <v>32</v>
       </c>
       <c r="AF2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG2" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="AH2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI2" s="46">
+        <v>32</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH2" s="46">
         <v>25</v>
       </c>
-      <c r="AJ2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="AL2" s="4" t="s">
+      <c r="AI2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ2" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="AK2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AM2" s="27" t="s">
+      <c r="AL2" s="27" t="s">
         <v>40</v>
       </c>
+      <c r="AM2" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="AN2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AO2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="AP2" s="27" t="s">
+      <c r="AO2" s="27" t="s">
         <v>43</v>
       </c>
+      <c r="AP2" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="AQ2" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AR2" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AS2" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AT2" s="4" t="s">
-        <v>51</v>
+        <v>156</v>
       </c>
       <c r="AU2" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AV2" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="AW2" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AW2" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AY2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="BB2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="BD2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="BE2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="BF2" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG2" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="BH2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BI2" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ2" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="BK2" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="BL2" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="BM2" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="BN2" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="BO2" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP2" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="BQ2" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="BR2" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="BS2" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="BT2" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="AX2" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="AY2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AZ2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="BB2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="BC2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="BD2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="BE2" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="BF2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="BG2" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="BH2" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="BI2" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="BJ2" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="BK2" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="BL2" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="BM2" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="BN2" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="BO2" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="BP2" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="BQ2" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="BR2" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="BS2" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="BT2" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="BU2" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="BV2" s="19" t="s">
+      <c r="BU2" s="19" t="s">
         <v>40</v>
       </c>
+      <c r="BV2" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="BW2" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="BX2" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="BY2" s="4" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="BZ2" s="4" t="s">
         <v>22</v>
       </c>
       <c r="CA2" s="4" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="CB2" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="CC2" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="CD2" s="27" t="s">
+      <c r="CC2" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="CE2" s="4" t="s">
+      <c r="CD2" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="CF2" s="19" t="s">
+      <c r="CE2" s="19" t="s">
         <v>166</v>
       </c>
+      <c r="CF2" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="CG2" s="4" t="s">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="CH2" s="4" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="CI2" s="4" t="s">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="CJ2" s="4" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="CK2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="CL2" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="CL2" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="CM2" s="4" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="CN2" s="4" t="s">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="CO2" s="4" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="CP2" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="CQ2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="CR2" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="CQ2" s="19" t="s">
         <v>167</v>
       </c>
+      <c r="CR2" s="4" t="s">
+        <v>153</v>
+      </c>
       <c r="CS2" s="4" t="s">
-        <v>153</v>
+        <v>14</v>
       </c>
       <c r="CT2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="CU2" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="CV2" s="27" t="s">
+      <c r="CU2" s="27" t="s">
         <v>169</v>
       </c>
+      <c r="CV2" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="CW2" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="CX2" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="CY2" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="CZ2" s="19" t="s">
+      <c r="CY2" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="DA2" s="4" t="s">
+      <c r="CZ2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="DB2" s="19" t="s">
+      <c r="DA2" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="DC2" s="36" t="s">
+      <c r="DB2" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="DD2" s="4" t="s">
+      <c r="DC2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="DE2" s="42">
+      <c r="DD2" s="42">
         <v>1</v>
       </c>
+      <c r="DE2" s="19" t="s">
+        <v>147</v>
+      </c>
       <c r="DF2" s="19" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="DG2" s="19" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="DH2" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="DI2" s="19" t="s">
         <v>151</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="31">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M1:M2 CH2 CJ2 CL2 CQ2 CT2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CS2 CP2 CK2 CI2 CG2 M1:M2">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AW1:AW2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AV1:AV2">
       <formula1>"Single,Married,Divorced,Widowed"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BU1:BU2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BT1:BT2">
       <formula1>"Canara HSBC Life Insurance,Canara Bank,HSBC Bank,OBC Bank,Others"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BW1:BW2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BV1:BV2">
       <formula1>"Outside India,Maharashtra,Himachal Pradesh,Jammu &amp; Kashmir,Jharkhand,Karnataka,Kerala,Madhya Pradesh,Manipur,Meghalaya,Mizoram,Nagaland,Odisha,Punjab,Rajasthan,Tamil Nadu,Uttar Pradesh,Delhi,Haryana,Gujarat,Telangana,Chandigarh,Bihar,"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BZ1:BZ2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BY1:BY2">
       <formula1>"Merchant Marine,Others"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CC1:CC2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CB1:CB2">
       <formula1>"Bargeman / Dredgerman / Dredgermaster / Leadsman / Lighterman / Survey sounder / Tugboatman,Seaman / Engine-room worker,Boatswain / Engineer / Quartermaster / Steerer,"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BG1:BG2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BF1:BF2">
       <formula1>"School certificate/College certificate,Valid Passport,PAN card,Muncipal Birth certificate,Virtual Identification (VID)/ Aadhaar card,e-KYC Aadhaar,Valid Driving license,ESI card,Domicile Certificate,Defence Health Card,"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G1:G2 DA2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CZ2 G1:G2">
       <formula1>"Male,Female,Transgender"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AO1:AO2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AN1:AN2">
       <formula1>"Pay Later,Pay Now"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BM1:BM2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BL1:BL2">
       <formula1>"Valid Passport,Ration Card,Virtual Identification (VID)/ Aadhaar card,e-KYC Aadhaar,Job Card by NREGA,Valid Driving license,Voter ID"</formula1>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ1:BJ2 BP1:BP2">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BI1:BI2 BO1:BO2">
       <formula1>4</formula1>
       <formula2>4</formula2>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AN1:AN2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AM1:AM2">
       <formula1>"Transport owner"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AH2:AH1048576">
+      <formula1>"25,50,75,100"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BZ2">
+      <formula1>"Cable and Pipe Laying Vessels,Factory Ships,Oil Rig Barges / Supply Vessels,Others"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CF2">
+      <formula1>"Australia,Bermuda,Bulgaria,Bulgaria,Canada,Croatia,Cyprus,Denmark,Estonia,Finland,Germany,HongKong,Iceland,Ireland,Italy,NewZealand,Portugal,Romania,Singapore,Slovakia,UnitedKingdom,UnitedStates,VaticanCity"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CN2">
+      <formula1>"e-KYC Aadhaar,Ration Card,Water Bill(Not older than 3 months)"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CT2">
+      <formula1>"HDFC Standard Life Insurance Co. Ltd,Life Insurance Corporation of India"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="DC2">
+      <formula1>"Aunt,Brother in Law,Brother,Daughter,Father,Mother"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="DD2">
+      <formula1>"100%,90%,80%,70%,60%,50%,40%,30%,20%,10%"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CD2">
+      <formula1>"Ocean liners"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CR2">
+      <formula1>"CDSL,NSDL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CV2">
+      <formula1>"Active,Lapsed"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I2">
       <formula1>"Yes,No"</formula1>
@@ -2292,39 +2367,9 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576">
       <formula1>"Lumpsum: 50% |  Monthly Income: 50%,Lumpsum: 25% |  Monthly Income: 75%,Lumpsum: 75% |  Monthly Income: 25%"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AI2:AI1048576">
-      <formula1>"25,50,75,100"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CA2">
-      <formula1>"Cable and Pipe Laying Vessels,Factory Ships,Oil Rig Barges / Supply Vessels,Others"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CG2">
-      <formula1>"Australia,Bermuda,Bulgaria,Bulgaria,Canada,Croatia,Cyprus,Denmark,Estonia,Finland,Germany,HongKong,Iceland,Ireland,Italy,NewZealand,Portugal,Romania,Singapore,Slovakia,UnitedKingdom,UnitedStates,VaticanCity"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CO2">
-      <formula1>"e-KYC Aadhaar,Ration Card,Water Bill(Not older than 3 months)"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CU2">
-      <formula1>"HDFC Standard Life Insurance Co. Ltd,Life Insurance Corporation of India"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="DD2">
-      <formula1>"Aunt,Brother in Law,Brother,Daughter,Father,Mother"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="DE2">
-      <formula1>"100%,90%,80%,70%,60%,50%,40%,30%,20%,10%"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CE2">
-      <formula1>"Ocean liners"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CS2">
-      <formula1>"CDSL,NSDL"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="CW2">
-      <formula1>"Active,Lapsed"</formula1>
-    </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="DC2" r:id="rId1"/>
+    <hyperlink ref="DB2" r:id="rId1"/>
     <hyperlink ref="E2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2333,14 +2378,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DH31"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="S1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
@@ -2455,7 +2500,7 @@
     <col min="113" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:112" s="16" customFormat="1">
+    <row r="1" spans="1:112" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>18</v>
       </c>
@@ -2553,7 +2598,7 @@
         <v>179</v>
       </c>
       <c r="AG1" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AH1" s="15" t="s">
         <v>180</v>
@@ -2793,7 +2838,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:112" s="43" customFormat="1" ht="15.75">
+    <row r="2" spans="1:112" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -2808,10 +2853,10 @@
         <v>154</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H2" s="55" t="s">
         <v>168</v>
@@ -2820,22 +2865,22 @@
         <v>26</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L2" s="45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M2" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N2" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="O2" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>184</v>
@@ -2865,7 +2910,7 @@
         <v>31</v>
       </c>
       <c r="Y2" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z2" s="4" t="s">
         <v>32</v>
@@ -2874,7 +2919,7 @@
         <v>31</v>
       </c>
       <c r="AB2" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC2" s="12" t="s">
         <v>32</v>
@@ -3125,9 +3170,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:112" s="43" customFormat="1" ht="15.75">
+    <row r="3" spans="1:112" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>24</v>
@@ -3140,7 +3185,7 @@
         <v>154</v>
       </c>
       <c r="F3" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>7</v>
@@ -3152,22 +3197,22 @@
         <v>26</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L3" s="45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M3" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N3" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="O3" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>184</v>
@@ -3197,7 +3242,7 @@
         <v>31</v>
       </c>
       <c r="Y3" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z3" s="4" t="s">
         <v>32</v>
@@ -3206,7 +3251,7 @@
         <v>31</v>
       </c>
       <c r="AB3" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC3" s="12" t="s">
         <v>32</v>
@@ -3457,9 +3502,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:112" s="43" customFormat="1" ht="15.75">
+    <row r="4" spans="1:112" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>24</v>
@@ -3472,10 +3517,10 @@
         <v>154</v>
       </c>
       <c r="F4" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H4" s="55" t="s">
         <v>168</v>
@@ -3484,19 +3529,19 @@
         <v>14</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L4" s="45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M4" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N4" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O4" s="12" t="s">
         <v>188</v>
@@ -3551,7 +3596,7 @@
         <v>31</v>
       </c>
       <c r="AG4" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AH4" s="4" t="s">
         <v>32</v>
@@ -3791,9 +3836,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:112" s="43" customFormat="1" ht="15.75">
+    <row r="5" spans="1:112" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>24</v>
@@ -3806,7 +3851,7 @@
         <v>154</v>
       </c>
       <c r="F5" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>7</v>
@@ -3818,22 +3863,22 @@
         <v>14</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L5" s="45" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M5" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N5" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>184</v>
@@ -3885,7 +3930,7 @@
         <v>31</v>
       </c>
       <c r="AG5" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AH5" s="4" t="s">
         <v>32</v>
@@ -4125,9 +4170,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:112" s="43" customFormat="1" ht="15.75">
+    <row r="6" spans="1:112" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>24</v>
@@ -4140,10 +4185,10 @@
         <v>154</v>
       </c>
       <c r="F6" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H6" s="55" t="s">
         <v>168</v>
@@ -4152,7 +4197,7 @@
         <v>26</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>8</v>
@@ -4164,10 +4209,10 @@
         <v>14</v>
       </c>
       <c r="N6" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="O6" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="O6" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>184</v>
@@ -4197,7 +4242,7 @@
         <v>31</v>
       </c>
       <c r="Y6" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z6" s="4" t="s">
         <v>32</v>
@@ -4206,7 +4251,7 @@
         <v>31</v>
       </c>
       <c r="AB6" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC6" s="12" t="s">
         <v>32</v>
@@ -4457,9 +4502,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:112" ht="15.75">
+    <row r="7" spans="1:112" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>24</v>
@@ -4472,7 +4517,7 @@
         <v>154</v>
       </c>
       <c r="F7" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>7</v>
@@ -4484,22 +4529,22 @@
         <v>26</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L7" s="45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M7" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N7" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="O7" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="O7" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>184</v>
@@ -4529,7 +4574,7 @@
         <v>31</v>
       </c>
       <c r="Y7" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z7" s="4" t="s">
         <v>32</v>
@@ -4538,7 +4583,7 @@
         <v>31</v>
       </c>
       <c r="AB7" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC7" s="12" t="s">
         <v>32</v>
@@ -4789,9 +4834,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:112" ht="15.75">
+    <row r="8" spans="1:112" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>24</v>
@@ -4804,10 +4849,10 @@
         <v>154</v>
       </c>
       <c r="F8" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H8" s="55" t="s">
         <v>168</v>
@@ -4816,19 +4861,19 @@
         <v>14</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L8" s="45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M8" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N8" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O8" s="12" t="s">
         <v>188</v>
@@ -4861,7 +4906,7 @@
         <v>32</v>
       </c>
       <c r="Y8" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z8" s="4" t="s">
         <v>31</v>
@@ -4870,7 +4915,7 @@
         <v>32</v>
       </c>
       <c r="AB8" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC8" s="12" t="s">
         <v>32</v>
@@ -4883,7 +4928,7 @@
         <v>31</v>
       </c>
       <c r="AG8" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AH8" s="4" t="s">
         <v>32</v>
@@ -5123,9 +5168,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:112" customFormat="1" ht="15.75">
+    <row r="9" spans="1:112" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>24</v>
@@ -5138,7 +5183,7 @@
         <v>154</v>
       </c>
       <c r="F9" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>7</v>
@@ -5150,22 +5195,22 @@
         <v>14</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L9" s="45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M9" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N9" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>184</v>
@@ -5217,7 +5262,7 @@
         <v>31</v>
       </c>
       <c r="AG9" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AH9" s="4" t="s">
         <v>32</v>
@@ -5457,9 +5502,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:112" customFormat="1" ht="15.75">
+    <row r="10" spans="1:112" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>24</v>
@@ -5472,10 +5517,10 @@
         <v>154</v>
       </c>
       <c r="F10" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H10" s="55" t="s">
         <v>168</v>
@@ -5484,22 +5529,22 @@
         <v>26</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L10" s="45" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M10" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N10" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="O10" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="O10" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>184</v>
@@ -5529,7 +5574,7 @@
         <v>31</v>
       </c>
       <c r="Y10" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z10" s="4" t="s">
         <v>32</v>
@@ -5538,7 +5583,7 @@
         <v>31</v>
       </c>
       <c r="AB10" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC10" s="12" t="s">
         <v>32</v>
@@ -5789,9 +5834,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:112" customFormat="1" ht="15.75">
+    <row r="11" spans="1:112" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>24</v>
@@ -5804,7 +5849,7 @@
         <v>154</v>
       </c>
       <c r="F11" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>7</v>
@@ -5816,7 +5861,7 @@
         <v>26</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>8</v>
@@ -5828,10 +5873,10 @@
         <v>26</v>
       </c>
       <c r="N11" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="O11" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="O11" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>184</v>
@@ -5861,7 +5906,7 @@
         <v>31</v>
       </c>
       <c r="Y11" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z11" s="4" t="s">
         <v>32</v>
@@ -5870,7 +5915,7 @@
         <v>31</v>
       </c>
       <c r="AB11" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC11" s="12" t="s">
         <v>32</v>
@@ -6121,9 +6166,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="1:112" customFormat="1" ht="15.75">
+    <row r="12" spans="1:112" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>24</v>
@@ -6136,10 +6181,10 @@
         <v>154</v>
       </c>
       <c r="F12" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H12" s="55" t="s">
         <v>168</v>
@@ -6148,19 +6193,19 @@
         <v>14</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L12" s="45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M12" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N12" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O12" s="12" t="s">
         <v>188</v>
@@ -6193,7 +6238,7 @@
         <v>32</v>
       </c>
       <c r="Y12" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z12" s="4" t="s">
         <v>31</v>
@@ -6202,7 +6247,7 @@
         <v>32</v>
       </c>
       <c r="AB12" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC12" s="12" t="s">
         <v>32</v>
@@ -6215,7 +6260,7 @@
         <v>31</v>
       </c>
       <c r="AG12" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AH12" s="4" t="s">
         <v>32</v>
@@ -6455,9 +6500,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:112" customFormat="1" ht="15.75">
+    <row r="13" spans="1:112" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>24</v>
@@ -6470,7 +6515,7 @@
         <v>154</v>
       </c>
       <c r="F13" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>7</v>
@@ -6482,22 +6527,22 @@
         <v>14</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L13" s="45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M13" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N13" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>184</v>
@@ -6527,7 +6572,7 @@
         <v>32</v>
       </c>
       <c r="Y13" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z13" s="4" t="s">
         <v>31</v>
@@ -6536,7 +6581,7 @@
         <v>32</v>
       </c>
       <c r="AB13" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC13" s="12" t="s">
         <v>32</v>
@@ -6549,7 +6594,7 @@
         <v>31</v>
       </c>
       <c r="AG13" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AH13" s="4" t="s">
         <v>32</v>
@@ -6789,9 +6834,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:112" ht="15.75">
+    <row r="14" spans="1:112" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>24</v>
@@ -6804,10 +6849,10 @@
         <v>154</v>
       </c>
       <c r="F14" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H14" s="55" t="s">
         <v>168</v>
@@ -6816,22 +6861,22 @@
         <v>26</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L14" s="45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M14" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N14" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="O14" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="O14" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>184</v>
@@ -6861,7 +6906,7 @@
         <v>31</v>
       </c>
       <c r="Y14" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z14" s="4" t="s">
         <v>32</v>
@@ -6870,7 +6915,7 @@
         <v>31</v>
       </c>
       <c r="AB14" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC14" s="12" t="s">
         <v>32</v>
@@ -7121,9 +7166,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:112" ht="15.75">
+    <row r="15" spans="1:112" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>24</v>
@@ -7136,7 +7181,7 @@
         <v>154</v>
       </c>
       <c r="F15" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>7</v>
@@ -7148,22 +7193,22 @@
         <v>26</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L15" s="45" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M15" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N15" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="O15" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="O15" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>184</v>
@@ -7193,7 +7238,7 @@
         <v>31</v>
       </c>
       <c r="Y15" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z15" s="4" t="s">
         <v>32</v>
@@ -7202,7 +7247,7 @@
         <v>31</v>
       </c>
       <c r="AB15" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC15" s="12" t="s">
         <v>32</v>
@@ -7453,9 +7498,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="1:112" ht="15.75">
+    <row r="16" spans="1:112" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>24</v>
@@ -7468,10 +7513,10 @@
         <v>154</v>
       </c>
       <c r="F16" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H16" s="55" t="s">
         <v>168</v>
@@ -7480,7 +7525,7 @@
         <v>14</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>8</v>
@@ -7492,7 +7537,7 @@
         <v>26</v>
       </c>
       <c r="N16" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O16" s="12" t="s">
         <v>188</v>
@@ -7547,7 +7592,7 @@
         <v>31</v>
       </c>
       <c r="AG16" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AH16" s="4" t="s">
         <v>32</v>
@@ -7787,9 +7832,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="17" spans="1:112" ht="15.75">
+    <row r="17" spans="1:112" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>24</v>
@@ -7802,7 +7847,7 @@
         <v>154</v>
       </c>
       <c r="F17" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>7</v>
@@ -7814,22 +7859,22 @@
         <v>14</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L17" s="45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M17" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N17" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O17" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>184</v>
@@ -7859,7 +7904,7 @@
         <v>32</v>
       </c>
       <c r="Y17" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z17" s="4" t="s">
         <v>31</v>
@@ -7868,7 +7913,7 @@
         <v>32</v>
       </c>
       <c r="AB17" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC17" s="12" t="s">
         <v>32</v>
@@ -7881,7 +7926,7 @@
         <v>31</v>
       </c>
       <c r="AG17" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AH17" s="4" t="s">
         <v>32</v>
@@ -8121,9 +8166,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:112" ht="15.75">
+    <row r="18" spans="1:112" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>24</v>
@@ -8136,40 +8181,40 @@
         <v>154</v>
       </c>
       <c r="F18" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>7</v>
       </c>
       <c r="H18" s="55" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L18" s="45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M18" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N18" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O18" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>184</v>
       </c>
       <c r="Q18" s="38" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R18" s="8" t="s">
         <v>31</v>
@@ -8193,7 +8238,7 @@
         <v>31</v>
       </c>
       <c r="Y18" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z18" s="4" t="s">
         <v>32</v>
@@ -8202,13 +8247,13 @@
         <v>31</v>
       </c>
       <c r="AB18" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AC18" s="12" t="s">
         <v>31</v>
       </c>
       <c r="AD18" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AE18" s="12" t="s">
         <v>32</v>
@@ -8217,7 +8262,7 @@
         <v>31</v>
       </c>
       <c r="AG18" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AH18" s="4" t="s">
         <v>32</v>
@@ -8457,9 +8502,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="19" spans="1:112" ht="15.75">
+    <row r="19" spans="1:112" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>24</v>
@@ -8472,40 +8517,40 @@
         <v>154</v>
       </c>
       <c r="F19" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H19" s="55" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L19" s="45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M19" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N19" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O19" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P19" s="4" t="s">
         <v>184</v>
       </c>
       <c r="Q19" s="38" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="R19" s="8" t="s">
         <v>32</v>
@@ -8529,7 +8574,7 @@
         <v>31</v>
       </c>
       <c r="Y19" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z19" s="4" t="s">
         <v>32</v>
@@ -8538,13 +8583,13 @@
         <v>31</v>
       </c>
       <c r="AB19" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AC19" s="12" t="s">
         <v>31</v>
       </c>
       <c r="AD19" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AE19" s="12" t="s">
         <v>32</v>
@@ -8553,7 +8598,7 @@
         <v>31</v>
       </c>
       <c r="AG19" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AH19" s="4" t="s">
         <v>32</v>
@@ -8793,9 +8838,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="1:112" ht="15.75">
+    <row r="20" spans="1:112" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>24</v>
@@ -8808,34 +8853,34 @@
         <v>154</v>
       </c>
       <c r="F20" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>7</v>
       </c>
       <c r="H20" s="55" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L20" s="45" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M20" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N20" s="44" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>184</v>
@@ -8874,7 +8919,7 @@
         <v>31</v>
       </c>
       <c r="AB20" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AC20" s="12" t="s">
         <v>32</v>
@@ -9127,9 +9172,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:112" ht="15.75">
+    <row r="21" spans="1:112" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>24</v>
@@ -9142,19 +9187,19 @@
         <v>154</v>
       </c>
       <c r="F21" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H21" s="55" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>8</v>
@@ -9166,10 +9211,10 @@
         <v>14</v>
       </c>
       <c r="N21" s="44" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O21" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>184</v>
@@ -9223,7 +9268,7 @@
         <v>31</v>
       </c>
       <c r="AG21" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AH21" s="4" t="s">
         <v>32</v>
@@ -9463,9 +9508,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="1:112" ht="15.75">
+    <row r="22" spans="1:112" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>24</v>
@@ -9478,34 +9523,34 @@
         <v>154</v>
       </c>
       <c r="F22" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>7</v>
       </c>
       <c r="H22" s="55" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L22" s="45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M22" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N22" s="44" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O22" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P22" s="4" t="s">
         <v>184</v>
@@ -9535,16 +9580,16 @@
         <v>32</v>
       </c>
       <c r="Y22" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB22" s="19" t="s">
         <v>255</v>
-      </c>
-      <c r="Z22" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA22" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB22" s="19" t="s">
-        <v>256</v>
       </c>
       <c r="AC22" s="12" t="s">
         <v>32</v>
@@ -9797,9 +9842,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="1:112" ht="15.75">
+    <row r="23" spans="1:112" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>24</v>
@@ -9812,31 +9857,31 @@
         <v>154</v>
       </c>
       <c r="F23" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="H23" s="55" t="s">
+        <v>238</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="H23" s="55" t="s">
-        <v>239</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>202</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L23" s="45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M23" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N23" s="44" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O23" s="12" t="s">
         <v>188</v>
@@ -9869,7 +9914,7 @@
         <v>32</v>
       </c>
       <c r="Y23" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z23" s="4" t="s">
         <v>32</v>
@@ -9878,7 +9923,7 @@
         <v>31</v>
       </c>
       <c r="AB23" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AC23" s="12" t="s">
         <v>32</v>
@@ -10131,9 +10176,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="1:112" ht="15.75">
+    <row r="24" spans="1:112" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>24</v>
@@ -10146,34 +10191,34 @@
         <v>154</v>
       </c>
       <c r="F24" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G24" s="12" t="s">
         <v>7</v>
       </c>
       <c r="H24" s="55" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L24" s="45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M24" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N24" s="44" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O24" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P24" s="4" t="s">
         <v>184</v>
@@ -10203,7 +10248,7 @@
         <v>31</v>
       </c>
       <c r="Y24" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z24" s="4" t="s">
         <v>32</v>
@@ -10212,22 +10257,22 @@
         <v>31</v>
       </c>
       <c r="AB24" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AC24" s="12" t="s">
         <v>31</v>
       </c>
       <c r="AD24" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AE24" s="12" t="s">
         <v>32</v>
       </c>
       <c r="AF24" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AG24" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AH24" s="4" t="s">
         <v>32</v>
@@ -10467,9 +10512,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="1:112" ht="15.75">
+    <row r="25" spans="1:112" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>24</v>
@@ -10482,40 +10527,40 @@
         <v>154</v>
       </c>
       <c r="F25" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H25" s="55" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L25" s="45" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M25" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N25" s="44" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O25" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P25" s="4" t="s">
         <v>184</v>
       </c>
       <c r="Q25" s="38" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="R25" s="8" t="s">
         <v>32</v>
@@ -10539,7 +10584,7 @@
         <v>31</v>
       </c>
       <c r="Y25" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z25" s="4" t="s">
         <v>32</v>
@@ -10548,13 +10593,13 @@
         <v>31</v>
       </c>
       <c r="AB25" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AC25" s="12" t="s">
         <v>31</v>
       </c>
       <c r="AD25" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AE25" s="12" t="s">
         <v>32</v>
@@ -10563,7 +10608,7 @@
         <v>31</v>
       </c>
       <c r="AG25" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AH25" s="4" t="s">
         <v>32</v>
@@ -10803,9 +10848,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="1:112" ht="15.75">
+    <row r="26" spans="1:112" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>24</v>
@@ -10818,7 +10863,7 @@
         <v>154</v>
       </c>
       <c r="F26" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>7</v>
@@ -10830,7 +10875,7 @@
         <v>26</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>8</v>
@@ -10842,16 +10887,16 @@
         <v>14</v>
       </c>
       <c r="N26" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="O26" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="O26" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="P26" s="4" t="s">
         <v>184</v>
       </c>
       <c r="Q26" s="38" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R26" s="8" t="s">
         <v>32</v>
@@ -10875,7 +10920,7 @@
         <v>31</v>
       </c>
       <c r="Y26" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z26" s="4" t="s">
         <v>32</v>
@@ -10884,7 +10929,7 @@
         <v>31</v>
       </c>
       <c r="AB26" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC26" s="12" t="s">
         <v>32</v>
@@ -11137,9 +11182,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:112" ht="15.75">
+    <row r="27" spans="1:112" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>24</v>
@@ -11152,10 +11197,10 @@
         <v>154</v>
       </c>
       <c r="F27" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H27" s="55" t="s">
         <v>168</v>
@@ -11164,19 +11209,19 @@
         <v>14</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L27" s="45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M27" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N27" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O27" s="12" t="s">
         <v>188</v>
@@ -11185,7 +11230,7 @@
         <v>184</v>
       </c>
       <c r="Q27" s="38" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R27" s="8" t="s">
         <v>32</v>
@@ -11209,7 +11254,7 @@
         <v>32</v>
       </c>
       <c r="Y27" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z27" s="4" t="s">
         <v>31</v>
@@ -11218,7 +11263,7 @@
         <v>32</v>
       </c>
       <c r="AB27" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC27" s="12" t="s">
         <v>32</v>
@@ -11233,7 +11278,7 @@
         <v>31</v>
       </c>
       <c r="AG27" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AH27" s="4" t="s">
         <v>32</v>
@@ -11473,9 +11518,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="1:112" ht="15.75">
+    <row r="28" spans="1:112" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>24</v>
@@ -11488,7 +11533,7 @@
         <v>154</v>
       </c>
       <c r="F28" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>7</v>
@@ -11500,28 +11545,28 @@
         <v>14</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K28" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L28" s="45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M28" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N28" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O28" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P28" s="4" t="s">
         <v>184</v>
       </c>
       <c r="Q28" s="38" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="R28" s="8" t="s">
         <v>32</v>
@@ -11545,7 +11590,7 @@
         <v>32</v>
       </c>
       <c r="Y28" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z28" s="4" t="s">
         <v>31</v>
@@ -11554,7 +11599,7 @@
         <v>32</v>
       </c>
       <c r="AB28" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC28" s="12" t="s">
         <v>32</v>
@@ -11569,7 +11614,7 @@
         <v>31</v>
       </c>
       <c r="AG28" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AH28" s="4" t="s">
         <v>32</v>
@@ -11809,9 +11854,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="1:112" ht="15.75">
+    <row r="29" spans="1:112" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>24</v>
@@ -11824,10 +11869,10 @@
         <v>154</v>
       </c>
       <c r="F29" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H29" s="55" t="s">
         <v>168</v>
@@ -11836,28 +11881,28 @@
         <v>26</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L29" s="45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M29" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N29" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="O29" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="O29" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="P29" s="4" t="s">
         <v>184</v>
       </c>
       <c r="Q29" s="38" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="R29" s="8" t="s">
         <v>31</v>
@@ -11881,7 +11926,7 @@
         <v>31</v>
       </c>
       <c r="Y29" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z29" s="4" t="s">
         <v>32</v>
@@ -11890,7 +11935,7 @@
         <v>31</v>
       </c>
       <c r="AB29" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC29" s="12" t="s">
         <v>32</v>
@@ -12143,9 +12188,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="1:112" ht="15.75">
+    <row r="30" spans="1:112" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>24</v>
@@ -12158,7 +12203,7 @@
         <v>154</v>
       </c>
       <c r="F30" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G30" s="12" t="s">
         <v>7</v>
@@ -12170,28 +12215,28 @@
         <v>26</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L30" s="45" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M30" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N30" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="O30" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="O30" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="P30" s="4" t="s">
         <v>184</v>
       </c>
       <c r="Q30" s="38" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="R30" s="8" t="s">
         <v>31</v>
@@ -12215,7 +12260,7 @@
         <v>31</v>
       </c>
       <c r="Y30" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z30" s="4" t="s">
         <v>32</v>
@@ -12224,7 +12269,7 @@
         <v>31</v>
       </c>
       <c r="AB30" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC30" s="12" t="s">
         <v>32</v>
@@ -12477,9 +12522,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="1:112" ht="15.75">
+    <row r="31" spans="1:112" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>24</v>
@@ -12492,10 +12537,10 @@
         <v>154</v>
       </c>
       <c r="F31" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H31" s="55" t="s">
         <v>168</v>
@@ -12504,7 +12549,7 @@
         <v>26</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K31" s="4" t="s">
         <v>8</v>
@@ -12516,10 +12561,10 @@
         <v>26</v>
       </c>
       <c r="N31" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="O31" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="O31" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="P31" s="4" t="s">
         <v>184</v>
@@ -12549,7 +12594,7 @@
         <v>31</v>
       </c>
       <c r="Y31" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z31" s="4" t="s">
         <v>32</v>
@@ -12558,7 +12603,7 @@
         <v>31</v>
       </c>
       <c r="AB31" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC31" s="12" t="s">
         <v>32</v>
@@ -12976,14 +13021,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DI31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AC11" sqref="AC11"/>
+    <sheetView topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="CS7" sqref="CS7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
@@ -13099,7 +13144,7 @@
     <col min="114" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:113" s="16" customFormat="1">
+    <row r="1" spans="1:113" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>18</v>
       </c>
@@ -13197,7 +13242,7 @@
         <v>179</v>
       </c>
       <c r="AG1" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AH1" s="15" t="s">
         <v>180</v>
@@ -13209,7 +13254,7 @@
         <v>185</v>
       </c>
       <c r="AK1" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AL1" s="15" t="s">
         <v>38</v>
@@ -13440,7 +13485,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:113" s="43" customFormat="1" ht="15.75">
+    <row r="2" spans="1:113" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -13455,10 +13500,10 @@
         <v>154</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H2" s="55" t="s">
         <v>168</v>
@@ -13467,22 +13512,22 @@
         <v>26</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L2" s="45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M2" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N2" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="O2" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>184</v>
@@ -13512,7 +13557,7 @@
         <v>31</v>
       </c>
       <c r="Y2" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z2" s="4" t="s">
         <v>32</v>
@@ -13521,7 +13566,7 @@
         <v>31</v>
       </c>
       <c r="AB2" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC2" s="12" t="s">
         <v>32</v>
@@ -13544,7 +13589,7 @@
         <v>32</v>
       </c>
       <c r="AK2" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL2" s="4" t="s">
         <v>39</v>
@@ -13775,9 +13820,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:113" s="43" customFormat="1" ht="15.75">
+    <row r="3" spans="1:113" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>24</v>
@@ -13790,7 +13835,7 @@
         <v>154</v>
       </c>
       <c r="F3" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>7</v>
@@ -13802,22 +13847,22 @@
         <v>26</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L3" s="45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M3" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N3" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="O3" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>184</v>
@@ -13847,7 +13892,7 @@
         <v>31</v>
       </c>
       <c r="Y3" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z3" s="4" t="s">
         <v>32</v>
@@ -13856,7 +13901,7 @@
         <v>31</v>
       </c>
       <c r="AB3" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC3" s="12" t="s">
         <v>32</v>
@@ -13879,7 +13924,7 @@
         <v>32</v>
       </c>
       <c r="AK3" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL3" s="4" t="s">
         <v>39</v>
@@ -14110,9 +14155,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:113" s="43" customFormat="1" ht="15.75">
+    <row r="4" spans="1:113" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>24</v>
@@ -14125,10 +14170,10 @@
         <v>154</v>
       </c>
       <c r="F4" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H4" s="55" t="s">
         <v>168</v>
@@ -14137,19 +14182,19 @@
         <v>14</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L4" s="45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M4" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N4" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O4" s="12" t="s">
         <v>188</v>
@@ -14202,7 +14247,7 @@
         <v>31</v>
       </c>
       <c r="AG4" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AH4" s="4" t="s">
         <v>32</v>
@@ -14214,7 +14259,7 @@
         <v>32</v>
       </c>
       <c r="AK4" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL4" s="4" t="s">
         <v>39</v>
@@ -14445,9 +14490,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:113" s="43" customFormat="1" ht="15.75">
+    <row r="5" spans="1:113" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>24</v>
@@ -14460,7 +14505,7 @@
         <v>154</v>
       </c>
       <c r="F5" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>7</v>
@@ -14472,22 +14517,22 @@
         <v>14</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L5" s="45" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M5" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N5" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>184</v>
@@ -14537,7 +14582,7 @@
         <v>31</v>
       </c>
       <c r="AG5" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AH5" s="4" t="s">
         <v>32</v>
@@ -14549,7 +14594,7 @@
         <v>32</v>
       </c>
       <c r="AK5" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL5" s="4" t="s">
         <v>39</v>
@@ -14780,9 +14825,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:113" s="43" customFormat="1" ht="15.75">
+    <row r="6" spans="1:113" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>24</v>
@@ -14795,10 +14840,10 @@
         <v>154</v>
       </c>
       <c r="F6" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H6" s="55" t="s">
         <v>168</v>
@@ -14807,7 +14852,7 @@
         <v>26</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>8</v>
@@ -14819,10 +14864,10 @@
         <v>14</v>
       </c>
       <c r="N6" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="O6" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="O6" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>184</v>
@@ -14852,7 +14897,7 @@
         <v>31</v>
       </c>
       <c r="Y6" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z6" s="4" t="s">
         <v>32</v>
@@ -14861,7 +14906,7 @@
         <v>31</v>
       </c>
       <c r="AB6" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC6" s="12" t="s">
         <v>32</v>
@@ -14884,7 +14929,7 @@
         <v>32</v>
       </c>
       <c r="AK6" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL6" s="4" t="s">
         <v>39</v>
@@ -15115,9 +15160,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:113" ht="15.75">
+    <row r="7" spans="1:113" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>24</v>
@@ -15130,7 +15175,7 @@
         <v>154</v>
       </c>
       <c r="F7" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>7</v>
@@ -15142,22 +15187,22 @@
         <v>26</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L7" s="45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M7" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N7" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="O7" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="O7" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>184</v>
@@ -15187,7 +15232,7 @@
         <v>31</v>
       </c>
       <c r="Y7" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z7" s="4" t="s">
         <v>32</v>
@@ -15196,7 +15241,7 @@
         <v>31</v>
       </c>
       <c r="AB7" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC7" s="12" t="s">
         <v>32</v>
@@ -15219,7 +15264,7 @@
         <v>32</v>
       </c>
       <c r="AK7" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL7" s="4" t="s">
         <v>39</v>
@@ -15450,9 +15495,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:113" ht="15.75">
+    <row r="8" spans="1:113" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>24</v>
@@ -15465,10 +15510,10 @@
         <v>154</v>
       </c>
       <c r="F8" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H8" s="55" t="s">
         <v>168</v>
@@ -15477,19 +15522,19 @@
         <v>14</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L8" s="45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M8" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N8" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O8" s="12" t="s">
         <v>188</v>
@@ -15522,7 +15567,7 @@
         <v>32</v>
       </c>
       <c r="Y8" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z8" s="4" t="s">
         <v>31</v>
@@ -15542,7 +15587,7 @@
         <v>31</v>
       </c>
       <c r="AG8" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AH8" s="4" t="s">
         <v>32</v>
@@ -15554,7 +15599,7 @@
         <v>32</v>
       </c>
       <c r="AK8" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL8" s="4" t="s">
         <v>39</v>
@@ -15785,9 +15830,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:113" customFormat="1" ht="15.75">
+    <row r="9" spans="1:113" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>24</v>
@@ -15800,7 +15845,7 @@
         <v>154</v>
       </c>
       <c r="F9" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>7</v>
@@ -15812,22 +15857,22 @@
         <v>14</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L9" s="45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M9" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N9" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>184</v>
@@ -15877,7 +15922,7 @@
         <v>31</v>
       </c>
       <c r="AG9" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AH9" s="4" t="s">
         <v>32</v>
@@ -15889,7 +15934,7 @@
         <v>32</v>
       </c>
       <c r="AK9" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL9" s="4" t="s">
         <v>39</v>
@@ -16120,9 +16165,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:113" customFormat="1" ht="15.75">
+    <row r="10" spans="1:113" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>24</v>
@@ -16135,10 +16180,10 @@
         <v>154</v>
       </c>
       <c r="F10" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H10" s="55" t="s">
         <v>168</v>
@@ -16147,22 +16192,22 @@
         <v>26</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L10" s="45" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M10" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N10" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="O10" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="O10" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>184</v>
@@ -16192,7 +16237,7 @@
         <v>31</v>
       </c>
       <c r="Y10" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z10" s="4" t="s">
         <v>32</v>
@@ -16201,7 +16246,7 @@
         <v>31</v>
       </c>
       <c r="AB10" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC10" s="12" t="s">
         <v>32</v>
@@ -16224,7 +16269,7 @@
         <v>32</v>
       </c>
       <c r="AK10" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL10" s="4" t="s">
         <v>39</v>
@@ -16455,9 +16500,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:113" customFormat="1" ht="15.75">
+    <row r="11" spans="1:113" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>24</v>
@@ -16470,7 +16515,7 @@
         <v>154</v>
       </c>
       <c r="F11" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>7</v>
@@ -16482,7 +16527,7 @@
         <v>26</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>8</v>
@@ -16494,10 +16539,10 @@
         <v>26</v>
       </c>
       <c r="N11" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="O11" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="O11" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>184</v>
@@ -16527,7 +16572,7 @@
         <v>31</v>
       </c>
       <c r="Y11" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z11" s="4" t="s">
         <v>32</v>
@@ -16536,7 +16581,7 @@
         <v>31</v>
       </c>
       <c r="AB11" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC11" s="12" t="s">
         <v>32</v>
@@ -16559,7 +16604,7 @@
         <v>32</v>
       </c>
       <c r="AK11" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL11" s="4" t="s">
         <v>39</v>
@@ -16790,9 +16835,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="1:113" customFormat="1" ht="15.75">
+    <row r="12" spans="1:113" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>24</v>
@@ -16805,10 +16850,10 @@
         <v>154</v>
       </c>
       <c r="F12" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H12" s="55" t="s">
         <v>168</v>
@@ -16817,19 +16862,19 @@
         <v>14</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L12" s="45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M12" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N12" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O12" s="12" t="s">
         <v>188</v>
@@ -16862,7 +16907,7 @@
         <v>32</v>
       </c>
       <c r="Y12" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z12" s="4" t="s">
         <v>31</v>
@@ -16882,7 +16927,7 @@
         <v>31</v>
       </c>
       <c r="AG12" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AH12" s="4" t="s">
         <v>32</v>
@@ -16894,7 +16939,7 @@
         <v>32</v>
       </c>
       <c r="AK12" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL12" s="4" t="s">
         <v>39</v>
@@ -17125,9 +17170,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:113" customFormat="1" ht="15.75">
+    <row r="13" spans="1:113" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>24</v>
@@ -17140,7 +17185,7 @@
         <v>154</v>
       </c>
       <c r="F13" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>7</v>
@@ -17152,22 +17197,22 @@
         <v>14</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L13" s="45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M13" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N13" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>184</v>
@@ -17197,7 +17242,7 @@
         <v>32</v>
       </c>
       <c r="Y13" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z13" s="4" t="s">
         <v>31</v>
@@ -17217,7 +17262,7 @@
         <v>31</v>
       </c>
       <c r="AG13" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AH13" s="4" t="s">
         <v>32</v>
@@ -17229,7 +17274,7 @@
         <v>32</v>
       </c>
       <c r="AK13" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL13" s="4" t="s">
         <v>39</v>
@@ -17460,9 +17505,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:113" ht="15.75">
+    <row r="14" spans="1:113" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>24</v>
@@ -17475,10 +17520,10 @@
         <v>154</v>
       </c>
       <c r="F14" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H14" s="55" t="s">
         <v>168</v>
@@ -17487,22 +17532,22 @@
         <v>26</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L14" s="45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M14" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N14" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="O14" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="O14" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>184</v>
@@ -17532,7 +17577,7 @@
         <v>31</v>
       </c>
       <c r="Y14" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z14" s="4" t="s">
         <v>32</v>
@@ -17541,7 +17586,7 @@
         <v>31</v>
       </c>
       <c r="AB14" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC14" s="12" t="s">
         <v>32</v>
@@ -17564,7 +17609,7 @@
         <v>32</v>
       </c>
       <c r="AK14" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL14" s="4" t="s">
         <v>39</v>
@@ -17795,9 +17840,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:113" ht="15.75">
+    <row r="15" spans="1:113" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>24</v>
@@ -17810,7 +17855,7 @@
         <v>154</v>
       </c>
       <c r="F15" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>7</v>
@@ -17822,22 +17867,22 @@
         <v>26</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L15" s="45" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M15" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N15" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="O15" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="O15" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>184</v>
@@ -17867,7 +17912,7 @@
         <v>31</v>
       </c>
       <c r="Y15" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z15" s="4" t="s">
         <v>32</v>
@@ -17876,7 +17921,7 @@
         <v>31</v>
       </c>
       <c r="AB15" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC15" s="12" t="s">
         <v>32</v>
@@ -17899,7 +17944,7 @@
         <v>32</v>
       </c>
       <c r="AK15" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL15" s="4" t="s">
         <v>39</v>
@@ -18130,9 +18175,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="1:113" ht="15.75">
+    <row r="16" spans="1:113" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>24</v>
@@ -18145,10 +18190,10 @@
         <v>154</v>
       </c>
       <c r="F16" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H16" s="55" t="s">
         <v>168</v>
@@ -18157,7 +18202,7 @@
         <v>14</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>8</v>
@@ -18169,7 +18214,7 @@
         <v>26</v>
       </c>
       <c r="N16" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O16" s="12" t="s">
         <v>188</v>
@@ -18222,7 +18267,7 @@
         <v>31</v>
       </c>
       <c r="AG16" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AH16" s="4" t="s">
         <v>32</v>
@@ -18234,7 +18279,7 @@
         <v>32</v>
       </c>
       <c r="AK16" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL16" s="4" t="s">
         <v>39</v>
@@ -18465,9 +18510,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="17" spans="1:113" ht="15.75">
+    <row r="17" spans="1:113" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>24</v>
@@ -18480,7 +18525,7 @@
         <v>154</v>
       </c>
       <c r="F17" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>7</v>
@@ -18492,22 +18537,22 @@
         <v>14</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L17" s="45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M17" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N17" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O17" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>184</v>
@@ -18537,7 +18582,7 @@
         <v>32</v>
       </c>
       <c r="Y17" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z17" s="4" t="s">
         <v>31</v>
@@ -18557,7 +18602,7 @@
         <v>31</v>
       </c>
       <c r="AG17" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AH17" s="4" t="s">
         <v>32</v>
@@ -18569,7 +18614,7 @@
         <v>32</v>
       </c>
       <c r="AK17" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL17" s="4" t="s">
         <v>39</v>
@@ -18800,9 +18845,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:113" ht="15.75">
+    <row r="18" spans="1:113" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>24</v>
@@ -18815,40 +18860,40 @@
         <v>154</v>
       </c>
       <c r="F18" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>7</v>
       </c>
       <c r="H18" s="55" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L18" s="45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M18" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N18" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O18" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>184</v>
       </c>
       <c r="Q18" s="38" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R18" s="8" t="s">
         <v>31</v>
@@ -18872,7 +18917,7 @@
         <v>31</v>
       </c>
       <c r="Y18" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z18" s="4" t="s">
         <v>32</v>
@@ -18881,13 +18926,13 @@
         <v>31</v>
       </c>
       <c r="AB18" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AC18" s="12" t="s">
         <v>31</v>
       </c>
       <c r="AD18" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AE18" s="12" t="s">
         <v>32</v>
@@ -18896,7 +18941,7 @@
         <v>31</v>
       </c>
       <c r="AG18" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AH18" s="4" t="s">
         <v>32</v>
@@ -18908,7 +18953,7 @@
         <v>32</v>
       </c>
       <c r="AK18" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL18" s="4" t="s">
         <v>39</v>
@@ -19139,9 +19184,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="19" spans="1:113" ht="15.75">
+    <row r="19" spans="1:113" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>24</v>
@@ -19154,40 +19199,40 @@
         <v>154</v>
       </c>
       <c r="F19" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H19" s="55" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L19" s="45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M19" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N19" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O19" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P19" s="4" t="s">
         <v>184</v>
       </c>
       <c r="Q19" s="38" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="R19" s="8" t="s">
         <v>32</v>
@@ -19211,7 +19256,7 @@
         <v>31</v>
       </c>
       <c r="Y19" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z19" s="4" t="s">
         <v>32</v>
@@ -19220,13 +19265,13 @@
         <v>31</v>
       </c>
       <c r="AB19" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AC19" s="12" t="s">
         <v>31</v>
       </c>
       <c r="AD19" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AE19" s="12" t="s">
         <v>32</v>
@@ -19235,7 +19280,7 @@
         <v>31</v>
       </c>
       <c r="AG19" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AH19" s="4" t="s">
         <v>32</v>
@@ -19247,7 +19292,7 @@
         <v>32</v>
       </c>
       <c r="AK19" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL19" s="4" t="s">
         <v>39</v>
@@ -19478,9 +19523,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="1:113" ht="15.75">
+    <row r="20" spans="1:113" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>24</v>
@@ -19493,34 +19538,34 @@
         <v>154</v>
       </c>
       <c r="F20" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>7</v>
       </c>
       <c r="H20" s="55" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L20" s="45" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M20" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N20" s="44" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>184</v>
@@ -19559,7 +19604,7 @@
         <v>31</v>
       </c>
       <c r="AB20" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AC20" s="12" t="s">
         <v>32</v>
@@ -19582,7 +19627,7 @@
         <v>32</v>
       </c>
       <c r="AK20" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL20" s="4" t="s">
         <v>39</v>
@@ -19813,9 +19858,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:113" ht="15.75">
+    <row r="21" spans="1:113" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>24</v>
@@ -19828,19 +19873,19 @@
         <v>154</v>
       </c>
       <c r="F21" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H21" s="55" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>8</v>
@@ -19852,10 +19897,10 @@
         <v>14</v>
       </c>
       <c r="N21" s="44" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O21" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>184</v>
@@ -19905,7 +19950,7 @@
         <v>31</v>
       </c>
       <c r="AG21" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AH21" s="4" t="s">
         <v>32</v>
@@ -19917,7 +19962,7 @@
         <v>32</v>
       </c>
       <c r="AK21" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL21" s="4" t="s">
         <v>39</v>
@@ -20148,9 +20193,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="1:113" ht="15.75">
+    <row r="22" spans="1:113" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>24</v>
@@ -20163,34 +20208,34 @@
         <v>154</v>
       </c>
       <c r="F22" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>7</v>
       </c>
       <c r="H22" s="55" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L22" s="45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M22" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N22" s="44" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O22" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P22" s="4" t="s">
         <v>184</v>
@@ -20220,7 +20265,7 @@
         <v>32</v>
       </c>
       <c r="Y22" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z22" s="4" t="s">
         <v>32</v>
@@ -20250,7 +20295,7 @@
         <v>32</v>
       </c>
       <c r="AK22" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL22" s="4" t="s">
         <v>39</v>
@@ -20481,9 +20526,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="1:113" ht="15.75">
+    <row r="23" spans="1:113" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>24</v>
@@ -20496,31 +20541,31 @@
         <v>154</v>
       </c>
       <c r="F23" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="H23" s="55" t="s">
+        <v>238</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="H23" s="55" t="s">
-        <v>239</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>202</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L23" s="45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M23" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N23" s="44" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O23" s="12" t="s">
         <v>188</v>
@@ -20553,7 +20598,7 @@
         <v>32</v>
       </c>
       <c r="Y23" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z23" s="4" t="s">
         <v>32</v>
@@ -20562,7 +20607,7 @@
         <v>31</v>
       </c>
       <c r="AB23" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AC23" s="12" t="s">
         <v>32</v>
@@ -20585,7 +20630,7 @@
         <v>32</v>
       </c>
       <c r="AK23" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL23" s="4" t="s">
         <v>39</v>
@@ -20816,9 +20861,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="1:113" ht="15.75">
+    <row r="24" spans="1:113" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>24</v>
@@ -20831,34 +20876,34 @@
         <v>154</v>
       </c>
       <c r="F24" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G24" s="12" t="s">
         <v>7</v>
       </c>
       <c r="H24" s="55" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L24" s="45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M24" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N24" s="44" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O24" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P24" s="4" t="s">
         <v>184</v>
@@ -20888,7 +20933,7 @@
         <v>31</v>
       </c>
       <c r="Y24" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z24" s="4" t="s">
         <v>32</v>
@@ -20897,22 +20942,22 @@
         <v>31</v>
       </c>
       <c r="AB24" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AC24" s="12" t="s">
         <v>31</v>
       </c>
       <c r="AD24" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AE24" s="12" t="s">
         <v>32</v>
       </c>
       <c r="AF24" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AG24" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AH24" s="4" t="s">
         <v>32</v>
@@ -20924,7 +20969,7 @@
         <v>32</v>
       </c>
       <c r="AK24" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL24" s="4" t="s">
         <v>39</v>
@@ -21155,9 +21200,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="1:113" ht="15.75">
+    <row r="25" spans="1:113" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>24</v>
@@ -21170,40 +21215,40 @@
         <v>154</v>
       </c>
       <c r="F25" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H25" s="55" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L25" s="45" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M25" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N25" s="44" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O25" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P25" s="4" t="s">
         <v>184</v>
       </c>
       <c r="Q25" s="38" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="R25" s="8" t="s">
         <v>32</v>
@@ -21227,7 +21272,7 @@
         <v>31</v>
       </c>
       <c r="Y25" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z25" s="4" t="s">
         <v>32</v>
@@ -21236,13 +21281,13 @@
         <v>31</v>
       </c>
       <c r="AB25" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AC25" s="12" t="s">
         <v>31</v>
       </c>
       <c r="AD25" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AE25" s="12" t="s">
         <v>32</v>
@@ -21251,7 +21296,7 @@
         <v>31</v>
       </c>
       <c r="AG25" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AH25" s="4" t="s">
         <v>32</v>
@@ -21263,7 +21308,7 @@
         <v>32</v>
       </c>
       <c r="AK25" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL25" s="4" t="s">
         <v>39</v>
@@ -21494,9 +21539,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="1:113" ht="15.75">
+    <row r="26" spans="1:113" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>24</v>
@@ -21509,7 +21554,7 @@
         <v>154</v>
       </c>
       <c r="F26" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>7</v>
@@ -21521,7 +21566,7 @@
         <v>26</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>8</v>
@@ -21533,16 +21578,16 @@
         <v>14</v>
       </c>
       <c r="N26" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="O26" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="O26" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="P26" s="4" t="s">
         <v>184</v>
       </c>
       <c r="Q26" s="38" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R26" s="8" t="s">
         <v>32</v>
@@ -21566,7 +21611,7 @@
         <v>31</v>
       </c>
       <c r="Y26" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z26" s="4" t="s">
         <v>32</v>
@@ -21575,7 +21620,7 @@
         <v>31</v>
       </c>
       <c r="AB26" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC26" s="12" t="s">
         <v>32</v>
@@ -21598,7 +21643,7 @@
         <v>32</v>
       </c>
       <c r="AK26" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL26" s="4" t="s">
         <v>39</v>
@@ -21829,9 +21874,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:113" ht="15.75">
+    <row r="27" spans="1:113" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>24</v>
@@ -21844,10 +21889,10 @@
         <v>154</v>
       </c>
       <c r="F27" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H27" s="55" t="s">
         <v>168</v>
@@ -21856,19 +21901,19 @@
         <v>14</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L27" s="45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M27" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N27" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O27" s="12" t="s">
         <v>188</v>
@@ -21877,7 +21922,7 @@
         <v>184</v>
       </c>
       <c r="Q27" s="38" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R27" s="8" t="s">
         <v>32</v>
@@ -21901,7 +21946,7 @@
         <v>32</v>
       </c>
       <c r="Y27" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z27" s="4" t="s">
         <v>31</v>
@@ -21921,7 +21966,7 @@
         <v>31</v>
       </c>
       <c r="AG27" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AH27" s="4" t="s">
         <v>32</v>
@@ -21933,7 +21978,7 @@
         <v>32</v>
       </c>
       <c r="AK27" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL27" s="4" t="s">
         <v>39</v>
@@ -22164,9 +22209,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="1:113" ht="15.75">
+    <row r="28" spans="1:113" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>24</v>
@@ -22179,7 +22224,7 @@
         <v>154</v>
       </c>
       <c r="F28" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>7</v>
@@ -22191,28 +22236,28 @@
         <v>14</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K28" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L28" s="45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M28" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N28" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O28" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P28" s="4" t="s">
         <v>184</v>
       </c>
       <c r="Q28" s="38" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="R28" s="8" t="s">
         <v>32</v>
@@ -22236,7 +22281,7 @@
         <v>32</v>
       </c>
       <c r="Y28" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z28" s="4" t="s">
         <v>31</v>
@@ -22256,7 +22301,7 @@
         <v>31</v>
       </c>
       <c r="AG28" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AH28" s="4" t="s">
         <v>32</v>
@@ -22268,7 +22313,7 @@
         <v>32</v>
       </c>
       <c r="AK28" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL28" s="4" t="s">
         <v>39</v>
@@ -22499,9 +22544,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="1:113" ht="15.75">
+    <row r="29" spans="1:113" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>24</v>
@@ -22514,10 +22559,10 @@
         <v>154</v>
       </c>
       <c r="F29" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H29" s="55" t="s">
         <v>168</v>
@@ -22526,28 +22571,28 @@
         <v>26</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L29" s="45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M29" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N29" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="O29" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="O29" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="P29" s="4" t="s">
         <v>184</v>
       </c>
       <c r="Q29" s="38" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="R29" s="8" t="s">
         <v>31</v>
@@ -22571,7 +22616,7 @@
         <v>31</v>
       </c>
       <c r="Y29" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z29" s="4" t="s">
         <v>32</v>
@@ -22580,7 +22625,7 @@
         <v>31</v>
       </c>
       <c r="AB29" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC29" s="12" t="s">
         <v>32</v>
@@ -22603,7 +22648,7 @@
         <v>32</v>
       </c>
       <c r="AK29" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL29" s="4" t="s">
         <v>39</v>
@@ -22834,9 +22879,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="1:113" ht="15.75">
+    <row r="30" spans="1:113" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>24</v>
@@ -22849,7 +22894,7 @@
         <v>154</v>
       </c>
       <c r="F30" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G30" s="12" t="s">
         <v>7</v>
@@ -22861,28 +22906,28 @@
         <v>26</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L30" s="45" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M30" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N30" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="O30" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="O30" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="P30" s="4" t="s">
         <v>184</v>
       </c>
       <c r="Q30" s="38" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="R30" s="8" t="s">
         <v>31</v>
@@ -22906,7 +22951,7 @@
         <v>31</v>
       </c>
       <c r="Y30" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z30" s="4" t="s">
         <v>32</v>
@@ -22915,7 +22960,7 @@
         <v>31</v>
       </c>
       <c r="AB30" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC30" s="12" t="s">
         <v>32</v>
@@ -22938,7 +22983,7 @@
         <v>32</v>
       </c>
       <c r="AK30" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL30" s="4" t="s">
         <v>39</v>
@@ -23169,9 +23214,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="1:113" ht="15.75">
+    <row r="31" spans="1:113" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>24</v>
@@ -23184,10 +23229,10 @@
         <v>154</v>
       </c>
       <c r="F31" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H31" s="55" t="s">
         <v>168</v>
@@ -23196,7 +23241,7 @@
         <v>26</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K31" s="4" t="s">
         <v>8</v>
@@ -23208,10 +23253,10 @@
         <v>26</v>
       </c>
       <c r="N31" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="O31" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="O31" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="P31" s="4" t="s">
         <v>184</v>
@@ -23241,7 +23286,7 @@
         <v>31</v>
       </c>
       <c r="Y31" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z31" s="4" t="s">
         <v>32</v>
@@ -23250,7 +23295,7 @@
         <v>31</v>
       </c>
       <c r="AB31" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC31" s="12" t="s">
         <v>32</v>
@@ -23273,7 +23318,7 @@
         <v>32</v>
       </c>
       <c r="AK31" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL31" s="4" t="s">
         <v>39</v>
@@ -23669,14 +23714,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -23685,19 +23730,18 @@
     <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" style="54" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="53" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="53" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" style="53" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" style="62" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="49" customFormat="1">
+    <row r="1" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>18</v>
       </c>
@@ -23716,17 +23760,35 @@
       <c r="F1" s="47" t="s">
         <v>193</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="57" t="s">
         <v>15</v>
       </c>
       <c r="H1" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="I1" s="47" t="s">
-        <v>37</v>
+      <c r="I1" s="57" t="s">
+        <v>265</v>
+      </c>
+      <c r="J1" s="57" t="s">
+        <v>266</v>
+      </c>
+      <c r="K1" s="60" t="s">
+        <v>267</v>
+      </c>
+      <c r="L1" s="61" t="s">
+        <v>268</v>
+      </c>
+      <c r="M1" s="61" t="s">
+        <v>269</v>
+      </c>
+      <c r="N1" s="61" t="s">
+        <v>271</v>
+      </c>
+      <c r="O1" s="63" t="s">
+        <v>272</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="53" customFormat="1">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>195</v>
       </c>
@@ -23743,19 +23805,57 @@
         <v>197</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="52" t="s">
         <v>198</v>
       </c>
-      <c r="H2" s="52" t="s">
-        <v>199</v>
-      </c>
-      <c r="I2" s="18">
-        <v>431003</v>
+      <c r="I2" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="58" t="s">
+        <v>250</v>
+      </c>
+      <c r="K2" s="59">
+        <v>560000</v>
+      </c>
+      <c r="L2" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" t="s">
+        <v>270</v>
+      </c>
+      <c r="N2" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="62" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="6">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
+      <formula1>"Female,Male"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576">
+      <formula1>"Diploma,Graduate,Post graduate &amp; above"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576">
+      <formula1>"Salaried,Self Employed"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M2:M1048576">
+      <formula1>"Self,Spouse,Child,Grandchild"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576">
+      <formula1>"Male,Female,Transgender"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
   </hyperlinks>

--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6955" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6974" uniqueCount="286">
   <si>
     <t>First_Name</t>
   </si>
@@ -609,9 +609,6 @@
     <t>DOB</t>
   </si>
   <si>
-    <t>TC001</t>
-  </si>
-  <si>
     <t>Digambar</t>
   </si>
   <si>
@@ -829,6 +826,60 @@
   </si>
   <si>
     <t>Employee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invest_For </t>
+  </si>
+  <si>
+    <t>Invest_For_Gender</t>
+  </si>
+  <si>
+    <t>Gender_DOB</t>
+  </si>
+  <si>
+    <t>28/09/1999</t>
+  </si>
+  <si>
+    <t>Gender_Education</t>
+  </si>
+  <si>
+    <t>Diploma</t>
+  </si>
+  <si>
+    <t>Gender_Ocupation</t>
+  </si>
+  <si>
+    <t>Gender_Annual_Income</t>
+  </si>
+  <si>
+    <t>565656</t>
+  </si>
+  <si>
+    <t>Grandchild</t>
+  </si>
+  <si>
+    <t>PPF</t>
+  </si>
+  <si>
+    <t>Half_Yearly</t>
+  </si>
+  <si>
+    <t>Amount_Invest</t>
+  </si>
+  <si>
+    <t>TC_001</t>
+  </si>
+  <si>
+    <t>PPT</t>
+  </si>
+  <si>
+    <t>5 Years</t>
+  </si>
+  <si>
+    <t>Benefit_Type</t>
+  </si>
+  <si>
+    <t>Regular Income</t>
   </si>
 </sst>
 </file>
@@ -944,7 +995,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -980,6 +1031,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -989,7 +1060,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1164,10 +1235,28 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1444,7 +1533,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1680,7 +1769,7 @@
         <v>185</v>
       </c>
       <c r="AJ1" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AK1" s="15" t="s">
         <v>38</v>
@@ -1913,7 +2002,7 @@
     </row>
     <row r="2" spans="1:112" s="43" customFormat="1" ht="17.25">
       <c r="A2" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>24</v>
@@ -1923,13 +2012,13 @@
         <v>30</v>
       </c>
       <c r="E2" s="56" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H2" s="55" t="s">
         <v>168</v>
@@ -1938,22 +2027,22 @@
         <v>14</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L2" s="45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M2" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N2" s="44" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>184</v>
@@ -1992,7 +2081,7 @@
         <v>31</v>
       </c>
       <c r="AB2" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AC2" s="12" t="s">
         <v>32</v>
@@ -2016,7 +2105,7 @@
         <v>32</v>
       </c>
       <c r="AJ2" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AK2" s="4" t="s">
         <v>39</v>
@@ -2124,7 +2213,7 @@
         <v>164</v>
       </c>
       <c r="BT2" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="BU2" s="19" t="s">
         <v>40</v>
@@ -2574,7 +2663,7 @@
         <v>179</v>
       </c>
       <c r="AG1" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AH1" s="15" t="s">
         <v>180</v>
@@ -2829,10 +2918,10 @@
         <v>154</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H2" s="55" t="s">
         <v>168</v>
@@ -2841,22 +2930,22 @@
         <v>26</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L2" s="45" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M2" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N2" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="O2" s="12" t="s">
         <v>203</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>204</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>184</v>
@@ -2886,7 +2975,7 @@
         <v>31</v>
       </c>
       <c r="Y2" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z2" s="4" t="s">
         <v>32</v>
@@ -2895,7 +2984,7 @@
         <v>31</v>
       </c>
       <c r="AB2" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AC2" s="12" t="s">
         <v>32</v>
@@ -3148,7 +3237,7 @@
     </row>
     <row r="3" spans="1:112" s="43" customFormat="1" ht="15.75">
       <c r="A3" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>24</v>
@@ -3161,7 +3250,7 @@
         <v>154</v>
       </c>
       <c r="F3" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>7</v>
@@ -3173,22 +3262,22 @@
         <v>26</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L3" s="45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M3" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N3" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="O3" s="12" t="s">
         <v>203</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>204</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>184</v>
@@ -3218,7 +3307,7 @@
         <v>31</v>
       </c>
       <c r="Y3" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z3" s="4" t="s">
         <v>32</v>
@@ -3227,7 +3316,7 @@
         <v>31</v>
       </c>
       <c r="AB3" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AC3" s="12" t="s">
         <v>32</v>
@@ -3480,7 +3569,7 @@
     </row>
     <row r="4" spans="1:112" s="43" customFormat="1" ht="15.75">
       <c r="A4" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>24</v>
@@ -3493,10 +3582,10 @@
         <v>154</v>
       </c>
       <c r="F4" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H4" s="55" t="s">
         <v>168</v>
@@ -3505,19 +3594,19 @@
         <v>14</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L4" s="45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M4" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N4" s="44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O4" s="12" t="s">
         <v>188</v>
@@ -3572,7 +3661,7 @@
         <v>31</v>
       </c>
       <c r="AG4" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AH4" s="4" t="s">
         <v>32</v>
@@ -3814,7 +3903,7 @@
     </row>
     <row r="5" spans="1:112" s="43" customFormat="1" ht="15.75">
       <c r="A5" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>24</v>
@@ -3827,7 +3916,7 @@
         <v>154</v>
       </c>
       <c r="F5" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>7</v>
@@ -3839,22 +3928,22 @@
         <v>14</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L5" s="45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M5" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N5" s="44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>184</v>
@@ -3906,7 +3995,7 @@
         <v>31</v>
       </c>
       <c r="AG5" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AH5" s="4" t="s">
         <v>32</v>
@@ -4148,7 +4237,7 @@
     </row>
     <row r="6" spans="1:112" s="43" customFormat="1" ht="15.75">
       <c r="A6" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>24</v>
@@ -4161,10 +4250,10 @@
         <v>154</v>
       </c>
       <c r="F6" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H6" s="55" t="s">
         <v>168</v>
@@ -4173,7 +4262,7 @@
         <v>26</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>8</v>
@@ -4185,10 +4274,10 @@
         <v>14</v>
       </c>
       <c r="N6" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="O6" s="12" t="s">
         <v>203</v>
-      </c>
-      <c r="O6" s="12" t="s">
-        <v>204</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>184</v>
@@ -4218,7 +4307,7 @@
         <v>31</v>
       </c>
       <c r="Y6" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z6" s="4" t="s">
         <v>32</v>
@@ -4227,7 +4316,7 @@
         <v>31</v>
       </c>
       <c r="AB6" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AC6" s="12" t="s">
         <v>32</v>
@@ -4480,7 +4569,7 @@
     </row>
     <row r="7" spans="1:112" ht="15.75">
       <c r="A7" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>24</v>
@@ -4493,7 +4582,7 @@
         <v>154</v>
       </c>
       <c r="F7" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>7</v>
@@ -4505,22 +4594,22 @@
         <v>26</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L7" s="45" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M7" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N7" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="O7" s="12" t="s">
         <v>203</v>
-      </c>
-      <c r="O7" s="12" t="s">
-        <v>204</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>184</v>
@@ -4550,7 +4639,7 @@
         <v>31</v>
       </c>
       <c r="Y7" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z7" s="4" t="s">
         <v>32</v>
@@ -4559,7 +4648,7 @@
         <v>31</v>
       </c>
       <c r="AB7" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AC7" s="12" t="s">
         <v>32</v>
@@ -4812,7 +4901,7 @@
     </row>
     <row r="8" spans="1:112" ht="15.75">
       <c r="A8" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>24</v>
@@ -4825,10 +4914,10 @@
         <v>154</v>
       </c>
       <c r="F8" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H8" s="55" t="s">
         <v>168</v>
@@ -4837,19 +4926,19 @@
         <v>14</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L8" s="45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M8" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N8" s="44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O8" s="12" t="s">
         <v>188</v>
@@ -4882,7 +4971,7 @@
         <v>32</v>
       </c>
       <c r="Y8" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z8" s="4" t="s">
         <v>31</v>
@@ -4891,7 +4980,7 @@
         <v>32</v>
       </c>
       <c r="AB8" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AC8" s="12" t="s">
         <v>32</v>
@@ -4904,7 +4993,7 @@
         <v>31</v>
       </c>
       <c r="AG8" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AH8" s="4" t="s">
         <v>32</v>
@@ -5146,7 +5235,7 @@
     </row>
     <row r="9" spans="1:112" customFormat="1" ht="15.75">
       <c r="A9" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>24</v>
@@ -5159,7 +5248,7 @@
         <v>154</v>
       </c>
       <c r="F9" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>7</v>
@@ -5171,22 +5260,22 @@
         <v>14</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L9" s="45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M9" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N9" s="44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>184</v>
@@ -5238,7 +5327,7 @@
         <v>31</v>
       </c>
       <c r="AG9" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AH9" s="4" t="s">
         <v>32</v>
@@ -5480,7 +5569,7 @@
     </row>
     <row r="10" spans="1:112" customFormat="1" ht="15.75">
       <c r="A10" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>24</v>
@@ -5493,10 +5582,10 @@
         <v>154</v>
       </c>
       <c r="F10" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H10" s="55" t="s">
         <v>168</v>
@@ -5505,22 +5594,22 @@
         <v>26</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L10" s="45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M10" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N10" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="O10" s="12" t="s">
         <v>203</v>
-      </c>
-      <c r="O10" s="12" t="s">
-        <v>204</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>184</v>
@@ -5550,7 +5639,7 @@
         <v>31</v>
       </c>
       <c r="Y10" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z10" s="4" t="s">
         <v>32</v>
@@ -5559,7 +5648,7 @@
         <v>31</v>
       </c>
       <c r="AB10" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AC10" s="12" t="s">
         <v>32</v>
@@ -5812,7 +5901,7 @@
     </row>
     <row r="11" spans="1:112" customFormat="1" ht="15.75">
       <c r="A11" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>24</v>
@@ -5825,7 +5914,7 @@
         <v>154</v>
       </c>
       <c r="F11" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>7</v>
@@ -5837,7 +5926,7 @@
         <v>26</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>8</v>
@@ -5849,10 +5938,10 @@
         <v>26</v>
       </c>
       <c r="N11" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="O11" s="12" t="s">
         <v>203</v>
-      </c>
-      <c r="O11" s="12" t="s">
-        <v>204</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>184</v>
@@ -5882,7 +5971,7 @@
         <v>31</v>
       </c>
       <c r="Y11" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z11" s="4" t="s">
         <v>32</v>
@@ -5891,7 +5980,7 @@
         <v>31</v>
       </c>
       <c r="AB11" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AC11" s="12" t="s">
         <v>32</v>
@@ -6144,7 +6233,7 @@
     </row>
     <row r="12" spans="1:112" customFormat="1" ht="15.75">
       <c r="A12" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>24</v>
@@ -6157,10 +6246,10 @@
         <v>154</v>
       </c>
       <c r="F12" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H12" s="55" t="s">
         <v>168</v>
@@ -6169,19 +6258,19 @@
         <v>14</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L12" s="45" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M12" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N12" s="44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O12" s="12" t="s">
         <v>188</v>
@@ -6214,7 +6303,7 @@
         <v>32</v>
       </c>
       <c r="Y12" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z12" s="4" t="s">
         <v>31</v>
@@ -6223,7 +6312,7 @@
         <v>32</v>
       </c>
       <c r="AB12" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AC12" s="12" t="s">
         <v>32</v>
@@ -6236,7 +6325,7 @@
         <v>31</v>
       </c>
       <c r="AG12" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AH12" s="4" t="s">
         <v>32</v>
@@ -6478,7 +6567,7 @@
     </row>
     <row r="13" spans="1:112" customFormat="1" ht="15.75">
       <c r="A13" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>24</v>
@@ -6491,7 +6580,7 @@
         <v>154</v>
       </c>
       <c r="F13" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>7</v>
@@ -6503,22 +6592,22 @@
         <v>14</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L13" s="45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M13" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N13" s="44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>184</v>
@@ -6548,7 +6637,7 @@
         <v>32</v>
       </c>
       <c r="Y13" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z13" s="4" t="s">
         <v>31</v>
@@ -6557,7 +6646,7 @@
         <v>32</v>
       </c>
       <c r="AB13" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AC13" s="12" t="s">
         <v>32</v>
@@ -6570,7 +6659,7 @@
         <v>31</v>
       </c>
       <c r="AG13" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AH13" s="4" t="s">
         <v>32</v>
@@ -6812,7 +6901,7 @@
     </row>
     <row r="14" spans="1:112" ht="15.75">
       <c r="A14" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>24</v>
@@ -6825,10 +6914,10 @@
         <v>154</v>
       </c>
       <c r="F14" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H14" s="55" t="s">
         <v>168</v>
@@ -6837,22 +6926,22 @@
         <v>26</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L14" s="45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M14" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N14" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="O14" s="12" t="s">
         <v>203</v>
-      </c>
-      <c r="O14" s="12" t="s">
-        <v>204</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>184</v>
@@ -6882,7 +6971,7 @@
         <v>31</v>
       </c>
       <c r="Y14" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z14" s="4" t="s">
         <v>32</v>
@@ -6891,7 +6980,7 @@
         <v>31</v>
       </c>
       <c r="AB14" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AC14" s="12" t="s">
         <v>32</v>
@@ -7144,7 +7233,7 @@
     </row>
     <row r="15" spans="1:112" ht="15.75">
       <c r="A15" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>24</v>
@@ -7157,7 +7246,7 @@
         <v>154</v>
       </c>
       <c r="F15" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>7</v>
@@ -7169,22 +7258,22 @@
         <v>26</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L15" s="45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M15" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N15" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="O15" s="12" t="s">
         <v>203</v>
-      </c>
-      <c r="O15" s="12" t="s">
-        <v>204</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>184</v>
@@ -7214,7 +7303,7 @@
         <v>31</v>
       </c>
       <c r="Y15" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z15" s="4" t="s">
         <v>32</v>
@@ -7223,7 +7312,7 @@
         <v>31</v>
       </c>
       <c r="AB15" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AC15" s="12" t="s">
         <v>32</v>
@@ -7476,7 +7565,7 @@
     </row>
     <row r="16" spans="1:112" ht="15.75">
       <c r="A16" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>24</v>
@@ -7489,10 +7578,10 @@
         <v>154</v>
       </c>
       <c r="F16" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H16" s="55" t="s">
         <v>168</v>
@@ -7501,7 +7590,7 @@
         <v>14</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>8</v>
@@ -7513,7 +7602,7 @@
         <v>26</v>
       </c>
       <c r="N16" s="44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O16" s="12" t="s">
         <v>188</v>
@@ -7568,7 +7657,7 @@
         <v>31</v>
       </c>
       <c r="AG16" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AH16" s="4" t="s">
         <v>32</v>
@@ -7810,7 +7899,7 @@
     </row>
     <row r="17" spans="1:112" ht="15.75">
       <c r="A17" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>24</v>
@@ -7823,7 +7912,7 @@
         <v>154</v>
       </c>
       <c r="F17" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>7</v>
@@ -7835,22 +7924,22 @@
         <v>14</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L17" s="45" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M17" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N17" s="44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O17" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>184</v>
@@ -7880,7 +7969,7 @@
         <v>32</v>
       </c>
       <c r="Y17" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z17" s="4" t="s">
         <v>31</v>
@@ -7889,7 +7978,7 @@
         <v>32</v>
       </c>
       <c r="AB17" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AC17" s="12" t="s">
         <v>32</v>
@@ -7902,7 +7991,7 @@
         <v>31</v>
       </c>
       <c r="AG17" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AH17" s="4" t="s">
         <v>32</v>
@@ -8144,7 +8233,7 @@
     </row>
     <row r="18" spans="1:112" ht="15.75">
       <c r="A18" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>24</v>
@@ -8157,40 +8246,40 @@
         <v>154</v>
       </c>
       <c r="F18" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>7</v>
       </c>
       <c r="H18" s="55" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L18" s="45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M18" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N18" s="44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O18" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>184</v>
       </c>
       <c r="Q18" s="38" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="R18" s="8" t="s">
         <v>31</v>
@@ -8214,7 +8303,7 @@
         <v>31</v>
       </c>
       <c r="Y18" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z18" s="4" t="s">
         <v>32</v>
@@ -8223,13 +8312,13 @@
         <v>31</v>
       </c>
       <c r="AB18" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC18" s="12" t="s">
         <v>31</v>
       </c>
       <c r="AD18" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AE18" s="12" t="s">
         <v>32</v>
@@ -8238,7 +8327,7 @@
         <v>31</v>
       </c>
       <c r="AG18" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AH18" s="4" t="s">
         <v>32</v>
@@ -8480,7 +8569,7 @@
     </row>
     <row r="19" spans="1:112" ht="15.75">
       <c r="A19" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>24</v>
@@ -8493,40 +8582,40 @@
         <v>154</v>
       </c>
       <c r="F19" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H19" s="55" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L19" s="45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M19" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N19" s="44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O19" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P19" s="4" t="s">
         <v>184</v>
       </c>
       <c r="Q19" s="38" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R19" s="8" t="s">
         <v>32</v>
@@ -8550,7 +8639,7 @@
         <v>31</v>
       </c>
       <c r="Y19" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z19" s="4" t="s">
         <v>32</v>
@@ -8559,13 +8648,13 @@
         <v>31</v>
       </c>
       <c r="AB19" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC19" s="12" t="s">
         <v>31</v>
       </c>
       <c r="AD19" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AE19" s="12" t="s">
         <v>32</v>
@@ -8574,7 +8663,7 @@
         <v>31</v>
       </c>
       <c r="AG19" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AH19" s="4" t="s">
         <v>32</v>
@@ -8816,7 +8905,7 @@
     </row>
     <row r="20" spans="1:112" ht="15.75">
       <c r="A20" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>24</v>
@@ -8829,34 +8918,34 @@
         <v>154</v>
       </c>
       <c r="F20" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>7</v>
       </c>
       <c r="H20" s="55" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L20" s="45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M20" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N20" s="44" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>184</v>
@@ -8895,7 +8984,7 @@
         <v>31</v>
       </c>
       <c r="AB20" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC20" s="12" t="s">
         <v>32</v>
@@ -9150,7 +9239,7 @@
     </row>
     <row r="21" spans="1:112" ht="15.75">
       <c r="A21" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>24</v>
@@ -9163,19 +9252,19 @@
         <v>154</v>
       </c>
       <c r="F21" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H21" s="55" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>8</v>
@@ -9187,10 +9276,10 @@
         <v>14</v>
       </c>
       <c r="N21" s="44" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O21" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>184</v>
@@ -9244,7 +9333,7 @@
         <v>31</v>
       </c>
       <c r="AG21" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AH21" s="4" t="s">
         <v>32</v>
@@ -9486,7 +9575,7 @@
     </row>
     <row r="22" spans="1:112" ht="15.75">
       <c r="A22" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>24</v>
@@ -9499,34 +9588,34 @@
         <v>154</v>
       </c>
       <c r="F22" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>7</v>
       </c>
       <c r="H22" s="55" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L22" s="45" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M22" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N22" s="44" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O22" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P22" s="4" t="s">
         <v>184</v>
@@ -9556,16 +9645,16 @@
         <v>32</v>
       </c>
       <c r="Y22" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="Z22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB22" s="19" t="s">
         <v>254</v>
-      </c>
-      <c r="Z22" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA22" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB22" s="19" t="s">
-        <v>255</v>
       </c>
       <c r="AC22" s="12" t="s">
         <v>32</v>
@@ -9820,7 +9909,7 @@
     </row>
     <row r="23" spans="1:112" ht="15.75">
       <c r="A23" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>24</v>
@@ -9833,31 +9922,31 @@
         <v>154</v>
       </c>
       <c r="F23" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="H23" s="55" t="s">
+        <v>237</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="H23" s="55" t="s">
-        <v>238</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>201</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L23" s="45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M23" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N23" s="44" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O23" s="12" t="s">
         <v>188</v>
@@ -9890,7 +9979,7 @@
         <v>32</v>
       </c>
       <c r="Y23" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z23" s="4" t="s">
         <v>32</v>
@@ -9899,7 +9988,7 @@
         <v>31</v>
       </c>
       <c r="AB23" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC23" s="12" t="s">
         <v>32</v>
@@ -10154,7 +10243,7 @@
     </row>
     <row r="24" spans="1:112" ht="15.75">
       <c r="A24" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>24</v>
@@ -10167,34 +10256,34 @@
         <v>154</v>
       </c>
       <c r="F24" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G24" s="12" t="s">
         <v>7</v>
       </c>
       <c r="H24" s="55" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L24" s="45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M24" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N24" s="44" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O24" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P24" s="4" t="s">
         <v>184</v>
@@ -10224,7 +10313,7 @@
         <v>31</v>
       </c>
       <c r="Y24" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z24" s="4" t="s">
         <v>32</v>
@@ -10233,22 +10322,22 @@
         <v>31</v>
       </c>
       <c r="AB24" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC24" s="12" t="s">
         <v>31</v>
       </c>
       <c r="AD24" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AE24" s="12" t="s">
         <v>32</v>
       </c>
       <c r="AF24" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AG24" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AH24" s="4" t="s">
         <v>32</v>
@@ -10490,7 +10579,7 @@
     </row>
     <row r="25" spans="1:112" ht="15.75">
       <c r="A25" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>24</v>
@@ -10503,40 +10592,40 @@
         <v>154</v>
       </c>
       <c r="F25" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H25" s="55" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L25" s="45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M25" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N25" s="44" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O25" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P25" s="4" t="s">
         <v>184</v>
       </c>
       <c r="Q25" s="38" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R25" s="8" t="s">
         <v>32</v>
@@ -10560,7 +10649,7 @@
         <v>31</v>
       </c>
       <c r="Y25" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z25" s="4" t="s">
         <v>32</v>
@@ -10569,13 +10658,13 @@
         <v>31</v>
       </c>
       <c r="AB25" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC25" s="12" t="s">
         <v>31</v>
       </c>
       <c r="AD25" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AE25" s="12" t="s">
         <v>32</v>
@@ -10584,7 +10673,7 @@
         <v>31</v>
       </c>
       <c r="AG25" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AH25" s="4" t="s">
         <v>32</v>
@@ -10826,7 +10915,7 @@
     </row>
     <row r="26" spans="1:112" ht="15.75">
       <c r="A26" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>24</v>
@@ -10839,7 +10928,7 @@
         <v>154</v>
       </c>
       <c r="F26" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>7</v>
@@ -10851,7 +10940,7 @@
         <v>26</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>8</v>
@@ -10863,16 +10952,16 @@
         <v>14</v>
       </c>
       <c r="N26" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="O26" s="12" t="s">
         <v>203</v>
-      </c>
-      <c r="O26" s="12" t="s">
-        <v>204</v>
       </c>
       <c r="P26" s="4" t="s">
         <v>184</v>
       </c>
       <c r="Q26" s="38" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="R26" s="8" t="s">
         <v>32</v>
@@ -10896,7 +10985,7 @@
         <v>31</v>
       </c>
       <c r="Y26" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z26" s="4" t="s">
         <v>32</v>
@@ -10905,7 +10994,7 @@
         <v>31</v>
       </c>
       <c r="AB26" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AC26" s="12" t="s">
         <v>32</v>
@@ -11160,7 +11249,7 @@
     </row>
     <row r="27" spans="1:112" ht="15.75">
       <c r="A27" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>24</v>
@@ -11173,10 +11262,10 @@
         <v>154</v>
       </c>
       <c r="F27" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H27" s="55" t="s">
         <v>168</v>
@@ -11185,19 +11274,19 @@
         <v>14</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L27" s="45" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M27" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N27" s="44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O27" s="12" t="s">
         <v>188</v>
@@ -11206,7 +11295,7 @@
         <v>184</v>
       </c>
       <c r="Q27" s="38" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="R27" s="8" t="s">
         <v>32</v>
@@ -11230,7 +11319,7 @@
         <v>32</v>
       </c>
       <c r="Y27" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z27" s="4" t="s">
         <v>31</v>
@@ -11239,7 +11328,7 @@
         <v>32</v>
       </c>
       <c r="AB27" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AC27" s="12" t="s">
         <v>32</v>
@@ -11254,7 +11343,7 @@
         <v>31</v>
       </c>
       <c r="AG27" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AH27" s="4" t="s">
         <v>32</v>
@@ -11496,7 +11585,7 @@
     </row>
     <row r="28" spans="1:112" ht="15.75">
       <c r="A28" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>24</v>
@@ -11509,7 +11598,7 @@
         <v>154</v>
       </c>
       <c r="F28" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>7</v>
@@ -11521,28 +11610,28 @@
         <v>14</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K28" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L28" s="45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M28" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N28" s="44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O28" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P28" s="4" t="s">
         <v>184</v>
       </c>
       <c r="Q28" s="38" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R28" s="8" t="s">
         <v>32</v>
@@ -11566,7 +11655,7 @@
         <v>32</v>
       </c>
       <c r="Y28" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z28" s="4" t="s">
         <v>31</v>
@@ -11575,7 +11664,7 @@
         <v>32</v>
       </c>
       <c r="AB28" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AC28" s="12" t="s">
         <v>32</v>
@@ -11590,7 +11679,7 @@
         <v>31</v>
       </c>
       <c r="AG28" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AH28" s="4" t="s">
         <v>32</v>
@@ -11832,7 +11921,7 @@
     </row>
     <row r="29" spans="1:112" ht="15.75">
       <c r="A29" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>24</v>
@@ -11845,10 +11934,10 @@
         <v>154</v>
       </c>
       <c r="F29" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H29" s="55" t="s">
         <v>168</v>
@@ -11857,28 +11946,28 @@
         <v>26</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L29" s="45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M29" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N29" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="O29" s="12" t="s">
         <v>203</v>
-      </c>
-      <c r="O29" s="12" t="s">
-        <v>204</v>
       </c>
       <c r="P29" s="4" t="s">
         <v>184</v>
       </c>
       <c r="Q29" s="38" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R29" s="8" t="s">
         <v>31</v>
@@ -11902,7 +11991,7 @@
         <v>31</v>
       </c>
       <c r="Y29" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z29" s="4" t="s">
         <v>32</v>
@@ -11911,7 +12000,7 @@
         <v>31</v>
       </c>
       <c r="AB29" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AC29" s="12" t="s">
         <v>32</v>
@@ -12166,7 +12255,7 @@
     </row>
     <row r="30" spans="1:112" ht="15.75">
       <c r="A30" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>24</v>
@@ -12179,7 +12268,7 @@
         <v>154</v>
       </c>
       <c r="F30" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G30" s="12" t="s">
         <v>7</v>
@@ -12191,28 +12280,28 @@
         <v>26</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L30" s="45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M30" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N30" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="O30" s="12" t="s">
         <v>203</v>
-      </c>
-      <c r="O30" s="12" t="s">
-        <v>204</v>
       </c>
       <c r="P30" s="4" t="s">
         <v>184</v>
       </c>
       <c r="Q30" s="38" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="R30" s="8" t="s">
         <v>31</v>
@@ -12236,7 +12325,7 @@
         <v>31</v>
       </c>
       <c r="Y30" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z30" s="4" t="s">
         <v>32</v>
@@ -12245,7 +12334,7 @@
         <v>31</v>
       </c>
       <c r="AB30" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AC30" s="12" t="s">
         <v>32</v>
@@ -12500,7 +12589,7 @@
     </row>
     <row r="31" spans="1:112" ht="15.75">
       <c r="A31" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>24</v>
@@ -12513,10 +12602,10 @@
         <v>154</v>
       </c>
       <c r="F31" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H31" s="55" t="s">
         <v>168</v>
@@ -12525,7 +12614,7 @@
         <v>26</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K31" s="4" t="s">
         <v>8</v>
@@ -12537,10 +12626,10 @@
         <v>26</v>
       </c>
       <c r="N31" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="O31" s="12" t="s">
         <v>203</v>
-      </c>
-      <c r="O31" s="12" t="s">
-        <v>204</v>
       </c>
       <c r="P31" s="4" t="s">
         <v>184</v>
@@ -12570,7 +12659,7 @@
         <v>31</v>
       </c>
       <c r="Y31" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z31" s="4" t="s">
         <v>32</v>
@@ -12579,7 +12668,7 @@
         <v>31</v>
       </c>
       <c r="AB31" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AC31" s="12" t="s">
         <v>32</v>
@@ -13218,7 +13307,7 @@
         <v>179</v>
       </c>
       <c r="AG1" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AH1" s="15" t="s">
         <v>180</v>
@@ -13230,7 +13319,7 @@
         <v>185</v>
       </c>
       <c r="AK1" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AL1" s="15" t="s">
         <v>38</v>
@@ -13476,10 +13565,10 @@
         <v>154</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H2" s="55" t="s">
         <v>168</v>
@@ -13488,22 +13577,22 @@
         <v>26</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L2" s="45" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M2" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N2" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="O2" s="12" t="s">
         <v>203</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>204</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>184</v>
@@ -13533,7 +13622,7 @@
         <v>31</v>
       </c>
       <c r="Y2" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z2" s="4" t="s">
         <v>32</v>
@@ -13542,7 +13631,7 @@
         <v>31</v>
       </c>
       <c r="AB2" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AC2" s="12" t="s">
         <v>32</v>
@@ -13565,7 +13654,7 @@
         <v>32</v>
       </c>
       <c r="AK2" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AL2" s="4" t="s">
         <v>39</v>
@@ -13798,7 +13887,7 @@
     </row>
     <row r="3" spans="1:113" s="43" customFormat="1" ht="15.75">
       <c r="A3" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>24</v>
@@ -13811,7 +13900,7 @@
         <v>154</v>
       </c>
       <c r="F3" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>7</v>
@@ -13823,22 +13912,22 @@
         <v>26</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L3" s="45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M3" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N3" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="O3" s="12" t="s">
         <v>203</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>204</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>184</v>
@@ -13868,7 +13957,7 @@
         <v>31</v>
       </c>
       <c r="Y3" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z3" s="4" t="s">
         <v>32</v>
@@ -13877,7 +13966,7 @@
         <v>31</v>
       </c>
       <c r="AB3" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AC3" s="12" t="s">
         <v>32</v>
@@ -13900,7 +13989,7 @@
         <v>32</v>
       </c>
       <c r="AK3" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AL3" s="4" t="s">
         <v>39</v>
@@ -14133,7 +14222,7 @@
     </row>
     <row r="4" spans="1:113" s="43" customFormat="1" ht="15.75">
       <c r="A4" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>24</v>
@@ -14146,10 +14235,10 @@
         <v>154</v>
       </c>
       <c r="F4" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H4" s="55" t="s">
         <v>168</v>
@@ -14158,19 +14247,19 @@
         <v>14</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L4" s="45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M4" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N4" s="44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O4" s="12" t="s">
         <v>188</v>
@@ -14223,7 +14312,7 @@
         <v>31</v>
       </c>
       <c r="AG4" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AH4" s="4" t="s">
         <v>32</v>
@@ -14235,7 +14324,7 @@
         <v>32</v>
       </c>
       <c r="AK4" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AL4" s="4" t="s">
         <v>39</v>
@@ -14468,7 +14557,7 @@
     </row>
     <row r="5" spans="1:113" s="43" customFormat="1" ht="15.75">
       <c r="A5" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>24</v>
@@ -14481,7 +14570,7 @@
         <v>154</v>
       </c>
       <c r="F5" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>7</v>
@@ -14493,22 +14582,22 @@
         <v>14</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L5" s="45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M5" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N5" s="44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>184</v>
@@ -14558,7 +14647,7 @@
         <v>31</v>
       </c>
       <c r="AG5" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AH5" s="4" t="s">
         <v>32</v>
@@ -14570,7 +14659,7 @@
         <v>32</v>
       </c>
       <c r="AK5" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AL5" s="4" t="s">
         <v>39</v>
@@ -14803,7 +14892,7 @@
     </row>
     <row r="6" spans="1:113" s="43" customFormat="1" ht="15.75">
       <c r="A6" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>24</v>
@@ -14816,10 +14905,10 @@
         <v>154</v>
       </c>
       <c r="F6" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H6" s="55" t="s">
         <v>168</v>
@@ -14828,7 +14917,7 @@
         <v>26</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>8</v>
@@ -14840,10 +14929,10 @@
         <v>14</v>
       </c>
       <c r="N6" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="O6" s="12" t="s">
         <v>203</v>
-      </c>
-      <c r="O6" s="12" t="s">
-        <v>204</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>184</v>
@@ -14873,7 +14962,7 @@
         <v>31</v>
       </c>
       <c r="Y6" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z6" s="4" t="s">
         <v>32</v>
@@ -14882,7 +14971,7 @@
         <v>31</v>
       </c>
       <c r="AB6" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AC6" s="12" t="s">
         <v>32</v>
@@ -14905,7 +14994,7 @@
         <v>32</v>
       </c>
       <c r="AK6" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AL6" s="4" t="s">
         <v>39</v>
@@ -15138,7 +15227,7 @@
     </row>
     <row r="7" spans="1:113" ht="15.75">
       <c r="A7" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>24</v>
@@ -15151,7 +15240,7 @@
         <v>154</v>
       </c>
       <c r="F7" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>7</v>
@@ -15163,22 +15252,22 @@
         <v>26</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L7" s="45" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M7" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N7" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="O7" s="12" t="s">
         <v>203</v>
-      </c>
-      <c r="O7" s="12" t="s">
-        <v>204</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>184</v>
@@ -15208,7 +15297,7 @@
         <v>31</v>
       </c>
       <c r="Y7" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z7" s="4" t="s">
         <v>32</v>
@@ -15217,7 +15306,7 @@
         <v>31</v>
       </c>
       <c r="AB7" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AC7" s="12" t="s">
         <v>32</v>
@@ -15240,7 +15329,7 @@
         <v>32</v>
       </c>
       <c r="AK7" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AL7" s="4" t="s">
         <v>39</v>
@@ -15473,7 +15562,7 @@
     </row>
     <row r="8" spans="1:113" ht="15.75">
       <c r="A8" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>24</v>
@@ -15486,10 +15575,10 @@
         <v>154</v>
       </c>
       <c r="F8" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H8" s="55" t="s">
         <v>168</v>
@@ -15498,19 +15587,19 @@
         <v>14</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L8" s="45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M8" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N8" s="44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O8" s="12" t="s">
         <v>188</v>
@@ -15543,7 +15632,7 @@
         <v>32</v>
       </c>
       <c r="Y8" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z8" s="4" t="s">
         <v>31</v>
@@ -15563,7 +15652,7 @@
         <v>31</v>
       </c>
       <c r="AG8" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AH8" s="4" t="s">
         <v>32</v>
@@ -15575,7 +15664,7 @@
         <v>32</v>
       </c>
       <c r="AK8" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AL8" s="4" t="s">
         <v>39</v>
@@ -15808,7 +15897,7 @@
     </row>
     <row r="9" spans="1:113" customFormat="1" ht="15.75">
       <c r="A9" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>24</v>
@@ -15821,7 +15910,7 @@
         <v>154</v>
       </c>
       <c r="F9" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>7</v>
@@ -15833,22 +15922,22 @@
         <v>14</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L9" s="45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M9" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N9" s="44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>184</v>
@@ -15898,7 +15987,7 @@
         <v>31</v>
       </c>
       <c r="AG9" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AH9" s="4" t="s">
         <v>32</v>
@@ -15910,7 +15999,7 @@
         <v>32</v>
       </c>
       <c r="AK9" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AL9" s="4" t="s">
         <v>39</v>
@@ -16143,7 +16232,7 @@
     </row>
     <row r="10" spans="1:113" customFormat="1" ht="15.75">
       <c r="A10" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>24</v>
@@ -16156,10 +16245,10 @@
         <v>154</v>
       </c>
       <c r="F10" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H10" s="55" t="s">
         <v>168</v>
@@ -16168,22 +16257,22 @@
         <v>26</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L10" s="45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M10" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N10" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="O10" s="12" t="s">
         <v>203</v>
-      </c>
-      <c r="O10" s="12" t="s">
-        <v>204</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>184</v>
@@ -16213,7 +16302,7 @@
         <v>31</v>
       </c>
       <c r="Y10" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z10" s="4" t="s">
         <v>32</v>
@@ -16222,7 +16311,7 @@
         <v>31</v>
       </c>
       <c r="AB10" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AC10" s="12" t="s">
         <v>32</v>
@@ -16245,7 +16334,7 @@
         <v>32</v>
       </c>
       <c r="AK10" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AL10" s="4" t="s">
         <v>39</v>
@@ -16478,7 +16567,7 @@
     </row>
     <row r="11" spans="1:113" customFormat="1" ht="15.75">
       <c r="A11" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>24</v>
@@ -16491,7 +16580,7 @@
         <v>154</v>
       </c>
       <c r="F11" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>7</v>
@@ -16503,7 +16592,7 @@
         <v>26</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>8</v>
@@ -16515,10 +16604,10 @@
         <v>26</v>
       </c>
       <c r="N11" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="O11" s="12" t="s">
         <v>203</v>
-      </c>
-      <c r="O11" s="12" t="s">
-        <v>204</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>184</v>
@@ -16548,7 +16637,7 @@
         <v>31</v>
       </c>
       <c r="Y11" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z11" s="4" t="s">
         <v>32</v>
@@ -16557,7 +16646,7 @@
         <v>31</v>
       </c>
       <c r="AB11" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AC11" s="12" t="s">
         <v>32</v>
@@ -16580,7 +16669,7 @@
         <v>32</v>
       </c>
       <c r="AK11" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AL11" s="4" t="s">
         <v>39</v>
@@ -16813,7 +16902,7 @@
     </row>
     <row r="12" spans="1:113" customFormat="1" ht="15.75">
       <c r="A12" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>24</v>
@@ -16826,10 +16915,10 @@
         <v>154</v>
       </c>
       <c r="F12" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H12" s="55" t="s">
         <v>168</v>
@@ -16838,19 +16927,19 @@
         <v>14</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L12" s="45" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M12" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N12" s="44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O12" s="12" t="s">
         <v>188</v>
@@ -16883,7 +16972,7 @@
         <v>32</v>
       </c>
       <c r="Y12" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z12" s="4" t="s">
         <v>31</v>
@@ -16903,7 +16992,7 @@
         <v>31</v>
       </c>
       <c r="AG12" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AH12" s="4" t="s">
         <v>32</v>
@@ -16915,7 +17004,7 @@
         <v>32</v>
       </c>
       <c r="AK12" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AL12" s="4" t="s">
         <v>39</v>
@@ -17148,7 +17237,7 @@
     </row>
     <row r="13" spans="1:113" customFormat="1" ht="15.75">
       <c r="A13" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>24</v>
@@ -17161,7 +17250,7 @@
         <v>154</v>
       </c>
       <c r="F13" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>7</v>
@@ -17173,22 +17262,22 @@
         <v>14</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L13" s="45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M13" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N13" s="44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>184</v>
@@ -17218,7 +17307,7 @@
         <v>32</v>
       </c>
       <c r="Y13" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z13" s="4" t="s">
         <v>31</v>
@@ -17238,7 +17327,7 @@
         <v>31</v>
       </c>
       <c r="AG13" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AH13" s="4" t="s">
         <v>32</v>
@@ -17250,7 +17339,7 @@
         <v>32</v>
       </c>
       <c r="AK13" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AL13" s="4" t="s">
         <v>39</v>
@@ -17483,7 +17572,7 @@
     </row>
     <row r="14" spans="1:113" ht="15.75">
       <c r="A14" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>24</v>
@@ -17496,10 +17585,10 @@
         <v>154</v>
       </c>
       <c r="F14" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H14" s="55" t="s">
         <v>168</v>
@@ -17508,22 +17597,22 @@
         <v>26</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L14" s="45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M14" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N14" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="O14" s="12" t="s">
         <v>203</v>
-      </c>
-      <c r="O14" s="12" t="s">
-        <v>204</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>184</v>
@@ -17553,7 +17642,7 @@
         <v>31</v>
       </c>
       <c r="Y14" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z14" s="4" t="s">
         <v>32</v>
@@ -17562,7 +17651,7 @@
         <v>31</v>
       </c>
       <c r="AB14" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AC14" s="12" t="s">
         <v>32</v>
@@ -17585,7 +17674,7 @@
         <v>32</v>
       </c>
       <c r="AK14" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AL14" s="4" t="s">
         <v>39</v>
@@ -17818,7 +17907,7 @@
     </row>
     <row r="15" spans="1:113" ht="15.75">
       <c r="A15" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>24</v>
@@ -17831,7 +17920,7 @@
         <v>154</v>
       </c>
       <c r="F15" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>7</v>
@@ -17843,22 +17932,22 @@
         <v>26</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L15" s="45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M15" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N15" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="O15" s="12" t="s">
         <v>203</v>
-      </c>
-      <c r="O15" s="12" t="s">
-        <v>204</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>184</v>
@@ -17888,7 +17977,7 @@
         <v>31</v>
       </c>
       <c r="Y15" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z15" s="4" t="s">
         <v>32</v>
@@ -17897,7 +17986,7 @@
         <v>31</v>
       </c>
       <c r="AB15" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AC15" s="12" t="s">
         <v>32</v>
@@ -17920,7 +18009,7 @@
         <v>32</v>
       </c>
       <c r="AK15" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AL15" s="4" t="s">
         <v>39</v>
@@ -18153,7 +18242,7 @@
     </row>
     <row r="16" spans="1:113" ht="15.75">
       <c r="A16" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>24</v>
@@ -18166,10 +18255,10 @@
         <v>154</v>
       </c>
       <c r="F16" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H16" s="55" t="s">
         <v>168</v>
@@ -18178,7 +18267,7 @@
         <v>14</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>8</v>
@@ -18190,7 +18279,7 @@
         <v>26</v>
       </c>
       <c r="N16" s="44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O16" s="12" t="s">
         <v>188</v>
@@ -18243,7 +18332,7 @@
         <v>31</v>
       </c>
       <c r="AG16" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AH16" s="4" t="s">
         <v>32</v>
@@ -18255,7 +18344,7 @@
         <v>32</v>
       </c>
       <c r="AK16" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AL16" s="4" t="s">
         <v>39</v>
@@ -18488,7 +18577,7 @@
     </row>
     <row r="17" spans="1:113" ht="15.75">
       <c r="A17" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>24</v>
@@ -18501,7 +18590,7 @@
         <v>154</v>
       </c>
       <c r="F17" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>7</v>
@@ -18513,22 +18602,22 @@
         <v>14</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L17" s="45" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M17" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N17" s="44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O17" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>184</v>
@@ -18558,7 +18647,7 @@
         <v>32</v>
       </c>
       <c r="Y17" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z17" s="4" t="s">
         <v>31</v>
@@ -18578,7 +18667,7 @@
         <v>31</v>
       </c>
       <c r="AG17" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AH17" s="4" t="s">
         <v>32</v>
@@ -18590,7 +18679,7 @@
         <v>32</v>
       </c>
       <c r="AK17" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AL17" s="4" t="s">
         <v>39</v>
@@ -18823,7 +18912,7 @@
     </row>
     <row r="18" spans="1:113" ht="15.75">
       <c r="A18" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>24</v>
@@ -18836,40 +18925,40 @@
         <v>154</v>
       </c>
       <c r="F18" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>7</v>
       </c>
       <c r="H18" s="55" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L18" s="45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M18" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N18" s="44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O18" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>184</v>
       </c>
       <c r="Q18" s="38" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="R18" s="8" t="s">
         <v>31</v>
@@ -18893,7 +18982,7 @@
         <v>31</v>
       </c>
       <c r="Y18" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z18" s="4" t="s">
         <v>32</v>
@@ -18902,13 +18991,13 @@
         <v>31</v>
       </c>
       <c r="AB18" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC18" s="12" t="s">
         <v>31</v>
       </c>
       <c r="AD18" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AE18" s="12" t="s">
         <v>32</v>
@@ -18917,7 +19006,7 @@
         <v>31</v>
       </c>
       <c r="AG18" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AH18" s="4" t="s">
         <v>32</v>
@@ -18929,7 +19018,7 @@
         <v>32</v>
       </c>
       <c r="AK18" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AL18" s="4" t="s">
         <v>39</v>
@@ -19162,7 +19251,7 @@
     </row>
     <row r="19" spans="1:113" ht="15.75">
       <c r="A19" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>24</v>
@@ -19175,40 +19264,40 @@
         <v>154</v>
       </c>
       <c r="F19" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H19" s="55" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L19" s="45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M19" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N19" s="44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O19" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P19" s="4" t="s">
         <v>184</v>
       </c>
       <c r="Q19" s="38" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R19" s="8" t="s">
         <v>32</v>
@@ -19232,7 +19321,7 @@
         <v>31</v>
       </c>
       <c r="Y19" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z19" s="4" t="s">
         <v>32</v>
@@ -19241,13 +19330,13 @@
         <v>31</v>
       </c>
       <c r="AB19" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC19" s="12" t="s">
         <v>31</v>
       </c>
       <c r="AD19" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AE19" s="12" t="s">
         <v>32</v>
@@ -19256,7 +19345,7 @@
         <v>31</v>
       </c>
       <c r="AG19" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AH19" s="4" t="s">
         <v>32</v>
@@ -19268,7 +19357,7 @@
         <v>32</v>
       </c>
       <c r="AK19" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AL19" s="4" t="s">
         <v>39</v>
@@ -19501,7 +19590,7 @@
     </row>
     <row r="20" spans="1:113" ht="15.75">
       <c r="A20" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>24</v>
@@ -19514,34 +19603,34 @@
         <v>154</v>
       </c>
       <c r="F20" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>7</v>
       </c>
       <c r="H20" s="55" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L20" s="45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M20" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N20" s="44" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>184</v>
@@ -19580,7 +19669,7 @@
         <v>31</v>
       </c>
       <c r="AB20" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC20" s="12" t="s">
         <v>32</v>
@@ -19603,7 +19692,7 @@
         <v>32</v>
       </c>
       <c r="AK20" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AL20" s="4" t="s">
         <v>39</v>
@@ -19836,7 +19925,7 @@
     </row>
     <row r="21" spans="1:113" ht="15.75">
       <c r="A21" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>24</v>
@@ -19849,19 +19938,19 @@
         <v>154</v>
       </c>
       <c r="F21" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H21" s="55" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>8</v>
@@ -19873,10 +19962,10 @@
         <v>14</v>
       </c>
       <c r="N21" s="44" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O21" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>184</v>
@@ -19926,7 +20015,7 @@
         <v>31</v>
       </c>
       <c r="AG21" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AH21" s="4" t="s">
         <v>32</v>
@@ -19938,7 +20027,7 @@
         <v>32</v>
       </c>
       <c r="AK21" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AL21" s="4" t="s">
         <v>39</v>
@@ -20171,7 +20260,7 @@
     </row>
     <row r="22" spans="1:113" ht="15.75">
       <c r="A22" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>24</v>
@@ -20184,34 +20273,34 @@
         <v>154</v>
       </c>
       <c r="F22" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>7</v>
       </c>
       <c r="H22" s="55" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L22" s="45" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M22" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N22" s="44" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O22" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P22" s="4" t="s">
         <v>184</v>
@@ -20241,7 +20330,7 @@
         <v>32</v>
       </c>
       <c r="Y22" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z22" s="4" t="s">
         <v>32</v>
@@ -20271,7 +20360,7 @@
         <v>32</v>
       </c>
       <c r="AK22" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AL22" s="4" t="s">
         <v>39</v>
@@ -20504,7 +20593,7 @@
     </row>
     <row r="23" spans="1:113" ht="15.75">
       <c r="A23" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>24</v>
@@ -20517,31 +20606,31 @@
         <v>154</v>
       </c>
       <c r="F23" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="H23" s="55" t="s">
+        <v>237</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="H23" s="55" t="s">
-        <v>238</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>201</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L23" s="45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M23" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N23" s="44" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O23" s="12" t="s">
         <v>188</v>
@@ -20574,7 +20663,7 @@
         <v>32</v>
       </c>
       <c r="Y23" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z23" s="4" t="s">
         <v>32</v>
@@ -20583,7 +20672,7 @@
         <v>31</v>
       </c>
       <c r="AB23" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC23" s="12" t="s">
         <v>32</v>
@@ -20606,7 +20695,7 @@
         <v>32</v>
       </c>
       <c r="AK23" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AL23" s="4" t="s">
         <v>39</v>
@@ -20839,7 +20928,7 @@
     </row>
     <row r="24" spans="1:113" ht="15.75">
       <c r="A24" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>24</v>
@@ -20852,34 +20941,34 @@
         <v>154</v>
       </c>
       <c r="F24" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G24" s="12" t="s">
         <v>7</v>
       </c>
       <c r="H24" s="55" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L24" s="45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M24" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N24" s="44" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O24" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P24" s="4" t="s">
         <v>184</v>
@@ -20909,7 +20998,7 @@
         <v>31</v>
       </c>
       <c r="Y24" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z24" s="4" t="s">
         <v>32</v>
@@ -20918,22 +21007,22 @@
         <v>31</v>
       </c>
       <c r="AB24" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC24" s="12" t="s">
         <v>31</v>
       </c>
       <c r="AD24" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AE24" s="12" t="s">
         <v>32</v>
       </c>
       <c r="AF24" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AG24" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AH24" s="4" t="s">
         <v>32</v>
@@ -20945,7 +21034,7 @@
         <v>32</v>
       </c>
       <c r="AK24" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AL24" s="4" t="s">
         <v>39</v>
@@ -21178,7 +21267,7 @@
     </row>
     <row r="25" spans="1:113" ht="15.75">
       <c r="A25" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>24</v>
@@ -21191,40 +21280,40 @@
         <v>154</v>
       </c>
       <c r="F25" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H25" s="55" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L25" s="45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M25" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N25" s="44" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O25" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P25" s="4" t="s">
         <v>184</v>
       </c>
       <c r="Q25" s="38" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R25" s="8" t="s">
         <v>32</v>
@@ -21248,7 +21337,7 @@
         <v>31</v>
       </c>
       <c r="Y25" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z25" s="4" t="s">
         <v>32</v>
@@ -21257,13 +21346,13 @@
         <v>31</v>
       </c>
       <c r="AB25" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC25" s="12" t="s">
         <v>31</v>
       </c>
       <c r="AD25" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AE25" s="12" t="s">
         <v>32</v>
@@ -21272,7 +21361,7 @@
         <v>31</v>
       </c>
       <c r="AG25" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AH25" s="4" t="s">
         <v>32</v>
@@ -21284,7 +21373,7 @@
         <v>32</v>
       </c>
       <c r="AK25" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AL25" s="4" t="s">
         <v>39</v>
@@ -21517,7 +21606,7 @@
     </row>
     <row r="26" spans="1:113" ht="15.75">
       <c r="A26" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>24</v>
@@ -21530,7 +21619,7 @@
         <v>154</v>
       </c>
       <c r="F26" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>7</v>
@@ -21542,7 +21631,7 @@
         <v>26</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>8</v>
@@ -21554,16 +21643,16 @@
         <v>14</v>
       </c>
       <c r="N26" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="O26" s="12" t="s">
         <v>203</v>
-      </c>
-      <c r="O26" s="12" t="s">
-        <v>204</v>
       </c>
       <c r="P26" s="4" t="s">
         <v>184</v>
       </c>
       <c r="Q26" s="38" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="R26" s="8" t="s">
         <v>32</v>
@@ -21587,7 +21676,7 @@
         <v>31</v>
       </c>
       <c r="Y26" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z26" s="4" t="s">
         <v>32</v>
@@ -21596,7 +21685,7 @@
         <v>31</v>
       </c>
       <c r="AB26" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AC26" s="12" t="s">
         <v>32</v>
@@ -21619,7 +21708,7 @@
         <v>32</v>
       </c>
       <c r="AK26" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AL26" s="4" t="s">
         <v>39</v>
@@ -21852,7 +21941,7 @@
     </row>
     <row r="27" spans="1:113" ht="15.75">
       <c r="A27" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>24</v>
@@ -21865,10 +21954,10 @@
         <v>154</v>
       </c>
       <c r="F27" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H27" s="55" t="s">
         <v>168</v>
@@ -21877,19 +21966,19 @@
         <v>14</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L27" s="45" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M27" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N27" s="44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O27" s="12" t="s">
         <v>188</v>
@@ -21898,7 +21987,7 @@
         <v>184</v>
       </c>
       <c r="Q27" s="38" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="R27" s="8" t="s">
         <v>32</v>
@@ -21922,7 +22011,7 @@
         <v>32</v>
       </c>
       <c r="Y27" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z27" s="4" t="s">
         <v>31</v>
@@ -21942,7 +22031,7 @@
         <v>31</v>
       </c>
       <c r="AG27" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AH27" s="4" t="s">
         <v>32</v>
@@ -21954,7 +22043,7 @@
         <v>32</v>
       </c>
       <c r="AK27" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AL27" s="4" t="s">
         <v>39</v>
@@ -22187,7 +22276,7 @@
     </row>
     <row r="28" spans="1:113" ht="15.75">
       <c r="A28" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>24</v>
@@ -22200,7 +22289,7 @@
         <v>154</v>
       </c>
       <c r="F28" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>7</v>
@@ -22212,28 +22301,28 @@
         <v>14</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K28" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L28" s="45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M28" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N28" s="44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O28" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P28" s="4" t="s">
         <v>184</v>
       </c>
       <c r="Q28" s="38" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R28" s="8" t="s">
         <v>32</v>
@@ -22257,7 +22346,7 @@
         <v>32</v>
       </c>
       <c r="Y28" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z28" s="4" t="s">
         <v>31</v>
@@ -22277,7 +22366,7 @@
         <v>31</v>
       </c>
       <c r="AG28" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AH28" s="4" t="s">
         <v>32</v>
@@ -22289,7 +22378,7 @@
         <v>32</v>
       </c>
       <c r="AK28" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AL28" s="4" t="s">
         <v>39</v>
@@ -22522,7 +22611,7 @@
     </row>
     <row r="29" spans="1:113" ht="15.75">
       <c r="A29" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>24</v>
@@ -22535,10 +22624,10 @@
         <v>154</v>
       </c>
       <c r="F29" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H29" s="55" t="s">
         <v>168</v>
@@ -22547,28 +22636,28 @@
         <v>26</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L29" s="45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M29" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N29" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="O29" s="12" t="s">
         <v>203</v>
-      </c>
-      <c r="O29" s="12" t="s">
-        <v>204</v>
       </c>
       <c r="P29" s="4" t="s">
         <v>184</v>
       </c>
       <c r="Q29" s="38" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R29" s="8" t="s">
         <v>31</v>
@@ -22592,7 +22681,7 @@
         <v>31</v>
       </c>
       <c r="Y29" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z29" s="4" t="s">
         <v>32</v>
@@ -22601,7 +22690,7 @@
         <v>31</v>
       </c>
       <c r="AB29" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AC29" s="12" t="s">
         <v>32</v>
@@ -22624,7 +22713,7 @@
         <v>32</v>
       </c>
       <c r="AK29" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AL29" s="4" t="s">
         <v>39</v>
@@ -22857,7 +22946,7 @@
     </row>
     <row r="30" spans="1:113" ht="15.75">
       <c r="A30" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>24</v>
@@ -22870,7 +22959,7 @@
         <v>154</v>
       </c>
       <c r="F30" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G30" s="12" t="s">
         <v>7</v>
@@ -22882,28 +22971,28 @@
         <v>26</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L30" s="45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M30" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N30" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="O30" s="12" t="s">
         <v>203</v>
-      </c>
-      <c r="O30" s="12" t="s">
-        <v>204</v>
       </c>
       <c r="P30" s="4" t="s">
         <v>184</v>
       </c>
       <c r="Q30" s="38" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="R30" s="8" t="s">
         <v>31</v>
@@ -22927,7 +23016,7 @@
         <v>31</v>
       </c>
       <c r="Y30" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z30" s="4" t="s">
         <v>32</v>
@@ -22936,7 +23025,7 @@
         <v>31</v>
       </c>
       <c r="AB30" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AC30" s="12" t="s">
         <v>32</v>
@@ -22959,7 +23048,7 @@
         <v>32</v>
       </c>
       <c r="AK30" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AL30" s="4" t="s">
         <v>39</v>
@@ -23192,7 +23281,7 @@
     </row>
     <row r="31" spans="1:113" ht="15.75">
       <c r="A31" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>24</v>
@@ -23205,10 +23294,10 @@
         <v>154</v>
       </c>
       <c r="F31" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H31" s="55" t="s">
         <v>168</v>
@@ -23217,7 +23306,7 @@
         <v>26</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K31" s="4" t="s">
         <v>8</v>
@@ -23229,10 +23318,10 @@
         <v>26</v>
       </c>
       <c r="N31" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="O31" s="12" t="s">
         <v>203</v>
-      </c>
-      <c r="O31" s="12" t="s">
-        <v>204</v>
       </c>
       <c r="P31" s="4" t="s">
         <v>184</v>
@@ -23262,7 +23351,7 @@
         <v>31</v>
       </c>
       <c r="Y31" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z31" s="4" t="s">
         <v>32</v>
@@ -23271,7 +23360,7 @@
         <v>31</v>
       </c>
       <c r="AB31" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AC31" s="12" t="s">
         <v>32</v>
@@ -23294,7 +23383,7 @@
         <v>32</v>
       </c>
       <c r="AK31" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AL31" s="4" t="s">
         <v>39</v>
@@ -23691,10 +23780,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="A2:L2"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.140625" defaultRowHeight="15"/>
@@ -23710,14 +23799,16 @@
     <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.5703125" style="53" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.42578125" style="53" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="53" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" style="53" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.7109375" style="53" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23" style="61" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="49" customFormat="1">
+    <row r="1" spans="1:22" s="49" customFormat="1">
       <c r="A1" s="47" t="s">
         <v>18</v>
       </c>
@@ -23743,62 +23834,122 @@
         <v>194</v>
       </c>
       <c r="I1" s="57" t="s">
+        <v>264</v>
+      </c>
+      <c r="J1" s="57" t="s">
         <v>265</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="K1" s="47" t="s">
         <v>266</v>
       </c>
-      <c r="K1" s="60" t="s">
+      <c r="L1" s="57" t="s">
         <v>267</v>
       </c>
-      <c r="L1" s="61" t="s">
+      <c r="M1" s="57" t="s">
         <v>268</v>
       </c>
+      <c r="N1" s="57" t="s">
+        <v>269</v>
+      </c>
+      <c r="O1" s="62" t="s">
+        <v>270</v>
+      </c>
+      <c r="P1" s="57" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q1" s="57" t="s">
+        <v>274</v>
+      </c>
+      <c r="R1" s="62" t="s">
+        <v>275</v>
+      </c>
+      <c r="S1" s="60" t="s">
+        <v>278</v>
+      </c>
+      <c r="T1" s="66" t="s">
+        <v>280</v>
+      </c>
+      <c r="U1" s="60" t="s">
+        <v>282</v>
+      </c>
+      <c r="V1" s="60" t="s">
+        <v>284</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:22">
       <c r="A2" s="18" t="s">
-        <v>195</v>
+        <v>281</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>30</v>
       </c>
       <c r="E2" s="50" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G2" s="18" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="52" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I2" s="18" t="s">
         <v>8</v>
       </c>
       <c r="J2" s="58" t="s">
-        <v>250</v>
-      </c>
-      <c r="K2" s="59">
+        <v>249</v>
+      </c>
+      <c r="K2" s="63">
         <v>560000</v>
       </c>
-      <c r="L2" s="53" t="s">
-        <v>14</v>
+      <c r="L2" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="64" t="s">
+        <v>271</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="R2" s="64" t="s">
+        <v>276</v>
+      </c>
+      <c r="S2" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="T2" s="59">
+        <v>50000</v>
+      </c>
+      <c r="U2" s="67" t="s">
+        <v>283</v>
+      </c>
+      <c r="V2" s="67" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
+  <dataValidations count="10">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
       <formula1>"Female,Male"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576 P2:P1048576">
       <formula1>"Diploma,Graduate,Post graduate &amp; above"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576">
@@ -23806,6 +23957,24 @@
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
       <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576">
+      <formula1>"Male,Female,Transgender"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M2:M1048576">
+      <formula1>"Self,Spouse,Child,Grandchild"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q1048576">
+      <formula1>"Salaried,Self Employed,Non-Working"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="S2:S1048576">
+      <formula1>"Annually,Half_Yearly,Quarterly,Monthly,Single"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="U2:U1048576">
+      <formula1>"5 Years,7 Years,10 Years,Single"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576">
+      <formula1>"Lumpsum(Endowment),Regular Income"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>

--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="YTP" sheetId="1" r:id="rId1"/>
-    <sheet name="Test Cases Update" sheetId="7" r:id="rId2"/>
-    <sheet name="Test Cases" sheetId="6" r:id="rId3"/>
-    <sheet name="GFP" sheetId="4" r:id="rId4"/>
+    <sheet name="GFP Copy" sheetId="8" r:id="rId1"/>
+    <sheet name="YTP" sheetId="1" r:id="rId2"/>
+    <sheet name="Test Cases Update" sheetId="7" r:id="rId3"/>
+    <sheet name="Test Cases" sheetId="6" r:id="rId4"/>
+    <sheet name="GFP" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6974" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7022" uniqueCount="295">
   <si>
     <t>First_Name</t>
   </si>
@@ -609,18 +610,9 @@
     <t>DOB</t>
   </si>
   <si>
-    <t>Digambar</t>
-  </si>
-  <si>
-    <t>ganesh.12@gmail.com</t>
-  </si>
-  <si>
     <t>20/06/1996</t>
   </si>
   <si>
-    <t>9711902829</t>
-  </si>
-  <si>
     <t>7840954417</t>
   </si>
   <si>
@@ -880,6 +872,42 @@
   </si>
   <si>
     <t>Regular Income</t>
+  </si>
+  <si>
+    <t>abc.1@gmail.com</t>
+  </si>
+  <si>
+    <t>28/09/1996</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>IB_PPPC</t>
+  </si>
+  <si>
+    <t>EB_PPPC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Endowment_Benifit </t>
+  </si>
+  <si>
+    <t>Income_Benefit</t>
+  </si>
+  <si>
+    <t>20/09/1999</t>
+  </si>
+  <si>
+    <t>Self</t>
+  </si>
+  <si>
+    <t>First Plan</t>
+  </si>
+  <si>
+    <t>Maritial_Status</t>
+  </si>
+  <si>
+    <t>Widowed</t>
   </si>
 </sst>
 </file>
@@ -1060,7 +1088,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1209,9 +1237,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1257,6 +1282,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1533,7 +1564,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1541,9 +1572,214 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:V2"/>
+  <sheetViews>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="53" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="52" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="52" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="52" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" style="52" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" style="60" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.7109375" style="52" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23" style="60" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" style="58"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" s="49" customFormat="1">
+      <c r="A1" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>191</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="G1" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="I1" s="56" t="s">
+        <v>261</v>
+      </c>
+      <c r="J1" s="56" t="s">
+        <v>262</v>
+      </c>
+      <c r="K1" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="L1" s="56" t="s">
+        <v>264</v>
+      </c>
+      <c r="M1" s="56" t="s">
+        <v>265</v>
+      </c>
+      <c r="N1" s="56" t="s">
+        <v>266</v>
+      </c>
+      <c r="O1" s="61" t="s">
+        <v>267</v>
+      </c>
+      <c r="P1" s="56" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q1" s="56" t="s">
+        <v>271</v>
+      </c>
+      <c r="R1" s="61" t="s">
+        <v>272</v>
+      </c>
+      <c r="S1" s="59" t="s">
+        <v>275</v>
+      </c>
+      <c r="T1" s="65" t="s">
+        <v>277</v>
+      </c>
+      <c r="U1" s="59" t="s">
+        <v>279</v>
+      </c>
+      <c r="V1" s="59" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="17.25">
+      <c r="A2" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="67" t="s">
+        <v>283</v>
+      </c>
+      <c r="F2" s="50">
+        <v>9711902899</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="57" t="s">
+        <v>246</v>
+      </c>
+      <c r="K2" s="62">
+        <v>760000</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="63" t="s">
+        <v>284</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="R2" s="63" t="s">
+        <v>273</v>
+      </c>
+      <c r="S2" s="64" t="s">
+        <v>276</v>
+      </c>
+      <c r="T2" s="58">
+        <v>50000</v>
+      </c>
+      <c r="U2" s="66" t="s">
+        <v>280</v>
+      </c>
+      <c r="V2" s="66" t="s">
+        <v>282</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="10">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576">
+      <formula1>"Lumpsum(Endowment),Regular Income"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="U2:U1048576">
+      <formula1>"5 Years,7 Years,10 Years,Single"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="S2:S1048576">
+      <formula1>"Annually,Half_Yearly,Quarterly,Monthly,Single"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q1048576">
+      <formula1>"Salaried,Self Employed,Non-Working"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M2:M1048576">
+      <formula1>"Self,Spouse,Child,Grandchild"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576">
+      <formula1>"Male,Female,Transgender"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576">
+      <formula1>"Salaried,Self Employed"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576 P2:P1048576">
+      <formula1>"Diploma,Graduate,Post graduate &amp; above"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
+      <formula1>"Female,Male"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DH2"/>
   <sheetViews>
-    <sheetView topLeftCell="BI1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="BL12" sqref="BL12"/>
     </sheetView>
   </sheetViews>
@@ -1769,7 +2005,7 @@
         <v>185</v>
       </c>
       <c r="AJ1" s="14" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AK1" s="15" t="s">
         <v>38</v>
@@ -2002,7 +2238,7 @@
     </row>
     <row r="2" spans="1:112" s="43" customFormat="1" ht="17.25">
       <c r="A2" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>24</v>
@@ -2011,38 +2247,38 @@
       <c r="D2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="56" t="s">
-        <v>262</v>
-      </c>
-      <c r="F2" s="51" t="s">
-        <v>199</v>
+      <c r="E2" s="55" t="s">
+        <v>259</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="H2" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="H2" s="54" t="s">
         <v>168</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L2" s="45" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M2" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N2" s="44" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>184</v>
@@ -2081,7 +2317,7 @@
         <v>31</v>
       </c>
       <c r="AB2" s="19" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AC2" s="12" t="s">
         <v>32</v>
@@ -2105,7 +2341,7 @@
         <v>32</v>
       </c>
       <c r="AJ2" s="19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AK2" s="4" t="s">
         <v>39</v>
@@ -2213,7 +2449,7 @@
         <v>164</v>
       </c>
       <c r="BT2" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="BU2" s="19" t="s">
         <v>40</v>
@@ -2442,7 +2678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DH31"/>
   <sheetViews>
@@ -2663,7 +2899,7 @@
         <v>179</v>
       </c>
       <c r="AG1" s="14" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AH1" s="15" t="s">
         <v>180</v>
@@ -2917,35 +3153,35 @@
       <c r="E2" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F2" s="51" t="s">
-        <v>199</v>
+      <c r="F2" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="H2" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="H2" s="54" t="s">
         <v>168</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L2" s="45" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M2" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N2" s="44" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>184</v>
@@ -2975,7 +3211,7 @@
         <v>31</v>
       </c>
       <c r="Y2" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Z2" s="4" t="s">
         <v>32</v>
@@ -2984,7 +3220,7 @@
         <v>31</v>
       </c>
       <c r="AB2" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AC2" s="12" t="s">
         <v>32</v>
@@ -3237,7 +3473,7 @@
     </row>
     <row r="3" spans="1:112" s="43" customFormat="1" ht="15.75">
       <c r="A3" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>24</v>
@@ -3249,35 +3485,35 @@
       <c r="E3" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F3" s="51" t="s">
-        <v>199</v>
+      <c r="F3" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="55" t="s">
+      <c r="H3" s="54" t="s">
         <v>168</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L3" s="45" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M3" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N3" s="44" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>184</v>
@@ -3307,7 +3543,7 @@
         <v>31</v>
       </c>
       <c r="Y3" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Z3" s="4" t="s">
         <v>32</v>
@@ -3316,7 +3552,7 @@
         <v>31</v>
       </c>
       <c r="AB3" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AC3" s="12" t="s">
         <v>32</v>
@@ -3569,7 +3805,7 @@
     </row>
     <row r="4" spans="1:112" s="43" customFormat="1" ht="15.75">
       <c r="A4" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>24</v>
@@ -3581,32 +3817,32 @@
       <c r="E4" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F4" s="51" t="s">
-        <v>199</v>
+      <c r="F4" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="H4" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="H4" s="54" t="s">
         <v>168</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L4" s="45" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M4" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N4" s="44" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O4" s="12" t="s">
         <v>188</v>
@@ -3661,7 +3897,7 @@
         <v>31</v>
       </c>
       <c r="AG4" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AH4" s="4" t="s">
         <v>32</v>
@@ -3903,7 +4139,7 @@
     </row>
     <row r="5" spans="1:112" s="43" customFormat="1" ht="15.75">
       <c r="A5" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>24</v>
@@ -3915,35 +4151,35 @@
       <c r="E5" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F5" s="51" t="s">
-        <v>199</v>
+      <c r="F5" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="55" t="s">
+      <c r="H5" s="54" t="s">
         <v>168</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L5" s="45" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M5" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N5" s="44" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>184</v>
@@ -3995,7 +4231,7 @@
         <v>31</v>
       </c>
       <c r="AG5" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AH5" s="4" t="s">
         <v>32</v>
@@ -4237,7 +4473,7 @@
     </row>
     <row r="6" spans="1:112" s="43" customFormat="1" ht="15.75">
       <c r="A6" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>24</v>
@@ -4249,20 +4485,20 @@
       <c r="E6" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F6" s="51" t="s">
-        <v>199</v>
+      <c r="F6" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="H6" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="H6" s="54" t="s">
         <v>168</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>8</v>
@@ -4274,10 +4510,10 @@
         <v>14</v>
       </c>
       <c r="N6" s="44" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>184</v>
@@ -4307,7 +4543,7 @@
         <v>31</v>
       </c>
       <c r="Y6" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Z6" s="4" t="s">
         <v>32</v>
@@ -4316,7 +4552,7 @@
         <v>31</v>
       </c>
       <c r="AB6" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AC6" s="12" t="s">
         <v>32</v>
@@ -4569,7 +4805,7 @@
     </row>
     <row r="7" spans="1:112" ht="15.75">
       <c r="A7" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>24</v>
@@ -4581,35 +4817,35 @@
       <c r="E7" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F7" s="51" t="s">
-        <v>199</v>
+      <c r="F7" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="55" t="s">
+      <c r="H7" s="54" t="s">
         <v>168</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L7" s="45" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M7" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N7" s="44" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>184</v>
@@ -4639,7 +4875,7 @@
         <v>31</v>
       </c>
       <c r="Y7" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Z7" s="4" t="s">
         <v>32</v>
@@ -4648,7 +4884,7 @@
         <v>31</v>
       </c>
       <c r="AB7" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AC7" s="12" t="s">
         <v>32</v>
@@ -4901,7 +5137,7 @@
     </row>
     <row r="8" spans="1:112" ht="15.75">
       <c r="A8" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>24</v>
@@ -4913,32 +5149,32 @@
       <c r="E8" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F8" s="51" t="s">
-        <v>199</v>
+      <c r="F8" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="H8" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="H8" s="54" t="s">
         <v>168</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L8" s="45" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M8" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N8" s="44" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O8" s="12" t="s">
         <v>188</v>
@@ -4971,7 +5207,7 @@
         <v>32</v>
       </c>
       <c r="Y8" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Z8" s="4" t="s">
         <v>31</v>
@@ -4980,7 +5216,7 @@
         <v>32</v>
       </c>
       <c r="AB8" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AC8" s="12" t="s">
         <v>32</v>
@@ -4993,7 +5229,7 @@
         <v>31</v>
       </c>
       <c r="AG8" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AH8" s="4" t="s">
         <v>32</v>
@@ -5235,7 +5471,7 @@
     </row>
     <row r="9" spans="1:112" customFormat="1" ht="15.75">
       <c r="A9" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>24</v>
@@ -5247,35 +5483,35 @@
       <c r="E9" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F9" s="51" t="s">
-        <v>199</v>
+      <c r="F9" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="55" t="s">
+      <c r="H9" s="54" t="s">
         <v>168</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L9" s="45" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M9" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N9" s="44" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>184</v>
@@ -5327,7 +5563,7 @@
         <v>31</v>
       </c>
       <c r="AG9" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AH9" s="4" t="s">
         <v>32</v>
@@ -5569,7 +5805,7 @@
     </row>
     <row r="10" spans="1:112" customFormat="1" ht="15.75">
       <c r="A10" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>24</v>
@@ -5581,35 +5817,35 @@
       <c r="E10" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F10" s="51" t="s">
-        <v>199</v>
+      <c r="F10" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="H10" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="H10" s="54" t="s">
         <v>168</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L10" s="45" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M10" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N10" s="44" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>184</v>
@@ -5639,7 +5875,7 @@
         <v>31</v>
       </c>
       <c r="Y10" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Z10" s="4" t="s">
         <v>32</v>
@@ -5648,7 +5884,7 @@
         <v>31</v>
       </c>
       <c r="AB10" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AC10" s="12" t="s">
         <v>32</v>
@@ -5901,7 +6137,7 @@
     </row>
     <row r="11" spans="1:112" customFormat="1" ht="15.75">
       <c r="A11" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>24</v>
@@ -5913,20 +6149,20 @@
       <c r="E11" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F11" s="51" t="s">
-        <v>199</v>
+      <c r="F11" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="55" t="s">
+      <c r="H11" s="54" t="s">
         <v>168</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>8</v>
@@ -5938,10 +6174,10 @@
         <v>26</v>
       </c>
       <c r="N11" s="44" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>184</v>
@@ -5971,7 +6207,7 @@
         <v>31</v>
       </c>
       <c r="Y11" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Z11" s="4" t="s">
         <v>32</v>
@@ -5980,7 +6216,7 @@
         <v>31</v>
       </c>
       <c r="AB11" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AC11" s="12" t="s">
         <v>32</v>
@@ -6233,7 +6469,7 @@
     </row>
     <row r="12" spans="1:112" customFormat="1" ht="15.75">
       <c r="A12" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>24</v>
@@ -6245,32 +6481,32 @@
       <c r="E12" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F12" s="51" t="s">
-        <v>199</v>
+      <c r="F12" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="H12" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="H12" s="54" t="s">
         <v>168</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L12" s="45" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M12" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N12" s="44" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O12" s="12" t="s">
         <v>188</v>
@@ -6303,7 +6539,7 @@
         <v>32</v>
       </c>
       <c r="Y12" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Z12" s="4" t="s">
         <v>31</v>
@@ -6312,7 +6548,7 @@
         <v>32</v>
       </c>
       <c r="AB12" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AC12" s="12" t="s">
         <v>32</v>
@@ -6325,7 +6561,7 @@
         <v>31</v>
       </c>
       <c r="AG12" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AH12" s="4" t="s">
         <v>32</v>
@@ -6567,7 +6803,7 @@
     </row>
     <row r="13" spans="1:112" customFormat="1" ht="15.75">
       <c r="A13" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>24</v>
@@ -6579,35 +6815,35 @@
       <c r="E13" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F13" s="51" t="s">
-        <v>199</v>
+      <c r="F13" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="55" t="s">
+      <c r="H13" s="54" t="s">
         <v>168</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L13" s="45" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M13" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N13" s="44" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>184</v>
@@ -6637,7 +6873,7 @@
         <v>32</v>
       </c>
       <c r="Y13" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Z13" s="4" t="s">
         <v>31</v>
@@ -6646,7 +6882,7 @@
         <v>32</v>
       </c>
       <c r="AB13" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AC13" s="12" t="s">
         <v>32</v>
@@ -6659,7 +6895,7 @@
         <v>31</v>
       </c>
       <c r="AG13" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AH13" s="4" t="s">
         <v>32</v>
@@ -6901,7 +7137,7 @@
     </row>
     <row r="14" spans="1:112" ht="15.75">
       <c r="A14" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>24</v>
@@ -6913,35 +7149,35 @@
       <c r="E14" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F14" s="51" t="s">
-        <v>199</v>
+      <c r="F14" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="H14" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="H14" s="54" t="s">
         <v>168</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L14" s="45" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M14" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N14" s="44" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O14" s="12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>184</v>
@@ -6971,7 +7207,7 @@
         <v>31</v>
       </c>
       <c r="Y14" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Z14" s="4" t="s">
         <v>32</v>
@@ -6980,7 +7216,7 @@
         <v>31</v>
       </c>
       <c r="AB14" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AC14" s="12" t="s">
         <v>32</v>
@@ -7233,7 +7469,7 @@
     </row>
     <row r="15" spans="1:112" ht="15.75">
       <c r="A15" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>24</v>
@@ -7245,35 +7481,35 @@
       <c r="E15" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F15" s="51" t="s">
-        <v>199</v>
+      <c r="F15" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="55" t="s">
+      <c r="H15" s="54" t="s">
         <v>168</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L15" s="45" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M15" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N15" s="44" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O15" s="12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>184</v>
@@ -7303,7 +7539,7 @@
         <v>31</v>
       </c>
       <c r="Y15" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Z15" s="4" t="s">
         <v>32</v>
@@ -7312,7 +7548,7 @@
         <v>31</v>
       </c>
       <c r="AB15" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AC15" s="12" t="s">
         <v>32</v>
@@ -7565,7 +7801,7 @@
     </row>
     <row r="16" spans="1:112" ht="15.75">
       <c r="A16" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>24</v>
@@ -7577,20 +7813,20 @@
       <c r="E16" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F16" s="51" t="s">
-        <v>199</v>
+      <c r="F16" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="H16" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="H16" s="54" t="s">
         <v>168</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>8</v>
@@ -7602,7 +7838,7 @@
         <v>26</v>
       </c>
       <c r="N16" s="44" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O16" s="12" t="s">
         <v>188</v>
@@ -7657,7 +7893,7 @@
         <v>31</v>
       </c>
       <c r="AG16" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AH16" s="4" t="s">
         <v>32</v>
@@ -7899,7 +8135,7 @@
     </row>
     <row r="17" spans="1:112" ht="15.75">
       <c r="A17" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>24</v>
@@ -7911,35 +8147,35 @@
       <c r="E17" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F17" s="51" t="s">
-        <v>199</v>
+      <c r="F17" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="55" t="s">
+      <c r="H17" s="54" t="s">
         <v>168</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L17" s="45" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M17" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N17" s="44" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O17" s="12" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>184</v>
@@ -7969,7 +8205,7 @@
         <v>32</v>
       </c>
       <c r="Y17" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Z17" s="4" t="s">
         <v>31</v>
@@ -7978,7 +8214,7 @@
         <v>32</v>
       </c>
       <c r="AB17" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AC17" s="12" t="s">
         <v>32</v>
@@ -7991,7 +8227,7 @@
         <v>31</v>
       </c>
       <c r="AG17" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AH17" s="4" t="s">
         <v>32</v>
@@ -8233,7 +8469,7 @@
     </row>
     <row r="18" spans="1:112" ht="15.75">
       <c r="A18" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>24</v>
@@ -8245,41 +8481,41 @@
       <c r="E18" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F18" s="51" t="s">
-        <v>199</v>
+      <c r="F18" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H18" s="55" t="s">
-        <v>234</v>
+      <c r="H18" s="54" t="s">
+        <v>231</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L18" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="M18" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="N18" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="O18" s="12" t="s">
         <v>239</v>
-      </c>
-      <c r="M18" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="N18" s="44" t="s">
-        <v>202</v>
-      </c>
-      <c r="O18" s="12" t="s">
-        <v>242</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>184</v>
       </c>
       <c r="Q18" s="38" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="R18" s="8" t="s">
         <v>31</v>
@@ -8303,7 +8539,7 @@
         <v>31</v>
       </c>
       <c r="Y18" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Z18" s="4" t="s">
         <v>32</v>
@@ -8312,13 +8548,13 @@
         <v>31</v>
       </c>
       <c r="AB18" s="19" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AC18" s="12" t="s">
         <v>31</v>
       </c>
       <c r="AD18" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AE18" s="12" t="s">
         <v>32</v>
@@ -8327,7 +8563,7 @@
         <v>31</v>
       </c>
       <c r="AG18" s="19" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AH18" s="4" t="s">
         <v>32</v>
@@ -8569,7 +8805,7 @@
     </row>
     <row r="19" spans="1:112" ht="15.75">
       <c r="A19" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>24</v>
@@ -8581,41 +8817,41 @@
       <c r="E19" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F19" s="51" t="s">
-        <v>199</v>
+      <c r="F19" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="H19" s="55" t="s">
-        <v>234</v>
+        <v>198</v>
+      </c>
+      <c r="H19" s="54" t="s">
+        <v>231</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L19" s="45" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M19" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N19" s="44" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O19" s="12" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="P19" s="4" t="s">
         <v>184</v>
       </c>
       <c r="Q19" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="R19" s="8" t="s">
         <v>32</v>
@@ -8639,7 +8875,7 @@
         <v>31</v>
       </c>
       <c r="Y19" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Z19" s="4" t="s">
         <v>32</v>
@@ -8648,13 +8884,13 @@
         <v>31</v>
       </c>
       <c r="AB19" s="19" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AC19" s="12" t="s">
         <v>31</v>
       </c>
       <c r="AD19" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AE19" s="12" t="s">
         <v>32</v>
@@ -8663,7 +8899,7 @@
         <v>31</v>
       </c>
       <c r="AG19" s="19" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AH19" s="4" t="s">
         <v>32</v>
@@ -8905,7 +9141,7 @@
     </row>
     <row r="20" spans="1:112" ht="15.75">
       <c r="A20" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>24</v>
@@ -8917,35 +9153,35 @@
       <c r="E20" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F20" s="51" t="s">
-        <v>199</v>
+      <c r="F20" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="55" t="s">
-        <v>235</v>
+      <c r="H20" s="54" t="s">
+        <v>232</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L20" s="45" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M20" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N20" s="44" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>184</v>
@@ -8984,7 +9220,7 @@
         <v>31</v>
       </c>
       <c r="AB20" s="19" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AC20" s="12" t="s">
         <v>32</v>
@@ -9239,7 +9475,7 @@
     </row>
     <row r="21" spans="1:112" ht="15.75">
       <c r="A21" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>24</v>
@@ -9251,20 +9487,20 @@
       <c r="E21" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F21" s="51" t="s">
-        <v>199</v>
+      <c r="F21" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="H21" s="55" t="s">
-        <v>236</v>
+        <v>198</v>
+      </c>
+      <c r="H21" s="54" t="s">
+        <v>233</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>8</v>
@@ -9276,10 +9512,10 @@
         <v>14</v>
       </c>
       <c r="N21" s="44" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="O21" s="12" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>184</v>
@@ -9333,7 +9569,7 @@
         <v>31</v>
       </c>
       <c r="AG21" s="19" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AH21" s="4" t="s">
         <v>32</v>
@@ -9575,7 +9811,7 @@
     </row>
     <row r="22" spans="1:112" ht="15.75">
       <c r="A22" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>24</v>
@@ -9587,35 +9823,35 @@
       <c r="E22" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F22" s="51" t="s">
-        <v>199</v>
+      <c r="F22" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="55" t="s">
-        <v>237</v>
+      <c r="H22" s="54" t="s">
+        <v>234</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L22" s="45" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M22" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N22" s="44" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="O22" s="12" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="P22" s="4" t="s">
         <v>184</v>
@@ -9645,7 +9881,7 @@
         <v>32</v>
       </c>
       <c r="Y22" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Z22" s="4" t="s">
         <v>32</v>
@@ -9654,7 +9890,7 @@
         <v>32</v>
       </c>
       <c r="AB22" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AC22" s="12" t="s">
         <v>32</v>
@@ -9909,7 +10145,7 @@
     </row>
     <row r="23" spans="1:112" ht="15.75">
       <c r="A23" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>24</v>
@@ -9921,32 +10157,32 @@
       <c r="E23" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F23" s="51" t="s">
-        <v>199</v>
+      <c r="F23" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="H23" s="55" t="s">
-        <v>237</v>
+        <v>198</v>
+      </c>
+      <c r="H23" s="54" t="s">
+        <v>234</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L23" s="45" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M23" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N23" s="44" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="O23" s="12" t="s">
         <v>188</v>
@@ -9979,7 +10215,7 @@
         <v>32</v>
       </c>
       <c r="Y23" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Z23" s="4" t="s">
         <v>32</v>
@@ -9988,7 +10224,7 @@
         <v>31</v>
       </c>
       <c r="AB23" s="19" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AC23" s="12" t="s">
         <v>32</v>
@@ -10243,7 +10479,7 @@
     </row>
     <row r="24" spans="1:112" ht="15.75">
       <c r="A24" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>24</v>
@@ -10255,35 +10491,35 @@
       <c r="E24" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F24" s="51" t="s">
-        <v>199</v>
+      <c r="F24" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="G24" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H24" s="55" t="s">
-        <v>234</v>
+      <c r="H24" s="54" t="s">
+        <v>231</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L24" s="45" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M24" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N24" s="44" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="O24" s="12" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="P24" s="4" t="s">
         <v>184</v>
@@ -10313,7 +10549,7 @@
         <v>31</v>
       </c>
       <c r="Y24" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Z24" s="4" t="s">
         <v>32</v>
@@ -10322,22 +10558,22 @@
         <v>31</v>
       </c>
       <c r="AB24" s="19" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AC24" s="12" t="s">
         <v>31</v>
       </c>
       <c r="AD24" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AE24" s="12" t="s">
         <v>32</v>
       </c>
       <c r="AF24" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AG24" s="19" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AH24" s="4" t="s">
         <v>32</v>
@@ -10579,7 +10815,7 @@
     </row>
     <row r="25" spans="1:112" ht="15.75">
       <c r="A25" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>24</v>
@@ -10591,41 +10827,41 @@
       <c r="E25" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F25" s="51" t="s">
-        <v>199</v>
+      <c r="F25" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="H25" s="55" t="s">
-        <v>234</v>
+        <v>198</v>
+      </c>
+      <c r="H25" s="54" t="s">
+        <v>231</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L25" s="45" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M25" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N25" s="44" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="O25" s="12" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="P25" s="4" t="s">
         <v>184</v>
       </c>
       <c r="Q25" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="R25" s="8" t="s">
         <v>32</v>
@@ -10649,7 +10885,7 @@
         <v>31</v>
       </c>
       <c r="Y25" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Z25" s="4" t="s">
         <v>32</v>
@@ -10658,13 +10894,13 @@
         <v>31</v>
       </c>
       <c r="AB25" s="19" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AC25" s="12" t="s">
         <v>31</v>
       </c>
       <c r="AD25" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AE25" s="12" t="s">
         <v>32</v>
@@ -10673,7 +10909,7 @@
         <v>31</v>
       </c>
       <c r="AG25" s="19" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AH25" s="4" t="s">
         <v>32</v>
@@ -10915,7 +11151,7 @@
     </row>
     <row r="26" spans="1:112" ht="15.75">
       <c r="A26" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>24</v>
@@ -10927,20 +11163,20 @@
       <c r="E26" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F26" s="51" t="s">
-        <v>199</v>
+      <c r="F26" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H26" s="55" t="s">
+      <c r="H26" s="54" t="s">
         <v>168</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>8</v>
@@ -10952,16 +11188,16 @@
         <v>14</v>
       </c>
       <c r="N26" s="44" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O26" s="12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P26" s="4" t="s">
         <v>184</v>
       </c>
       <c r="Q26" s="38" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="R26" s="8" t="s">
         <v>32</v>
@@ -10985,7 +11221,7 @@
         <v>31</v>
       </c>
       <c r="Y26" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Z26" s="4" t="s">
         <v>32</v>
@@ -10994,7 +11230,7 @@
         <v>31</v>
       </c>
       <c r="AB26" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AC26" s="12" t="s">
         <v>32</v>
@@ -11249,7 +11485,7 @@
     </row>
     <row r="27" spans="1:112" ht="15.75">
       <c r="A27" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>24</v>
@@ -11261,32 +11497,32 @@
       <c r="E27" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F27" s="51" t="s">
-        <v>199</v>
+      <c r="F27" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="H27" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="H27" s="54" t="s">
         <v>168</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L27" s="45" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M27" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N27" s="44" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O27" s="12" t="s">
         <v>188</v>
@@ -11295,7 +11531,7 @@
         <v>184</v>
       </c>
       <c r="Q27" s="38" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="R27" s="8" t="s">
         <v>32</v>
@@ -11319,7 +11555,7 @@
         <v>32</v>
       </c>
       <c r="Y27" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Z27" s="4" t="s">
         <v>31</v>
@@ -11328,7 +11564,7 @@
         <v>32</v>
       </c>
       <c r="AB27" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AC27" s="12" t="s">
         <v>32</v>
@@ -11343,7 +11579,7 @@
         <v>31</v>
       </c>
       <c r="AG27" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AH27" s="4" t="s">
         <v>32</v>
@@ -11585,7 +11821,7 @@
     </row>
     <row r="28" spans="1:112" ht="15.75">
       <c r="A28" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>24</v>
@@ -11597,41 +11833,41 @@
       <c r="E28" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F28" s="51" t="s">
-        <v>199</v>
+      <c r="F28" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H28" s="55" t="s">
+      <c r="H28" s="54" t="s">
         <v>168</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K28" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L28" s="45" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M28" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N28" s="44" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O28" s="12" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="P28" s="4" t="s">
         <v>184</v>
       </c>
       <c r="Q28" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="R28" s="8" t="s">
         <v>32</v>
@@ -11655,7 +11891,7 @@
         <v>32</v>
       </c>
       <c r="Y28" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Z28" s="4" t="s">
         <v>31</v>
@@ -11664,7 +11900,7 @@
         <v>32</v>
       </c>
       <c r="AB28" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AC28" s="12" t="s">
         <v>32</v>
@@ -11679,7 +11915,7 @@
         <v>31</v>
       </c>
       <c r="AG28" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AH28" s="4" t="s">
         <v>32</v>
@@ -11921,7 +12157,7 @@
     </row>
     <row r="29" spans="1:112" ht="15.75">
       <c r="A29" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>24</v>
@@ -11933,41 +12169,41 @@
       <c r="E29" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F29" s="51" t="s">
-        <v>199</v>
+      <c r="F29" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="H29" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="H29" s="54" t="s">
         <v>168</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L29" s="45" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M29" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N29" s="44" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O29" s="12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P29" s="4" t="s">
         <v>184</v>
       </c>
       <c r="Q29" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="R29" s="8" t="s">
         <v>31</v>
@@ -11991,7 +12227,7 @@
         <v>31</v>
       </c>
       <c r="Y29" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Z29" s="4" t="s">
         <v>32</v>
@@ -12000,7 +12236,7 @@
         <v>31</v>
       </c>
       <c r="AB29" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AC29" s="12" t="s">
         <v>32</v>
@@ -12255,7 +12491,7 @@
     </row>
     <row r="30" spans="1:112" ht="15.75">
       <c r="A30" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>24</v>
@@ -12267,41 +12503,41 @@
       <c r="E30" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F30" s="51" t="s">
-        <v>199</v>
+      <c r="F30" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="G30" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H30" s="55" t="s">
+      <c r="H30" s="54" t="s">
         <v>168</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L30" s="45" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M30" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N30" s="44" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O30" s="12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P30" s="4" t="s">
         <v>184</v>
       </c>
       <c r="Q30" s="38" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="R30" s="8" t="s">
         <v>31</v>
@@ -12325,7 +12561,7 @@
         <v>31</v>
       </c>
       <c r="Y30" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Z30" s="4" t="s">
         <v>32</v>
@@ -12334,7 +12570,7 @@
         <v>31</v>
       </c>
       <c r="AB30" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AC30" s="12" t="s">
         <v>32</v>
@@ -12589,7 +12825,7 @@
     </row>
     <row r="31" spans="1:112" ht="15.75">
       <c r="A31" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>24</v>
@@ -12601,20 +12837,20 @@
       <c r="E31" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F31" s="51" t="s">
-        <v>199</v>
+      <c r="F31" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="H31" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="H31" s="54" t="s">
         <v>168</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K31" s="4" t="s">
         <v>8</v>
@@ -12626,10 +12862,10 @@
         <v>26</v>
       </c>
       <c r="N31" s="44" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O31" s="12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P31" s="4" t="s">
         <v>184</v>
@@ -12659,7 +12895,7 @@
         <v>31</v>
       </c>
       <c r="Y31" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Z31" s="4" t="s">
         <v>32</v>
@@ -12668,7 +12904,7 @@
         <v>31</v>
       </c>
       <c r="AB31" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AC31" s="12" t="s">
         <v>32</v>
@@ -13085,7 +13321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DI31"/>
   <sheetViews>
@@ -13307,7 +13543,7 @@
         <v>179</v>
       </c>
       <c r="AG1" s="14" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AH1" s="15" t="s">
         <v>180</v>
@@ -13319,7 +13555,7 @@
         <v>185</v>
       </c>
       <c r="AK1" s="14" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AL1" s="15" t="s">
         <v>38</v>
@@ -13564,35 +13800,35 @@
       <c r="E2" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F2" s="51" t="s">
-        <v>199</v>
+      <c r="F2" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="H2" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="H2" s="54" t="s">
         <v>168</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L2" s="45" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M2" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N2" s="44" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>184</v>
@@ -13622,7 +13858,7 @@
         <v>31</v>
       </c>
       <c r="Y2" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Z2" s="4" t="s">
         <v>32</v>
@@ -13631,7 +13867,7 @@
         <v>31</v>
       </c>
       <c r="AB2" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AC2" s="12" t="s">
         <v>32</v>
@@ -13654,7 +13890,7 @@
         <v>32</v>
       </c>
       <c r="AK2" s="19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AL2" s="4" t="s">
         <v>39</v>
@@ -13887,7 +14123,7 @@
     </row>
     <row r="3" spans="1:113" s="43" customFormat="1" ht="15.75">
       <c r="A3" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>24</v>
@@ -13899,35 +14135,35 @@
       <c r="E3" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F3" s="51" t="s">
-        <v>199</v>
+      <c r="F3" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="55" t="s">
+      <c r="H3" s="54" t="s">
         <v>168</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L3" s="45" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M3" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N3" s="44" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>184</v>
@@ -13957,7 +14193,7 @@
         <v>31</v>
       </c>
       <c r="Y3" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Z3" s="4" t="s">
         <v>32</v>
@@ -13966,7 +14202,7 @@
         <v>31</v>
       </c>
       <c r="AB3" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AC3" s="12" t="s">
         <v>32</v>
@@ -13989,7 +14225,7 @@
         <v>32</v>
       </c>
       <c r="AK3" s="19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AL3" s="4" t="s">
         <v>39</v>
@@ -14222,7 +14458,7 @@
     </row>
     <row r="4" spans="1:113" s="43" customFormat="1" ht="15.75">
       <c r="A4" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>24</v>
@@ -14234,32 +14470,32 @@
       <c r="E4" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F4" s="51" t="s">
-        <v>199</v>
+      <c r="F4" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="H4" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="H4" s="54" t="s">
         <v>168</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L4" s="45" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M4" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N4" s="44" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O4" s="12" t="s">
         <v>188</v>
@@ -14312,7 +14548,7 @@
         <v>31</v>
       </c>
       <c r="AG4" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AH4" s="4" t="s">
         <v>32</v>
@@ -14324,7 +14560,7 @@
         <v>32</v>
       </c>
       <c r="AK4" s="19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AL4" s="4" t="s">
         <v>39</v>
@@ -14557,7 +14793,7 @@
     </row>
     <row r="5" spans="1:113" s="43" customFormat="1" ht="15.75">
       <c r="A5" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>24</v>
@@ -14569,35 +14805,35 @@
       <c r="E5" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F5" s="51" t="s">
-        <v>199</v>
+      <c r="F5" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="55" t="s">
+      <c r="H5" s="54" t="s">
         <v>168</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L5" s="45" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M5" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N5" s="44" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>184</v>
@@ -14647,7 +14883,7 @@
         <v>31</v>
       </c>
       <c r="AG5" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AH5" s="4" t="s">
         <v>32</v>
@@ -14659,7 +14895,7 @@
         <v>32</v>
       </c>
       <c r="AK5" s="19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AL5" s="4" t="s">
         <v>39</v>
@@ -14892,7 +15128,7 @@
     </row>
     <row r="6" spans="1:113" s="43" customFormat="1" ht="15.75">
       <c r="A6" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>24</v>
@@ -14904,20 +15140,20 @@
       <c r="E6" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F6" s="51" t="s">
-        <v>199</v>
+      <c r="F6" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="H6" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="H6" s="54" t="s">
         <v>168</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>8</v>
@@ -14929,10 +15165,10 @@
         <v>14</v>
       </c>
       <c r="N6" s="44" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>184</v>
@@ -14962,7 +15198,7 @@
         <v>31</v>
       </c>
       <c r="Y6" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Z6" s="4" t="s">
         <v>32</v>
@@ -14971,7 +15207,7 @@
         <v>31</v>
       </c>
       <c r="AB6" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AC6" s="12" t="s">
         <v>32</v>
@@ -14994,7 +15230,7 @@
         <v>32</v>
       </c>
       <c r="AK6" s="19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AL6" s="4" t="s">
         <v>39</v>
@@ -15227,7 +15463,7 @@
     </row>
     <row r="7" spans="1:113" ht="15.75">
       <c r="A7" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>24</v>
@@ -15239,35 +15475,35 @@
       <c r="E7" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F7" s="51" t="s">
-        <v>199</v>
+      <c r="F7" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="55" t="s">
+      <c r="H7" s="54" t="s">
         <v>168</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L7" s="45" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M7" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N7" s="44" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>184</v>
@@ -15297,7 +15533,7 @@
         <v>31</v>
       </c>
       <c r="Y7" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Z7" s="4" t="s">
         <v>32</v>
@@ -15306,7 +15542,7 @@
         <v>31</v>
       </c>
       <c r="AB7" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AC7" s="12" t="s">
         <v>32</v>
@@ -15329,7 +15565,7 @@
         <v>32</v>
       </c>
       <c r="AK7" s="19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AL7" s="4" t="s">
         <v>39</v>
@@ -15562,7 +15798,7 @@
     </row>
     <row r="8" spans="1:113" ht="15.75">
       <c r="A8" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>24</v>
@@ -15574,32 +15810,32 @@
       <c r="E8" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F8" s="51" t="s">
-        <v>199</v>
+      <c r="F8" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="H8" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="H8" s="54" t="s">
         <v>168</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L8" s="45" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M8" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N8" s="44" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O8" s="12" t="s">
         <v>188</v>
@@ -15632,7 +15868,7 @@
         <v>32</v>
       </c>
       <c r="Y8" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Z8" s="4" t="s">
         <v>31</v>
@@ -15652,7 +15888,7 @@
         <v>31</v>
       </c>
       <c r="AG8" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AH8" s="4" t="s">
         <v>32</v>
@@ -15664,7 +15900,7 @@
         <v>32</v>
       </c>
       <c r="AK8" s="19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AL8" s="4" t="s">
         <v>39</v>
@@ -15897,7 +16133,7 @@
     </row>
     <row r="9" spans="1:113" customFormat="1" ht="15.75">
       <c r="A9" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>24</v>
@@ -15909,35 +16145,35 @@
       <c r="E9" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F9" s="51" t="s">
-        <v>199</v>
+      <c r="F9" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="55" t="s">
+      <c r="H9" s="54" t="s">
         <v>168</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L9" s="45" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M9" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N9" s="44" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>184</v>
@@ -15987,7 +16223,7 @@
         <v>31</v>
       </c>
       <c r="AG9" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AH9" s="4" t="s">
         <v>32</v>
@@ -15999,7 +16235,7 @@
         <v>32</v>
       </c>
       <c r="AK9" s="19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AL9" s="4" t="s">
         <v>39</v>
@@ -16232,7 +16468,7 @@
     </row>
     <row r="10" spans="1:113" customFormat="1" ht="15.75">
       <c r="A10" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>24</v>
@@ -16244,35 +16480,35 @@
       <c r="E10" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F10" s="51" t="s">
-        <v>199</v>
+      <c r="F10" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="H10" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="H10" s="54" t="s">
         <v>168</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L10" s="45" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M10" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N10" s="44" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>184</v>
@@ -16302,7 +16538,7 @@
         <v>31</v>
       </c>
       <c r="Y10" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Z10" s="4" t="s">
         <v>32</v>
@@ -16311,7 +16547,7 @@
         <v>31</v>
       </c>
       <c r="AB10" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AC10" s="12" t="s">
         <v>32</v>
@@ -16334,7 +16570,7 @@
         <v>32</v>
       </c>
       <c r="AK10" s="19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AL10" s="4" t="s">
         <v>39</v>
@@ -16567,7 +16803,7 @@
     </row>
     <row r="11" spans="1:113" customFormat="1" ht="15.75">
       <c r="A11" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>24</v>
@@ -16579,20 +16815,20 @@
       <c r="E11" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F11" s="51" t="s">
-        <v>199</v>
+      <c r="F11" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="55" t="s">
+      <c r="H11" s="54" t="s">
         <v>168</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>8</v>
@@ -16604,10 +16840,10 @@
         <v>26</v>
       </c>
       <c r="N11" s="44" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>184</v>
@@ -16637,7 +16873,7 @@
         <v>31</v>
       </c>
       <c r="Y11" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Z11" s="4" t="s">
         <v>32</v>
@@ -16646,7 +16882,7 @@
         <v>31</v>
       </c>
       <c r="AB11" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AC11" s="12" t="s">
         <v>32</v>
@@ -16669,7 +16905,7 @@
         <v>32</v>
       </c>
       <c r="AK11" s="19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AL11" s="4" t="s">
         <v>39</v>
@@ -16902,7 +17138,7 @@
     </row>
     <row r="12" spans="1:113" customFormat="1" ht="15.75">
       <c r="A12" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>24</v>
@@ -16914,32 +17150,32 @@
       <c r="E12" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F12" s="51" t="s">
-        <v>199</v>
+      <c r="F12" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="H12" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="H12" s="54" t="s">
         <v>168</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L12" s="45" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M12" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N12" s="44" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O12" s="12" t="s">
         <v>188</v>
@@ -16972,7 +17208,7 @@
         <v>32</v>
       </c>
       <c r="Y12" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Z12" s="4" t="s">
         <v>31</v>
@@ -16992,7 +17228,7 @@
         <v>31</v>
       </c>
       <c r="AG12" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AH12" s="4" t="s">
         <v>32</v>
@@ -17004,7 +17240,7 @@
         <v>32</v>
       </c>
       <c r="AK12" s="19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AL12" s="4" t="s">
         <v>39</v>
@@ -17237,7 +17473,7 @@
     </row>
     <row r="13" spans="1:113" customFormat="1" ht="15.75">
       <c r="A13" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>24</v>
@@ -17249,35 +17485,35 @@
       <c r="E13" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F13" s="51" t="s">
-        <v>199</v>
+      <c r="F13" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="55" t="s">
+      <c r="H13" s="54" t="s">
         <v>168</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L13" s="45" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M13" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N13" s="44" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>184</v>
@@ -17307,7 +17543,7 @@
         <v>32</v>
       </c>
       <c r="Y13" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Z13" s="4" t="s">
         <v>31</v>
@@ -17327,7 +17563,7 @@
         <v>31</v>
       </c>
       <c r="AG13" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AH13" s="4" t="s">
         <v>32</v>
@@ -17339,7 +17575,7 @@
         <v>32</v>
       </c>
       <c r="AK13" s="19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AL13" s="4" t="s">
         <v>39</v>
@@ -17572,7 +17808,7 @@
     </row>
     <row r="14" spans="1:113" ht="15.75">
       <c r="A14" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>24</v>
@@ -17584,35 +17820,35 @@
       <c r="E14" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F14" s="51" t="s">
-        <v>199</v>
+      <c r="F14" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="H14" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="H14" s="54" t="s">
         <v>168</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L14" s="45" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M14" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N14" s="44" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O14" s="12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>184</v>
@@ -17642,7 +17878,7 @@
         <v>31</v>
       </c>
       <c r="Y14" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Z14" s="4" t="s">
         <v>32</v>
@@ -17651,7 +17887,7 @@
         <v>31</v>
       </c>
       <c r="AB14" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AC14" s="12" t="s">
         <v>32</v>
@@ -17674,7 +17910,7 @@
         <v>32</v>
       </c>
       <c r="AK14" s="19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AL14" s="4" t="s">
         <v>39</v>
@@ -17907,7 +18143,7 @@
     </row>
     <row r="15" spans="1:113" ht="15.75">
       <c r="A15" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>24</v>
@@ -17919,35 +18155,35 @@
       <c r="E15" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F15" s="51" t="s">
-        <v>199</v>
+      <c r="F15" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="55" t="s">
+      <c r="H15" s="54" t="s">
         <v>168</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L15" s="45" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M15" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N15" s="44" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O15" s="12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>184</v>
@@ -17977,7 +18213,7 @@
         <v>31</v>
       </c>
       <c r="Y15" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Z15" s="4" t="s">
         <v>32</v>
@@ -17986,7 +18222,7 @@
         <v>31</v>
       </c>
       <c r="AB15" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AC15" s="12" t="s">
         <v>32</v>
@@ -18009,7 +18245,7 @@
         <v>32</v>
       </c>
       <c r="AK15" s="19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AL15" s="4" t="s">
         <v>39</v>
@@ -18242,7 +18478,7 @@
     </row>
     <row r="16" spans="1:113" ht="15.75">
       <c r="A16" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>24</v>
@@ -18254,20 +18490,20 @@
       <c r="E16" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F16" s="51" t="s">
-        <v>199</v>
+      <c r="F16" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="H16" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="H16" s="54" t="s">
         <v>168</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>8</v>
@@ -18279,7 +18515,7 @@
         <v>26</v>
       </c>
       <c r="N16" s="44" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O16" s="12" t="s">
         <v>188</v>
@@ -18332,7 +18568,7 @@
         <v>31</v>
       </c>
       <c r="AG16" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AH16" s="4" t="s">
         <v>32</v>
@@ -18344,7 +18580,7 @@
         <v>32</v>
       </c>
       <c r="AK16" s="19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AL16" s="4" t="s">
         <v>39</v>
@@ -18577,7 +18813,7 @@
     </row>
     <row r="17" spans="1:113" ht="15.75">
       <c r="A17" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>24</v>
@@ -18589,35 +18825,35 @@
       <c r="E17" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F17" s="51" t="s">
-        <v>199</v>
+      <c r="F17" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="55" t="s">
+      <c r="H17" s="54" t="s">
         <v>168</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L17" s="45" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M17" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N17" s="44" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O17" s="12" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>184</v>
@@ -18647,7 +18883,7 @@
         <v>32</v>
       </c>
       <c r="Y17" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Z17" s="4" t="s">
         <v>31</v>
@@ -18667,7 +18903,7 @@
         <v>31</v>
       </c>
       <c r="AG17" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AH17" s="4" t="s">
         <v>32</v>
@@ -18679,7 +18915,7 @@
         <v>32</v>
       </c>
       <c r="AK17" s="19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AL17" s="4" t="s">
         <v>39</v>
@@ -18912,7 +19148,7 @@
     </row>
     <row r="18" spans="1:113" ht="15.75">
       <c r="A18" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>24</v>
@@ -18924,41 +19160,41 @@
       <c r="E18" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F18" s="51" t="s">
-        <v>199</v>
+      <c r="F18" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H18" s="55" t="s">
-        <v>234</v>
+      <c r="H18" s="54" t="s">
+        <v>231</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L18" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="M18" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="N18" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="O18" s="12" t="s">
         <v>239</v>
-      </c>
-      <c r="M18" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="N18" s="44" t="s">
-        <v>202</v>
-      </c>
-      <c r="O18" s="12" t="s">
-        <v>242</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>184</v>
       </c>
       <c r="Q18" s="38" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="R18" s="8" t="s">
         <v>31</v>
@@ -18982,7 +19218,7 @@
         <v>31</v>
       </c>
       <c r="Y18" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Z18" s="4" t="s">
         <v>32</v>
@@ -18991,13 +19227,13 @@
         <v>31</v>
       </c>
       <c r="AB18" s="19" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AC18" s="12" t="s">
         <v>31</v>
       </c>
       <c r="AD18" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AE18" s="12" t="s">
         <v>32</v>
@@ -19006,7 +19242,7 @@
         <v>31</v>
       </c>
       <c r="AG18" s="19" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AH18" s="4" t="s">
         <v>32</v>
@@ -19018,7 +19254,7 @@
         <v>32</v>
       </c>
       <c r="AK18" s="19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AL18" s="4" t="s">
         <v>39</v>
@@ -19251,7 +19487,7 @@
     </row>
     <row r="19" spans="1:113" ht="15.75">
       <c r="A19" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>24</v>
@@ -19263,41 +19499,41 @@
       <c r="E19" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F19" s="51" t="s">
-        <v>199</v>
+      <c r="F19" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="H19" s="55" t="s">
-        <v>234</v>
+        <v>198</v>
+      </c>
+      <c r="H19" s="54" t="s">
+        <v>231</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L19" s="45" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M19" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N19" s="44" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O19" s="12" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="P19" s="4" t="s">
         <v>184</v>
       </c>
       <c r="Q19" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="R19" s="8" t="s">
         <v>32</v>
@@ -19321,7 +19557,7 @@
         <v>31</v>
       </c>
       <c r="Y19" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Z19" s="4" t="s">
         <v>32</v>
@@ -19330,13 +19566,13 @@
         <v>31</v>
       </c>
       <c r="AB19" s="19" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AC19" s="12" t="s">
         <v>31</v>
       </c>
       <c r="AD19" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AE19" s="12" t="s">
         <v>32</v>
@@ -19345,7 +19581,7 @@
         <v>31</v>
       </c>
       <c r="AG19" s="19" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AH19" s="4" t="s">
         <v>32</v>
@@ -19357,7 +19593,7 @@
         <v>32</v>
       </c>
       <c r="AK19" s="19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AL19" s="4" t="s">
         <v>39</v>
@@ -19590,7 +19826,7 @@
     </row>
     <row r="20" spans="1:113" ht="15.75">
       <c r="A20" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>24</v>
@@ -19602,35 +19838,35 @@
       <c r="E20" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F20" s="51" t="s">
-        <v>199</v>
+      <c r="F20" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="55" t="s">
-        <v>235</v>
+      <c r="H20" s="54" t="s">
+        <v>232</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L20" s="45" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M20" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N20" s="44" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>184</v>
@@ -19669,7 +19905,7 @@
         <v>31</v>
       </c>
       <c r="AB20" s="19" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AC20" s="12" t="s">
         <v>32</v>
@@ -19692,7 +19928,7 @@
         <v>32</v>
       </c>
       <c r="AK20" s="19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AL20" s="4" t="s">
         <v>39</v>
@@ -19925,7 +20161,7 @@
     </row>
     <row r="21" spans="1:113" ht="15.75">
       <c r="A21" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>24</v>
@@ -19937,20 +20173,20 @@
       <c r="E21" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F21" s="51" t="s">
-        <v>199</v>
+      <c r="F21" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="H21" s="55" t="s">
-        <v>236</v>
+        <v>198</v>
+      </c>
+      <c r="H21" s="54" t="s">
+        <v>233</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>8</v>
@@ -19962,10 +20198,10 @@
         <v>14</v>
       </c>
       <c r="N21" s="44" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="O21" s="12" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>184</v>
@@ -20015,7 +20251,7 @@
         <v>31</v>
       </c>
       <c r="AG21" s="19" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AH21" s="4" t="s">
         <v>32</v>
@@ -20027,7 +20263,7 @@
         <v>32</v>
       </c>
       <c r="AK21" s="19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AL21" s="4" t="s">
         <v>39</v>
@@ -20260,7 +20496,7 @@
     </row>
     <row r="22" spans="1:113" ht="15.75">
       <c r="A22" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>24</v>
@@ -20272,35 +20508,35 @@
       <c r="E22" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F22" s="51" t="s">
-        <v>199</v>
+      <c r="F22" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="55" t="s">
-        <v>237</v>
+      <c r="H22" s="54" t="s">
+        <v>234</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L22" s="45" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M22" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N22" s="44" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="O22" s="12" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="P22" s="4" t="s">
         <v>184</v>
@@ -20330,7 +20566,7 @@
         <v>32</v>
       </c>
       <c r="Y22" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Z22" s="4" t="s">
         <v>32</v>
@@ -20360,7 +20596,7 @@
         <v>32</v>
       </c>
       <c r="AK22" s="19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AL22" s="4" t="s">
         <v>39</v>
@@ -20593,7 +20829,7 @@
     </row>
     <row r="23" spans="1:113" ht="15.75">
       <c r="A23" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>24</v>
@@ -20605,32 +20841,32 @@
       <c r="E23" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F23" s="51" t="s">
-        <v>199</v>
+      <c r="F23" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="H23" s="55" t="s">
-        <v>237</v>
+        <v>198</v>
+      </c>
+      <c r="H23" s="54" t="s">
+        <v>234</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L23" s="45" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M23" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N23" s="44" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="O23" s="12" t="s">
         <v>188</v>
@@ -20663,7 +20899,7 @@
         <v>32</v>
       </c>
       <c r="Y23" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Z23" s="4" t="s">
         <v>32</v>
@@ -20672,7 +20908,7 @@
         <v>31</v>
       </c>
       <c r="AB23" s="19" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AC23" s="12" t="s">
         <v>32</v>
@@ -20695,7 +20931,7 @@
         <v>32</v>
       </c>
       <c r="AK23" s="19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AL23" s="4" t="s">
         <v>39</v>
@@ -20928,7 +21164,7 @@
     </row>
     <row r="24" spans="1:113" ht="15.75">
       <c r="A24" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>24</v>
@@ -20940,35 +21176,35 @@
       <c r="E24" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F24" s="51" t="s">
-        <v>199</v>
+      <c r="F24" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="G24" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H24" s="55" t="s">
-        <v>234</v>
+      <c r="H24" s="54" t="s">
+        <v>231</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L24" s="45" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M24" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N24" s="44" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="O24" s="12" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="P24" s="4" t="s">
         <v>184</v>
@@ -20998,7 +21234,7 @@
         <v>31</v>
       </c>
       <c r="Y24" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Z24" s="4" t="s">
         <v>32</v>
@@ -21007,22 +21243,22 @@
         <v>31</v>
       </c>
       <c r="AB24" s="19" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AC24" s="12" t="s">
         <v>31</v>
       </c>
       <c r="AD24" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AE24" s="12" t="s">
         <v>32</v>
       </c>
       <c r="AF24" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AG24" s="19" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AH24" s="4" t="s">
         <v>32</v>
@@ -21034,7 +21270,7 @@
         <v>32</v>
       </c>
       <c r="AK24" s="19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AL24" s="4" t="s">
         <v>39</v>
@@ -21267,7 +21503,7 @@
     </row>
     <row r="25" spans="1:113" ht="15.75">
       <c r="A25" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>24</v>
@@ -21279,41 +21515,41 @@
       <c r="E25" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F25" s="51" t="s">
-        <v>199</v>
+      <c r="F25" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="H25" s="55" t="s">
-        <v>234</v>
+        <v>198</v>
+      </c>
+      <c r="H25" s="54" t="s">
+        <v>231</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L25" s="45" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M25" s="37" t="s">
         <v>26</v>
       </c>
       <c r="N25" s="44" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="O25" s="12" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="P25" s="4" t="s">
         <v>184</v>
       </c>
       <c r="Q25" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="R25" s="8" t="s">
         <v>32</v>
@@ -21337,7 +21573,7 @@
         <v>31</v>
       </c>
       <c r="Y25" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Z25" s="4" t="s">
         <v>32</v>
@@ -21346,13 +21582,13 @@
         <v>31</v>
       </c>
       <c r="AB25" s="19" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AC25" s="12" t="s">
         <v>31</v>
       </c>
       <c r="AD25" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AE25" s="12" t="s">
         <v>32</v>
@@ -21361,7 +21597,7 @@
         <v>31</v>
       </c>
       <c r="AG25" s="19" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AH25" s="4" t="s">
         <v>32</v>
@@ -21373,7 +21609,7 @@
         <v>32</v>
       </c>
       <c r="AK25" s="19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AL25" s="4" t="s">
         <v>39</v>
@@ -21606,7 +21842,7 @@
     </row>
     <row r="26" spans="1:113" ht="15.75">
       <c r="A26" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>24</v>
@@ -21618,20 +21854,20 @@
       <c r="E26" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F26" s="51" t="s">
-        <v>199</v>
+      <c r="F26" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H26" s="55" t="s">
+      <c r="H26" s="54" t="s">
         <v>168</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>8</v>
@@ -21643,16 +21879,16 @@
         <v>14</v>
       </c>
       <c r="N26" s="44" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O26" s="12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P26" s="4" t="s">
         <v>184</v>
       </c>
       <c r="Q26" s="38" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="R26" s="8" t="s">
         <v>32</v>
@@ -21676,7 +21912,7 @@
         <v>31</v>
       </c>
       <c r="Y26" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Z26" s="4" t="s">
         <v>32</v>
@@ -21685,7 +21921,7 @@
         <v>31</v>
       </c>
       <c r="AB26" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AC26" s="12" t="s">
         <v>32</v>
@@ -21708,7 +21944,7 @@
         <v>32</v>
       </c>
       <c r="AK26" s="19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AL26" s="4" t="s">
         <v>39</v>
@@ -21941,7 +22177,7 @@
     </row>
     <row r="27" spans="1:113" ht="15.75">
       <c r="A27" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>24</v>
@@ -21953,32 +22189,32 @@
       <c r="E27" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F27" s="51" t="s">
-        <v>199</v>
+      <c r="F27" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="H27" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="H27" s="54" t="s">
         <v>168</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L27" s="45" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M27" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N27" s="44" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O27" s="12" t="s">
         <v>188</v>
@@ -21987,7 +22223,7 @@
         <v>184</v>
       </c>
       <c r="Q27" s="38" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="R27" s="8" t="s">
         <v>32</v>
@@ -22011,7 +22247,7 @@
         <v>32</v>
       </c>
       <c r="Y27" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Z27" s="4" t="s">
         <v>31</v>
@@ -22031,7 +22267,7 @@
         <v>31</v>
       </c>
       <c r="AG27" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AH27" s="4" t="s">
         <v>32</v>
@@ -22043,7 +22279,7 @@
         <v>32</v>
       </c>
       <c r="AK27" s="19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AL27" s="4" t="s">
         <v>39</v>
@@ -22276,7 +22512,7 @@
     </row>
     <row r="28" spans="1:113" ht="15.75">
       <c r="A28" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>24</v>
@@ -22288,41 +22524,41 @@
       <c r="E28" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F28" s="51" t="s">
-        <v>199</v>
+      <c r="F28" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H28" s="55" t="s">
+      <c r="H28" s="54" t="s">
         <v>168</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K28" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L28" s="45" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M28" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N28" s="44" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O28" s="12" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="P28" s="4" t="s">
         <v>184</v>
       </c>
       <c r="Q28" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="R28" s="8" t="s">
         <v>32</v>
@@ -22346,7 +22582,7 @@
         <v>32</v>
       </c>
       <c r="Y28" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Z28" s="4" t="s">
         <v>31</v>
@@ -22366,7 +22602,7 @@
         <v>31</v>
       </c>
       <c r="AG28" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AH28" s="4" t="s">
         <v>32</v>
@@ -22378,7 +22614,7 @@
         <v>32</v>
       </c>
       <c r="AK28" s="19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AL28" s="4" t="s">
         <v>39</v>
@@ -22611,7 +22847,7 @@
     </row>
     <row r="29" spans="1:113" ht="15.75">
       <c r="A29" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>24</v>
@@ -22623,41 +22859,41 @@
       <c r="E29" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F29" s="51" t="s">
-        <v>199</v>
+      <c r="F29" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="H29" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="H29" s="54" t="s">
         <v>168</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L29" s="45" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M29" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N29" s="44" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O29" s="12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P29" s="4" t="s">
         <v>184</v>
       </c>
       <c r="Q29" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="R29" s="8" t="s">
         <v>31</v>
@@ -22681,7 +22917,7 @@
         <v>31</v>
       </c>
       <c r="Y29" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Z29" s="4" t="s">
         <v>32</v>
@@ -22690,7 +22926,7 @@
         <v>31</v>
       </c>
       <c r="AB29" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AC29" s="12" t="s">
         <v>32</v>
@@ -22713,7 +22949,7 @@
         <v>32</v>
       </c>
       <c r="AK29" s="19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AL29" s="4" t="s">
         <v>39</v>
@@ -22946,7 +23182,7 @@
     </row>
     <row r="30" spans="1:113" ht="15.75">
       <c r="A30" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>24</v>
@@ -22958,41 +23194,41 @@
       <c r="E30" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F30" s="51" t="s">
-        <v>199</v>
+      <c r="F30" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="G30" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H30" s="55" t="s">
+      <c r="H30" s="54" t="s">
         <v>168</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L30" s="45" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M30" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N30" s="44" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O30" s="12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P30" s="4" t="s">
         <v>184</v>
       </c>
       <c r="Q30" s="38" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="R30" s="8" t="s">
         <v>31</v>
@@ -23016,7 +23252,7 @@
         <v>31</v>
       </c>
       <c r="Y30" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Z30" s="4" t="s">
         <v>32</v>
@@ -23025,7 +23261,7 @@
         <v>31</v>
       </c>
       <c r="AB30" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AC30" s="12" t="s">
         <v>32</v>
@@ -23048,7 +23284,7 @@
         <v>32</v>
       </c>
       <c r="AK30" s="19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AL30" s="4" t="s">
         <v>39</v>
@@ -23281,7 +23517,7 @@
     </row>
     <row r="31" spans="1:113" ht="15.75">
       <c r="A31" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>24</v>
@@ -23293,20 +23529,20 @@
       <c r="E31" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F31" s="51" t="s">
-        <v>199</v>
+      <c r="F31" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="H31" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="H31" s="54" t="s">
         <v>168</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K31" s="4" t="s">
         <v>8</v>
@@ -23318,10 +23554,10 @@
         <v>26</v>
       </c>
       <c r="N31" s="44" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O31" s="12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P31" s="4" t="s">
         <v>184</v>
@@ -23351,7 +23587,7 @@
         <v>31</v>
       </c>
       <c r="Y31" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Z31" s="4" t="s">
         <v>32</v>
@@ -23360,7 +23596,7 @@
         <v>31</v>
       </c>
       <c r="AB31" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AC31" s="12" t="s">
         <v>32</v>
@@ -23383,7 +23619,7 @@
         <v>32</v>
       </c>
       <c r="AK31" s="19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AL31" s="4" t="s">
         <v>39</v>
@@ -23778,12 +24014,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="A1:AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.140625" defaultRowHeight="15"/>
@@ -23794,21 +24030,24 @@
     <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="54" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="53" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="53" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="53" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.7109375" style="53" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="58" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="52" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="52" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" style="52" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" style="60" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.7109375" style="52" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23" style="61" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.140625" style="59"/>
+    <col min="18" max="18" width="23" style="60" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" style="58"/>
+    <col min="23" max="23" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.140625" style="52"/>
+    <col min="25" max="25" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="49" customFormat="1">
+    <row r="1" spans="1:27" s="49" customFormat="1">
       <c r="A1" s="47" t="s">
         <v>18</v>
       </c>
@@ -23827,125 +24066,153 @@
       <c r="F1" s="47" t="s">
         <v>193</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="56" t="s">
         <v>15</v>
       </c>
       <c r="H1" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="56" t="s">
+        <v>261</v>
+      </c>
+      <c r="J1" s="56" t="s">
+        <v>262</v>
+      </c>
+      <c r="K1" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="L1" s="56" t="s">
         <v>264</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="M1" s="56" t="s">
         <v>265</v>
       </c>
-      <c r="K1" s="47" t="s">
+      <c r="N1" s="56" t="s">
         <v>266</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="O1" s="61" t="s">
         <v>267</v>
       </c>
-      <c r="M1" s="57" t="s">
-        <v>268</v>
-      </c>
-      <c r="N1" s="57" t="s">
+      <c r="P1" s="56" t="s">
         <v>269</v>
       </c>
-      <c r="O1" s="62" t="s">
-        <v>270</v>
-      </c>
-      <c r="P1" s="57" t="s">
+      <c r="Q1" s="56" t="s">
+        <v>271</v>
+      </c>
+      <c r="R1" s="61" t="s">
         <v>272</v>
       </c>
-      <c r="Q1" s="57" t="s">
-        <v>274</v>
-      </c>
-      <c r="R1" s="62" t="s">
+      <c r="S1" s="56" t="s">
         <v>275</v>
       </c>
-      <c r="S1" s="60" t="s">
+      <c r="T1" s="48" t="s">
+        <v>277</v>
+      </c>
+      <c r="U1" s="56" t="s">
+        <v>279</v>
+      </c>
+      <c r="V1" s="56" t="s">
+        <v>281</v>
+      </c>
+      <c r="W1" s="56" t="s">
+        <v>288</v>
+      </c>
+      <c r="X1" s="47" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y1" s="56" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z1" s="47" t="s">
+        <v>286</v>
+      </c>
+      <c r="AA1" s="59" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="17.25">
+      <c r="A2" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="T1" s="66" t="s">
-        <v>280</v>
-      </c>
-      <c r="U1" s="60" t="s">
-        <v>282</v>
-      </c>
-      <c r="V1" s="60" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
-      <c r="A2" s="18" t="s">
-        <v>281</v>
-      </c>
       <c r="B2" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>195</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="C2" s="18"/>
       <c r="D2" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="50" t="s">
-        <v>196</v>
-      </c>
-      <c r="F2" s="51" t="s">
-        <v>198</v>
+        <v>285</v>
+      </c>
+      <c r="E2" s="67" t="s">
+        <v>283</v>
+      </c>
+      <c r="F2" s="50">
+        <v>7840954416</v>
       </c>
       <c r="G2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="52" t="s">
-        <v>197</v>
+      <c r="H2" s="51" t="s">
+        <v>268</v>
       </c>
       <c r="I2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="58" t="s">
-        <v>249</v>
-      </c>
-      <c r="K2" s="63">
-        <v>560000</v>
+      <c r="J2" s="57" t="s">
+        <v>246</v>
+      </c>
+      <c r="K2" s="62">
+        <v>565000</v>
       </c>
       <c r="L2" s="18" t="s">
         <v>14</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="N2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="64" t="s">
-        <v>271</v>
+      <c r="O2" s="63" t="s">
+        <v>290</v>
       </c>
       <c r="P2" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="R2" s="63" t="s">
         <v>273</v>
       </c>
-      <c r="Q2" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="R2" s="64" t="s">
+      <c r="S2" s="68" t="s">
         <v>276</v>
       </c>
-      <c r="S2" s="65" t="s">
-        <v>279</v>
-      </c>
-      <c r="T2" s="59">
+      <c r="T2" s="62">
         <v>50000</v>
       </c>
-      <c r="U2" s="67" t="s">
-        <v>283</v>
-      </c>
-      <c r="V2" s="67" t="s">
-        <v>285</v>
+      <c r="U2" s="68" t="s">
+        <v>280</v>
+      </c>
+      <c r="V2" s="68" t="s">
+        <v>282</v>
+      </c>
+      <c r="W2" s="68" t="s">
+        <v>292</v>
+      </c>
+      <c r="X2" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y2" s="68" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z2" s="68" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA2" s="64" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="10">
+  <dataValidations count="13">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
       <formula1>"Female,Male"</formula1>
     </dataValidation>
@@ -23976,6 +24243,15 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576">
       <formula1>"Lumpsum(Endowment),Regular Income"</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="W2:W1048576">
+      <formula1>"First Plan, Second Plan"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="Y2:Y1048576">
+      <formula1>"First Plan,Second Plan"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA1048576">
+      <formula1>"Single,Married,Divorced,Widowed"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
